--- a/UBCBench Results.xlsx
+++ b/UBCBench Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eDocs\MASc\ISSTA\UBCBenchNew\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eDocs\MASc\ISSTA\UBCBench\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8A74BD-13BC-4569-A30C-5A8D834E6CE1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8226B066-ACE3-4ED9-97DC-B66C65A199EA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18435" yWindow="-165" windowWidth="24375" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>UBCBench</t>
   </si>
@@ -158,6 +158,9 @@
   <si>
     <t>SendTextMessage</t>
   </si>
+  <si>
+    <t>CastingForward</t>
+  </si>
 </sst>
 </file>
 
@@ -172,15 +175,18 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -238,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -247,23 +253,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -581,11 +589,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:W1010"/>
+  <dimension ref="A1:W1011"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W5" sqref="W5"/>
+      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -595,50 +603,50 @@
     <col min="3" max="3" width="9.85546875" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="17"/>
-    <col min="17" max="17" width="14.42578125" style="17"/>
+    <col min="11" max="11" width="14.42578125" style="13"/>
+    <col min="17" max="17" width="14.42578125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="8" t="s">
+      <c r="C1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="8" t="s">
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="8" t="s">
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="9"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="20"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
@@ -663,7 +671,7 @@
       <c r="J2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="1" t="s">
@@ -681,7 +689,7 @@
       <c r="P2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="Q2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="R2" s="1" t="s">
@@ -704,37 +712,37 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
+      <c r="A3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
     </row>
     <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C4" s="2">
@@ -758,10 +766,10 @@
       <c r="I4" s="2">
         <v>1</v>
       </c>
-      <c r="J4" s="10">
-        <v>0</v>
-      </c>
-      <c r="K4" s="14"/>
+      <c r="J4" s="8">
+        <v>0</v>
+      </c>
+      <c r="K4" s="10"/>
       <c r="L4" s="2">
         <v>0</v>
       </c>
@@ -777,7 +785,7 @@
       <c r="P4" s="2">
         <v>0</v>
       </c>
-      <c r="Q4" s="14"/>
+      <c r="Q4" s="10"/>
       <c r="R4" s="2">
         <v>1</v>
       </c>
@@ -793,13 +801,13 @@
       <c r="V4" s="2">
         <v>0</v>
       </c>
-      <c r="W4" s="10"/>
+      <c r="W4" s="8"/>
     </row>
     <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C5" s="2">
@@ -823,10 +831,10 @@
       <c r="I5" s="2">
         <v>1</v>
       </c>
-      <c r="J5" s="10">
-        <v>0</v>
-      </c>
-      <c r="K5" s="14"/>
+      <c r="J5" s="8">
+        <v>0</v>
+      </c>
+      <c r="K5" s="10"/>
       <c r="L5" s="2">
         <v>1</v>
       </c>
@@ -842,7 +850,7 @@
       <c r="P5" s="2">
         <v>0</v>
       </c>
-      <c r="Q5" s="14"/>
+      <c r="Q5" s="10"/>
       <c r="R5" s="2">
         <v>1</v>
       </c>
@@ -858,13 +866,13 @@
       <c r="V5" s="2">
         <v>0</v>
       </c>
-      <c r="W5" s="10"/>
+      <c r="W5" s="8"/>
     </row>
     <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C6" s="2">
@@ -888,10 +896,10 @@
       <c r="I6" s="2">
         <v>0</v>
       </c>
-      <c r="J6" s="10">
-        <v>0</v>
-      </c>
-      <c r="K6" s="14"/>
+      <c r="J6" s="8">
+        <v>0</v>
+      </c>
+      <c r="K6" s="10"/>
       <c r="L6" s="2">
         <v>1</v>
       </c>
@@ -907,7 +915,7 @@
       <c r="P6" s="2">
         <v>1</v>
       </c>
-      <c r="Q6" s="14"/>
+      <c r="Q6" s="10"/>
       <c r="R6" s="2">
         <v>0</v>
       </c>
@@ -923,7 +931,7 @@
       <c r="V6" s="2">
         <v>0</v>
       </c>
-      <c r="W6" s="10"/>
+      <c r="W6" s="8"/>
     </row>
     <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
@@ -956,7 +964,7 @@
       <c r="J7" s="5">
         <v>0</v>
       </c>
-      <c r="K7" s="15"/>
+      <c r="K7" s="11"/>
       <c r="L7" s="5">
         <v>1</v>
       </c>
@@ -972,7 +980,7 @@
       <c r="P7" s="5">
         <v>1</v>
       </c>
-      <c r="Q7" s="15"/>
+      <c r="Q7" s="11"/>
       <c r="R7" s="5">
         <v>0</v>
       </c>
@@ -1020,7 +1028,7 @@
       <c r="J8" s="5">
         <v>0</v>
       </c>
-      <c r="K8" s="15"/>
+      <c r="K8" s="11"/>
       <c r="L8" s="5">
         <v>1</v>
       </c>
@@ -1036,7 +1044,7 @@
       <c r="P8" s="5">
         <v>1</v>
       </c>
-      <c r="Q8" s="15"/>
+      <c r="Q8" s="11"/>
       <c r="R8" s="5">
         <v>0</v>
       </c>
@@ -1057,7 +1065,7 @@
       <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C9" s="2">
@@ -1081,10 +1089,10 @@
       <c r="I9" s="2">
         <v>0</v>
       </c>
-      <c r="J9" s="10">
-        <v>0</v>
-      </c>
-      <c r="K9" s="14"/>
+      <c r="J9" s="8">
+        <v>0</v>
+      </c>
+      <c r="K9" s="10"/>
       <c r="L9" s="2">
         <v>0</v>
       </c>
@@ -1100,7 +1108,7 @@
       <c r="P9" s="2">
         <v>0</v>
       </c>
-      <c r="Q9" s="14"/>
+      <c r="Q9" s="10"/>
       <c r="R9" s="2">
         <v>0</v>
       </c>
@@ -1116,47 +1124,47 @@
       <c r="V9" s="2">
         <v>0</v>
       </c>
-      <c r="W9" s="10"/>
+      <c r="W9" s="8"/>
     </row>
     <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-    </row>
-    <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+    </row>
+    <row r="11" spans="1:23" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
         <v>1</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
       </c>
       <c r="D11" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" s="5">
         <v>1</v>
@@ -1165,7 +1173,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" s="5">
         <v>1</v>
@@ -1176,12 +1184,12 @@
       <c r="J11" s="5">
         <v>0</v>
       </c>
-      <c r="K11" s="15"/>
+      <c r="K11" s="11"/>
       <c r="L11" s="5">
         <v>1</v>
       </c>
       <c r="M11" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N11" s="5">
         <v>1</v>
@@ -1192,12 +1200,12 @@
       <c r="P11" s="5">
         <v>0</v>
       </c>
-      <c r="Q11" s="15"/>
+      <c r="Q11" s="11"/>
       <c r="R11" s="5">
         <v>1</v>
       </c>
       <c r="S11" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T11" s="5">
         <v>1</v>
@@ -1213,334 +1221,334 @@
       <c r="A12" s="2">
         <v>2</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5">
+        <v>2</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5">
+        <v>2</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="11"/>
+      <c r="L12" s="5">
+        <v>1</v>
+      </c>
+      <c r="M12" s="5">
+        <v>5</v>
+      </c>
+      <c r="N12" s="5">
+        <v>1</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0</v>
+      </c>
+      <c r="P12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="5">
+        <v>1</v>
+      </c>
+      <c r="S12" s="5">
+        <v>2</v>
+      </c>
+      <c r="T12" s="5">
+        <v>1</v>
+      </c>
+      <c r="U12" s="5">
+        <v>0</v>
+      </c>
+      <c r="V12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>3</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2">
-        <v>1</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
-      <c r="J12" s="10">
-        <v>0</v>
-      </c>
-      <c r="K12" s="14"/>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2">
-        <v>1</v>
-      </c>
-      <c r="N12" s="2">
-        <v>0</v>
-      </c>
-      <c r="O12" s="2">
-        <v>1</v>
-      </c>
-      <c r="P12" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="2">
-        <v>1</v>
-      </c>
-      <c r="S12" s="2">
-        <v>1</v>
-      </c>
-      <c r="T12" s="2">
-        <v>1</v>
-      </c>
-      <c r="U12" s="2">
-        <v>0</v>
-      </c>
-      <c r="V12" s="2">
-        <v>0</v>
-      </c>
-      <c r="W12" s="10"/>
-    </row>
-    <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>3</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="8">
+        <v>0</v>
+      </c>
+      <c r="K13" s="10"/>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <v>1</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="2">
+        <v>1</v>
+      </c>
+      <c r="S13" s="2">
+        <v>1</v>
+      </c>
+      <c r="T13" s="2">
+        <v>1</v>
+      </c>
+      <c r="U13" s="2">
+        <v>0</v>
+      </c>
+      <c r="V13" s="2">
+        <v>0</v>
+      </c>
+      <c r="W13" s="8"/>
+    </row>
+    <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>4</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="5">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5">
-        <v>1</v>
-      </c>
-      <c r="H13" s="5">
-        <v>0</v>
-      </c>
-      <c r="I13" s="5">
-        <v>0</v>
-      </c>
-      <c r="J13" s="5">
-        <v>0</v>
-      </c>
-      <c r="K13" s="15"/>
-      <c r="L13" s="5">
-        <v>1</v>
-      </c>
-      <c r="M13" s="5">
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0</v>
+      </c>
+      <c r="K14" s="11"/>
+      <c r="L14" s="5">
+        <v>1</v>
+      </c>
+      <c r="M14" s="5">
         <v>2</v>
       </c>
-      <c r="N13" s="5">
-        <v>1</v>
-      </c>
-      <c r="O13" s="5">
-        <v>0</v>
-      </c>
-      <c r="P13" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="16" t="s">
+      <c r="N14" s="5">
+        <v>1</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0</v>
+      </c>
+      <c r="P14" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="R13" s="5">
-        <v>1</v>
-      </c>
-      <c r="S13" s="5">
-        <v>1</v>
-      </c>
-      <c r="T13" s="5">
-        <v>0</v>
-      </c>
-      <c r="U13" s="5">
-        <v>0</v>
-      </c>
-      <c r="V13" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>4</v>
-      </c>
-      <c r="B14" s="18" t="s">
+      <c r="R14" s="5">
+        <v>1</v>
+      </c>
+      <c r="S14" s="5">
+        <v>1</v>
+      </c>
+      <c r="T14" s="5">
+        <v>0</v>
+      </c>
+      <c r="U14" s="5">
+        <v>0</v>
+      </c>
+      <c r="V14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>5</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
         <v>2</v>
       </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2">
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
         <v>2</v>
       </c>
-      <c r="H14" s="2">
-        <v>1</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0</v>
-      </c>
-      <c r="J14" s="10">
-        <v>0</v>
-      </c>
-      <c r="K14" s="14"/>
-      <c r="L14" s="2">
-        <v>1</v>
-      </c>
-      <c r="M14" s="2">
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="8">
+        <v>0</v>
+      </c>
+      <c r="K15" s="10"/>
+      <c r="L15" s="2">
+        <v>1</v>
+      </c>
+      <c r="M15" s="2">
         <v>2</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N15" s="2">
         <v>2</v>
       </c>
-      <c r="O14" s="2">
-        <v>0</v>
-      </c>
-      <c r="P14" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="2">
-        <v>1</v>
-      </c>
-      <c r="S14" s="2">
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="2">
+        <v>1</v>
+      </c>
+      <c r="S15" s="2">
         <v>2</v>
       </c>
-      <c r="T14" s="2">
-        <v>1</v>
-      </c>
-      <c r="U14" s="2">
-        <v>0</v>
-      </c>
-      <c r="V14" s="2">
-        <v>0</v>
-      </c>
-      <c r="W14" s="10"/>
-    </row>
-    <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>5</v>
-      </c>
-      <c r="B15" s="18" t="s">
+      <c r="T15" s="2">
+        <v>1</v>
+      </c>
+      <c r="U15" s="2">
+        <v>0</v>
+      </c>
+      <c r="V15" s="2">
+        <v>0</v>
+      </c>
+      <c r="W15" s="8"/>
+    </row>
+    <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>6</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1</v>
-      </c>
-      <c r="G15" s="2">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2">
-        <v>1</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="J15" s="10">
-        <v>0</v>
-      </c>
-      <c r="K15" s="14"/>
-      <c r="L15" s="2">
-        <v>1</v>
-      </c>
-      <c r="M15" s="2">
-        <v>1</v>
-      </c>
-      <c r="N15" s="2">
-        <v>1</v>
-      </c>
-      <c r="O15" s="2">
-        <v>0</v>
-      </c>
-      <c r="P15" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="2">
-        <v>1</v>
-      </c>
-      <c r="S15" s="2">
-        <v>1</v>
-      </c>
-      <c r="T15" s="2">
-        <v>1</v>
-      </c>
-      <c r="U15" s="2">
-        <v>0</v>
-      </c>
-      <c r="V15" s="2">
-        <v>0</v>
-      </c>
-      <c r="W15" s="10"/>
-    </row>
-    <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>6</v>
-      </c>
-      <c r="B16" s="5" t="s">
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="8">
+        <v>0</v>
+      </c>
+      <c r="K16" s="10"/>
+      <c r="L16" s="2">
+        <v>1</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1</v>
+      </c>
+      <c r="N16" s="2">
+        <v>1</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="2">
+        <v>1</v>
+      </c>
+      <c r="S16" s="2">
+        <v>1</v>
+      </c>
+      <c r="T16" s="2">
+        <v>1</v>
+      </c>
+      <c r="U16" s="2">
+        <v>0</v>
+      </c>
+      <c r="V16" s="2">
+        <v>0</v>
+      </c>
+      <c r="W16" s="8"/>
+    </row>
+    <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>7</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="5">
-        <v>1</v>
-      </c>
-      <c r="D16" s="5">
-        <v>1</v>
-      </c>
-      <c r="E16" s="5">
-        <v>1</v>
-      </c>
-      <c r="F16" s="5">
-        <v>1</v>
-      </c>
-      <c r="G16" s="5">
-        <v>1</v>
-      </c>
-      <c r="H16" s="5">
-        <v>0</v>
-      </c>
-      <c r="I16" s="5">
-        <v>1</v>
-      </c>
-      <c r="J16" s="5">
-        <v>0</v>
-      </c>
-      <c r="K16" s="15"/>
-      <c r="L16" s="5">
-        <v>1</v>
-      </c>
-      <c r="M16" s="5">
-        <v>2</v>
-      </c>
-      <c r="N16" s="5">
-        <v>0</v>
-      </c>
-      <c r="O16" s="5">
-        <v>1</v>
-      </c>
-      <c r="P16" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="5">
-        <v>1</v>
-      </c>
-      <c r="S16" s="5">
-        <v>1</v>
-      </c>
-      <c r="T16" s="5">
-        <v>1</v>
-      </c>
-      <c r="U16" s="5">
-        <v>0</v>
-      </c>
-      <c r="V16" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>7</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="C17" s="5">
         <v>1</v>
       </c>
@@ -1565,7 +1573,7 @@
       <c r="J17" s="5">
         <v>0</v>
       </c>
-      <c r="K17" s="15"/>
+      <c r="K17" s="11"/>
       <c r="L17" s="5">
         <v>1</v>
       </c>
@@ -1581,7 +1589,7 @@
       <c r="P17" s="5">
         <v>0</v>
       </c>
-      <c r="Q17" s="15"/>
+      <c r="Q17" s="11"/>
       <c r="R17" s="5">
         <v>1</v>
       </c>
@@ -1599,11 +1607,11 @@
       </c>
     </row>
     <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+      <c r="A18" s="6">
         <v>8</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="5">
         <v>1</v>
@@ -1621,15 +1629,15 @@
         <v>1</v>
       </c>
       <c r="H18" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" s="5">
         <v>0</v>
       </c>
-      <c r="K18" s="15"/>
+      <c r="K18" s="11"/>
       <c r="L18" s="5">
         <v>1</v>
       </c>
@@ -1637,15 +1645,15 @@
         <v>2</v>
       </c>
       <c r="N18" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" s="5">
         <v>0</v>
       </c>
-      <c r="Q18" s="15"/>
+      <c r="Q18" s="11"/>
       <c r="R18" s="5">
         <v>1</v>
       </c>
@@ -1663,123 +1671,120 @@
       </c>
     </row>
     <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="6">
+        <v>9</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5">
+        <v>1</v>
+      </c>
+      <c r="H19" s="5">
+        <v>1</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11"/>
+      <c r="L19" s="5">
+        <v>1</v>
+      </c>
+      <c r="M19" s="5">
+        <v>2</v>
+      </c>
+      <c r="N19" s="5">
+        <v>1</v>
+      </c>
+      <c r="O19" s="5">
+        <v>0</v>
+      </c>
+      <c r="P19" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="5">
+        <v>1</v>
+      </c>
+      <c r="S19" s="5">
+        <v>1</v>
+      </c>
+      <c r="T19" s="5">
+        <v>1</v>
+      </c>
+      <c r="U19" s="5">
+        <v>0</v>
+      </c>
+      <c r="V19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-    </row>
-    <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
-        <v>1</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="5">
-        <v>2</v>
-      </c>
-      <c r="D20" s="5">
-        <v>2</v>
-      </c>
-      <c r="E20" s="5">
-        <v>2</v>
-      </c>
-      <c r="F20" s="5">
-        <v>2</v>
-      </c>
-      <c r="G20" s="5">
-        <v>2</v>
-      </c>
-      <c r="H20" s="5">
-        <v>2</v>
-      </c>
-      <c r="I20" s="5">
-        <v>0</v>
-      </c>
-      <c r="J20" s="5">
-        <v>0</v>
-      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
       <c r="K20" s="15"/>
-      <c r="L20" s="5">
-        <v>2</v>
-      </c>
-      <c r="M20" s="5">
-        <v>4</v>
-      </c>
-      <c r="N20" s="5">
-        <v>2</v>
-      </c>
-      <c r="O20" s="5">
-        <v>0</v>
-      </c>
-      <c r="P20" s="5">
-        <v>0</v>
-      </c>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
       <c r="Q20" s="15"/>
-      <c r="R20" s="5">
-        <v>2</v>
-      </c>
-      <c r="S20" s="5">
-        <v>2</v>
-      </c>
-      <c r="T20" s="5">
-        <v>4</v>
-      </c>
-      <c r="U20" s="5">
-        <v>0</v>
-      </c>
-      <c r="V20" s="5">
-        <v>2</v>
-      </c>
-      <c r="W20" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
     </row>
     <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
+        <v>1</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="5">
         <v>2</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="5">
-        <v>1</v>
       </c>
       <c r="D21" s="5">
         <v>2</v>
       </c>
       <c r="E21" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" s="5">
         <v>2</v>
       </c>
       <c r="H21" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" s="5">
         <v>0</v>
@@ -1787,15 +1792,15 @@
       <c r="J21" s="5">
         <v>0</v>
       </c>
-      <c r="K21" s="15"/>
+      <c r="K21" s="11"/>
       <c r="L21" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M21" s="5">
         <v>4</v>
       </c>
       <c r="N21" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O21" s="5">
         <v>0</v>
@@ -1803,29 +1808,32 @@
       <c r="P21" s="5">
         <v>0</v>
       </c>
-      <c r="Q21" s="15"/>
+      <c r="Q21" s="11"/>
       <c r="R21" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S21" s="5">
         <v>2</v>
       </c>
       <c r="T21" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U21" s="5">
         <v>0</v>
       </c>
       <c r="V21" s="5">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="W21" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="5">
         <v>1</v>
@@ -1851,7 +1859,7 @@
       <c r="J22" s="5">
         <v>0</v>
       </c>
-      <c r="K22" s="15"/>
+      <c r="K22" s="11"/>
       <c r="L22" s="5">
         <v>1</v>
       </c>
@@ -1867,7 +1875,7 @@
       <c r="P22" s="5">
         <v>0</v>
       </c>
-      <c r="Q22" s="15"/>
+      <c r="Q22" s="11"/>
       <c r="R22" s="5">
         <v>1</v>
       </c>
@@ -1886,10 +1894,10 @@
     </row>
     <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="5">
         <v>1</v>
@@ -1915,7 +1923,7 @@
       <c r="J23" s="5">
         <v>0</v>
       </c>
-      <c r="K23" s="15"/>
+      <c r="K23" s="11"/>
       <c r="L23" s="5">
         <v>1</v>
       </c>
@@ -1931,7 +1939,7 @@
       <c r="P23" s="5">
         <v>0</v>
       </c>
-      <c r="Q23" s="15"/>
+      <c r="Q23" s="11"/>
       <c r="R23" s="5">
         <v>1</v>
       </c>
@@ -1950,73 +1958,134 @@
     </row>
     <row r="24" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
+        <v>4</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5">
+        <v>2</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1</v>
+      </c>
+      <c r="F24" s="5">
+        <v>1</v>
+      </c>
+      <c r="G24" s="5">
+        <v>2</v>
+      </c>
+      <c r="H24" s="5">
+        <v>1</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0</v>
+      </c>
+      <c r="J24" s="5">
+        <v>0</v>
+      </c>
+      <c r="K24" s="11"/>
+      <c r="L24" s="5">
+        <v>1</v>
+      </c>
+      <c r="M24" s="5">
+        <v>4</v>
+      </c>
+      <c r="N24" s="5">
+        <v>1</v>
+      </c>
+      <c r="O24" s="5">
+        <v>0</v>
+      </c>
+      <c r="P24" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="5">
+        <v>1</v>
+      </c>
+      <c r="S24" s="5">
+        <v>2</v>
+      </c>
+      <c r="T24" s="5">
+        <v>1</v>
+      </c>
+      <c r="U24" s="5">
+        <v>0</v>
+      </c>
+      <c r="V24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
         <v>5</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="5">
-        <v>1</v>
-      </c>
-      <c r="D24" s="5">
-        <v>1</v>
-      </c>
-      <c r="E24" s="5">
-        <v>0</v>
-      </c>
-      <c r="F24" s="5">
-        <v>1</v>
-      </c>
-      <c r="G24" s="5">
-        <v>1</v>
-      </c>
-      <c r="H24" s="5">
-        <v>1</v>
-      </c>
-      <c r="I24" s="5">
-        <v>0</v>
-      </c>
-      <c r="J24" s="5">
-        <v>1</v>
-      </c>
-      <c r="K24" s="15"/>
-      <c r="L24" s="5">
-        <v>1</v>
-      </c>
-      <c r="M24" s="5">
+      <c r="C25" s="5">
+        <v>1</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0</v>
+      </c>
+      <c r="F25" s="5">
+        <v>1</v>
+      </c>
+      <c r="G25" s="5">
+        <v>1</v>
+      </c>
+      <c r="H25" s="5">
+        <v>1</v>
+      </c>
+      <c r="I25" s="5">
+        <v>0</v>
+      </c>
+      <c r="J25" s="5">
+        <v>1</v>
+      </c>
+      <c r="K25" s="11"/>
+      <c r="L25" s="5">
+        <v>1</v>
+      </c>
+      <c r="M25" s="5">
         <v>2</v>
       </c>
-      <c r="N24" s="5">
-        <v>1</v>
-      </c>
-      <c r="O24" s="5">
-        <v>0</v>
-      </c>
-      <c r="P24" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="5">
-        <v>1</v>
-      </c>
-      <c r="S24" s="5">
-        <v>1</v>
-      </c>
-      <c r="T24" s="5">
-        <v>1</v>
-      </c>
-      <c r="U24" s="5">
-        <v>0</v>
-      </c>
-      <c r="V24" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
-    </row>
-    <row r="28" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
+      <c r="N25" s="5">
+        <v>1</v>
+      </c>
+      <c r="O25" s="5">
+        <v>0</v>
+      </c>
+      <c r="P25" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="5">
+        <v>1</v>
+      </c>
+      <c r="S25" s="5">
+        <v>1</v>
+      </c>
+      <c r="T25" s="5">
+        <v>1</v>
+      </c>
+      <c r="U25" s="5">
+        <v>0</v>
+      </c>
+      <c r="V25" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
     </row>
     <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
@@ -2028,3924 +2097,3927 @@
       <c r="A31" s="5"/>
     </row>
     <row r="32" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K32" s="15"/>
-      <c r="Q32" s="15"/>
+      <c r="A32" s="5"/>
     </row>
     <row r="33" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K33" s="15"/>
-      <c r="Q33" s="15"/>
+      <c r="K33" s="11"/>
+      <c r="Q33" s="11"/>
     </row>
     <row r="34" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K34" s="15"/>
-      <c r="Q34" s="15"/>
+      <c r="K34" s="11"/>
+      <c r="Q34" s="11"/>
     </row>
     <row r="35" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K35" s="15"/>
-      <c r="Q35" s="15"/>
+      <c r="K35" s="11"/>
+      <c r="Q35" s="11"/>
     </row>
     <row r="36" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K36" s="15"/>
-      <c r="Q36" s="15"/>
+      <c r="K36" s="11"/>
+      <c r="Q36" s="11"/>
     </row>
     <row r="37" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K37" s="15"/>
-      <c r="Q37" s="15"/>
+      <c r="K37" s="11"/>
+      <c r="Q37" s="11"/>
     </row>
     <row r="38" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K38" s="15"/>
-      <c r="Q38" s="15"/>
+      <c r="K38" s="11"/>
+      <c r="Q38" s="11"/>
     </row>
     <row r="39" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K39" s="15"/>
-      <c r="Q39" s="15"/>
+      <c r="K39" s="11"/>
+      <c r="Q39" s="11"/>
     </row>
     <row r="40" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K40" s="15"/>
-      <c r="Q40" s="15"/>
+      <c r="K40" s="11"/>
+      <c r="Q40" s="11"/>
     </row>
     <row r="41" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K41" s="15"/>
-      <c r="Q41" s="15"/>
+      <c r="K41" s="11"/>
+      <c r="Q41" s="11"/>
     </row>
     <row r="42" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K42" s="15"/>
-      <c r="Q42" s="15"/>
+      <c r="K42" s="11"/>
+      <c r="Q42" s="11"/>
     </row>
     <row r="43" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K43" s="15"/>
-      <c r="Q43" s="15"/>
+      <c r="K43" s="11"/>
+      <c r="Q43" s="11"/>
     </row>
     <row r="44" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K44" s="15"/>
-      <c r="Q44" s="15"/>
+      <c r="K44" s="11"/>
+      <c r="Q44" s="11"/>
     </row>
     <row r="45" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K45" s="15"/>
-      <c r="Q45" s="15"/>
+      <c r="K45" s="11"/>
+      <c r="Q45" s="11"/>
     </row>
     <row r="46" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K46" s="15"/>
-      <c r="Q46" s="15"/>
+      <c r="K46" s="11"/>
+      <c r="Q46" s="11"/>
     </row>
     <row r="47" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K47" s="15"/>
-      <c r="Q47" s="15"/>
+      <c r="K47" s="11"/>
+      <c r="Q47" s="11"/>
     </row>
     <row r="48" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K48" s="15"/>
-      <c r="Q48" s="15"/>
+      <c r="K48" s="11"/>
+      <c r="Q48" s="11"/>
     </row>
     <row r="49" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K49" s="15"/>
-      <c r="Q49" s="15"/>
+      <c r="K49" s="11"/>
+      <c r="Q49" s="11"/>
     </row>
     <row r="50" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K50" s="15"/>
-      <c r="Q50" s="15"/>
+      <c r="K50" s="11"/>
+      <c r="Q50" s="11"/>
     </row>
     <row r="51" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K51" s="15"/>
-      <c r="Q51" s="15"/>
+      <c r="K51" s="11"/>
+      <c r="Q51" s="11"/>
     </row>
     <row r="52" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K52" s="15"/>
-      <c r="Q52" s="15"/>
+      <c r="K52" s="11"/>
+      <c r="Q52" s="11"/>
     </row>
     <row r="53" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K53" s="15"/>
-      <c r="Q53" s="15"/>
+      <c r="K53" s="11"/>
+      <c r="Q53" s="11"/>
     </row>
     <row r="54" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K54" s="15"/>
-      <c r="Q54" s="15"/>
+      <c r="K54" s="11"/>
+      <c r="Q54" s="11"/>
     </row>
     <row r="55" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K55" s="15"/>
-      <c r="Q55" s="15"/>
+      <c r="K55" s="11"/>
+      <c r="Q55" s="11"/>
     </row>
     <row r="56" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K56" s="15"/>
-      <c r="Q56" s="15"/>
+      <c r="K56" s="11"/>
+      <c r="Q56" s="11"/>
     </row>
     <row r="57" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K57" s="15"/>
-      <c r="Q57" s="15"/>
+      <c r="K57" s="11"/>
+      <c r="Q57" s="11"/>
     </row>
     <row r="58" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K58" s="15"/>
-      <c r="Q58" s="15"/>
+      <c r="K58" s="11"/>
+      <c r="Q58" s="11"/>
     </row>
     <row r="59" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K59" s="15"/>
-      <c r="Q59" s="15"/>
+      <c r="K59" s="11"/>
+      <c r="Q59" s="11"/>
     </row>
     <row r="60" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K60" s="15"/>
-      <c r="Q60" s="15"/>
+      <c r="K60" s="11"/>
+      <c r="Q60" s="11"/>
     </row>
     <row r="61" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K61" s="15"/>
-      <c r="Q61" s="15"/>
+      <c r="K61" s="11"/>
+      <c r="Q61" s="11"/>
     </row>
     <row r="62" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K62" s="15"/>
-      <c r="Q62" s="15"/>
+      <c r="K62" s="11"/>
+      <c r="Q62" s="11"/>
     </row>
     <row r="63" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K63" s="15"/>
-      <c r="Q63" s="15"/>
+      <c r="K63" s="11"/>
+      <c r="Q63" s="11"/>
     </row>
     <row r="64" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K64" s="15"/>
-      <c r="Q64" s="15"/>
+      <c r="K64" s="11"/>
+      <c r="Q64" s="11"/>
     </row>
     <row r="65" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K65" s="15"/>
-      <c r="Q65" s="15"/>
-    </row>
-    <row r="66" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K66" s="15"/>
-      <c r="Q66" s="15"/>
+      <c r="K65" s="11"/>
+      <c r="Q65" s="11"/>
+    </row>
+    <row r="66" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K66" s="11"/>
+      <c r="Q66" s="11"/>
     </row>
     <row r="67" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K67" s="15"/>
-      <c r="Q67" s="15"/>
+      <c r="K67" s="11"/>
+      <c r="Q67" s="11"/>
     </row>
     <row r="68" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K68" s="15"/>
-      <c r="Q68" s="15"/>
+      <c r="K68" s="11"/>
+      <c r="Q68" s="11"/>
     </row>
     <row r="69" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K69" s="15"/>
-      <c r="Q69" s="15"/>
+      <c r="K69" s="11"/>
+      <c r="Q69" s="11"/>
     </row>
     <row r="70" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K70" s="15"/>
-      <c r="Q70" s="15"/>
+      <c r="K70" s="11"/>
+      <c r="Q70" s="11"/>
     </row>
     <row r="71" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K71" s="15"/>
-      <c r="Q71" s="15"/>
+      <c r="K71" s="11"/>
+      <c r="Q71" s="11"/>
     </row>
     <row r="72" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K72" s="15"/>
-      <c r="Q72" s="15"/>
+      <c r="K72" s="11"/>
+      <c r="Q72" s="11"/>
     </row>
     <row r="73" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K73" s="15"/>
-      <c r="Q73" s="15"/>
+      <c r="K73" s="11"/>
+      <c r="Q73" s="11"/>
     </row>
     <row r="74" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K74" s="15"/>
-      <c r="Q74" s="15"/>
+      <c r="K74" s="11"/>
+      <c r="Q74" s="11"/>
     </row>
     <row r="75" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K75" s="15"/>
-      <c r="Q75" s="15"/>
+      <c r="K75" s="11"/>
+      <c r="Q75" s="11"/>
     </row>
     <row r="76" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K76" s="15"/>
-      <c r="Q76" s="15"/>
+      <c r="K76" s="11"/>
+      <c r="Q76" s="11"/>
     </row>
     <row r="77" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K77" s="15"/>
-      <c r="Q77" s="15"/>
+      <c r="K77" s="11"/>
+      <c r="Q77" s="11"/>
     </row>
     <row r="78" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K78" s="15"/>
-      <c r="Q78" s="15"/>
+      <c r="K78" s="11"/>
+      <c r="Q78" s="11"/>
     </row>
     <row r="79" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K79" s="15"/>
-      <c r="Q79" s="15"/>
+      <c r="K79" s="11"/>
+      <c r="Q79" s="11"/>
     </row>
     <row r="80" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K80" s="15"/>
-      <c r="Q80" s="15"/>
+      <c r="K80" s="11"/>
+      <c r="Q80" s="11"/>
     </row>
     <row r="81" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K81" s="15"/>
-      <c r="Q81" s="15"/>
+      <c r="K81" s="11"/>
+      <c r="Q81" s="11"/>
     </row>
     <row r="82" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K82" s="15"/>
-      <c r="Q82" s="15"/>
+      <c r="K82" s="11"/>
+      <c r="Q82" s="11"/>
     </row>
     <row r="83" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K83" s="15"/>
-      <c r="Q83" s="15"/>
+      <c r="K83" s="11"/>
+      <c r="Q83" s="11"/>
     </row>
     <row r="84" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K84" s="15"/>
-      <c r="Q84" s="15"/>
+      <c r="K84" s="11"/>
+      <c r="Q84" s="11"/>
     </row>
     <row r="85" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K85" s="15"/>
-      <c r="Q85" s="15"/>
+      <c r="K85" s="11"/>
+      <c r="Q85" s="11"/>
     </row>
     <row r="86" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K86" s="15"/>
-      <c r="Q86" s="15"/>
+      <c r="K86" s="11"/>
+      <c r="Q86" s="11"/>
     </row>
     <row r="87" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K87" s="15"/>
-      <c r="Q87" s="15"/>
+      <c r="K87" s="11"/>
+      <c r="Q87" s="11"/>
     </row>
     <row r="88" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K88" s="15"/>
-      <c r="Q88" s="15"/>
+      <c r="K88" s="11"/>
+      <c r="Q88" s="11"/>
     </row>
     <row r="89" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K89" s="15"/>
-      <c r="Q89" s="15"/>
+      <c r="K89" s="11"/>
+      <c r="Q89" s="11"/>
     </row>
     <row r="90" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K90" s="15"/>
-      <c r="Q90" s="15"/>
+      <c r="K90" s="11"/>
+      <c r="Q90" s="11"/>
     </row>
     <row r="91" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K91" s="15"/>
-      <c r="Q91" s="15"/>
+      <c r="K91" s="11"/>
+      <c r="Q91" s="11"/>
     </row>
     <row r="92" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K92" s="15"/>
-      <c r="Q92" s="15"/>
+      <c r="K92" s="11"/>
+      <c r="Q92" s="11"/>
     </row>
     <row r="93" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K93" s="15"/>
-      <c r="Q93" s="15"/>
+      <c r="K93" s="11"/>
+      <c r="Q93" s="11"/>
     </row>
     <row r="94" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K94" s="15"/>
-      <c r="Q94" s="15"/>
+      <c r="K94" s="11"/>
+      <c r="Q94" s="11"/>
     </row>
     <row r="95" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K95" s="15"/>
-      <c r="Q95" s="15"/>
+      <c r="K95" s="11"/>
+      <c r="Q95" s="11"/>
     </row>
     <row r="96" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K96" s="15"/>
-      <c r="Q96" s="15"/>
+      <c r="K96" s="11"/>
+      <c r="Q96" s="11"/>
     </row>
     <row r="97" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K97" s="15"/>
-      <c r="Q97" s="15"/>
+      <c r="K97" s="11"/>
+      <c r="Q97" s="11"/>
     </row>
     <row r="98" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K98" s="15"/>
-      <c r="Q98" s="15"/>
+      <c r="K98" s="11"/>
+      <c r="Q98" s="11"/>
     </row>
     <row r="99" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K99" s="15"/>
-      <c r="Q99" s="15"/>
+      <c r="K99" s="11"/>
+      <c r="Q99" s="11"/>
     </row>
     <row r="100" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K100" s="15"/>
-      <c r="Q100" s="15"/>
+      <c r="K100" s="11"/>
+      <c r="Q100" s="11"/>
     </row>
     <row r="101" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K101" s="15"/>
-      <c r="Q101" s="15"/>
+      <c r="K101" s="11"/>
+      <c r="Q101" s="11"/>
     </row>
     <row r="102" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K102" s="15"/>
-      <c r="Q102" s="15"/>
+      <c r="K102" s="11"/>
+      <c r="Q102" s="11"/>
     </row>
     <row r="103" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K103" s="15"/>
-      <c r="Q103" s="15"/>
+      <c r="K103" s="11"/>
+      <c r="Q103" s="11"/>
     </row>
     <row r="104" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K104" s="15"/>
-      <c r="Q104" s="15"/>
+      <c r="K104" s="11"/>
+      <c r="Q104" s="11"/>
     </row>
     <row r="105" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K105" s="15"/>
-      <c r="Q105" s="15"/>
+      <c r="K105" s="11"/>
+      <c r="Q105" s="11"/>
     </row>
     <row r="106" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K106" s="15"/>
-      <c r="Q106" s="15"/>
+      <c r="K106" s="11"/>
+      <c r="Q106" s="11"/>
     </row>
     <row r="107" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K107" s="15"/>
-      <c r="Q107" s="15"/>
+      <c r="K107" s="11"/>
+      <c r="Q107" s="11"/>
     </row>
     <row r="108" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K108" s="15"/>
-      <c r="Q108" s="15"/>
+      <c r="K108" s="11"/>
+      <c r="Q108" s="11"/>
     </row>
     <row r="109" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K109" s="15"/>
-      <c r="Q109" s="15"/>
+      <c r="K109" s="11"/>
+      <c r="Q109" s="11"/>
     </row>
     <row r="110" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K110" s="15"/>
-      <c r="Q110" s="15"/>
+      <c r="K110" s="11"/>
+      <c r="Q110" s="11"/>
     </row>
     <row r="111" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K111" s="15"/>
-      <c r="Q111" s="15"/>
+      <c r="K111" s="11"/>
+      <c r="Q111" s="11"/>
     </row>
     <row r="112" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K112" s="15"/>
-      <c r="Q112" s="15"/>
+      <c r="K112" s="11"/>
+      <c r="Q112" s="11"/>
     </row>
     <row r="113" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K113" s="15"/>
-      <c r="Q113" s="15"/>
+      <c r="K113" s="11"/>
+      <c r="Q113" s="11"/>
     </row>
     <row r="114" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K114" s="15"/>
-      <c r="Q114" s="15"/>
+      <c r="K114" s="11"/>
+      <c r="Q114" s="11"/>
     </row>
     <row r="115" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K115" s="15"/>
-      <c r="Q115" s="15"/>
+      <c r="K115" s="11"/>
+      <c r="Q115" s="11"/>
     </row>
     <row r="116" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K116" s="15"/>
-      <c r="Q116" s="15"/>
+      <c r="K116" s="11"/>
+      <c r="Q116" s="11"/>
     </row>
     <row r="117" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K117" s="15"/>
-      <c r="Q117" s="15"/>
+      <c r="K117" s="11"/>
+      <c r="Q117" s="11"/>
     </row>
     <row r="118" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K118" s="15"/>
-      <c r="Q118" s="15"/>
+      <c r="K118" s="11"/>
+      <c r="Q118" s="11"/>
     </row>
     <row r="119" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K119" s="15"/>
-      <c r="Q119" s="15"/>
+      <c r="K119" s="11"/>
+      <c r="Q119" s="11"/>
     </row>
     <row r="120" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K120" s="15"/>
-      <c r="Q120" s="15"/>
+      <c r="K120" s="11"/>
+      <c r="Q120" s="11"/>
     </row>
     <row r="121" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K121" s="15"/>
-      <c r="Q121" s="15"/>
+      <c r="K121" s="11"/>
+      <c r="Q121" s="11"/>
     </row>
     <row r="122" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K122" s="15"/>
-      <c r="Q122" s="15"/>
+      <c r="K122" s="11"/>
+      <c r="Q122" s="11"/>
     </row>
     <row r="123" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K123" s="15"/>
-      <c r="Q123" s="15"/>
+      <c r="K123" s="11"/>
+      <c r="Q123" s="11"/>
     </row>
     <row r="124" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K124" s="15"/>
-      <c r="Q124" s="15"/>
+      <c r="K124" s="11"/>
+      <c r="Q124" s="11"/>
     </row>
     <row r="125" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K125" s="15"/>
-      <c r="Q125" s="15"/>
+      <c r="K125" s="11"/>
+      <c r="Q125" s="11"/>
     </row>
     <row r="126" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K126" s="15"/>
-      <c r="Q126" s="15"/>
+      <c r="K126" s="11"/>
+      <c r="Q126" s="11"/>
     </row>
     <row r="127" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K127" s="15"/>
-      <c r="Q127" s="15"/>
+      <c r="K127" s="11"/>
+      <c r="Q127" s="11"/>
     </row>
     <row r="128" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K128" s="15"/>
-      <c r="Q128" s="15"/>
+      <c r="K128" s="11"/>
+      <c r="Q128" s="11"/>
     </row>
     <row r="129" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K129" s="15"/>
-      <c r="Q129" s="15"/>
+      <c r="K129" s="11"/>
+      <c r="Q129" s="11"/>
     </row>
     <row r="130" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K130" s="15"/>
-      <c r="Q130" s="15"/>
+      <c r="K130" s="11"/>
+      <c r="Q130" s="11"/>
     </row>
     <row r="131" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K131" s="15"/>
-      <c r="Q131" s="15"/>
+      <c r="K131" s="11"/>
+      <c r="Q131" s="11"/>
     </row>
     <row r="132" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K132" s="15"/>
-      <c r="Q132" s="15"/>
+      <c r="K132" s="11"/>
+      <c r="Q132" s="11"/>
     </row>
     <row r="133" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K133" s="15"/>
-      <c r="Q133" s="15"/>
+      <c r="K133" s="11"/>
+      <c r="Q133" s="11"/>
     </row>
     <row r="134" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K134" s="15"/>
-      <c r="Q134" s="15"/>
+      <c r="K134" s="11"/>
+      <c r="Q134" s="11"/>
     </row>
     <row r="135" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K135" s="15"/>
-      <c r="Q135" s="15"/>
+      <c r="K135" s="11"/>
+      <c r="Q135" s="11"/>
     </row>
     <row r="136" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K136" s="15"/>
-      <c r="Q136" s="15"/>
+      <c r="K136" s="11"/>
+      <c r="Q136" s="11"/>
     </row>
     <row r="137" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K137" s="15"/>
-      <c r="Q137" s="15"/>
+      <c r="K137" s="11"/>
+      <c r="Q137" s="11"/>
     </row>
     <row r="138" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K138" s="15"/>
-      <c r="Q138" s="15"/>
+      <c r="K138" s="11"/>
+      <c r="Q138" s="11"/>
     </row>
     <row r="139" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K139" s="15"/>
-      <c r="Q139" s="15"/>
+      <c r="K139" s="11"/>
+      <c r="Q139" s="11"/>
     </row>
     <row r="140" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K140" s="15"/>
-      <c r="Q140" s="15"/>
+      <c r="K140" s="11"/>
+      <c r="Q140" s="11"/>
     </row>
     <row r="141" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K141" s="15"/>
-      <c r="Q141" s="15"/>
+      <c r="K141" s="11"/>
+      <c r="Q141" s="11"/>
     </row>
     <row r="142" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K142" s="15"/>
-      <c r="Q142" s="15"/>
+      <c r="K142" s="11"/>
+      <c r="Q142" s="11"/>
     </row>
     <row r="143" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K143" s="15"/>
-      <c r="Q143" s="15"/>
+      <c r="K143" s="11"/>
+      <c r="Q143" s="11"/>
     </row>
     <row r="144" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K144" s="15"/>
-      <c r="Q144" s="15"/>
+      <c r="K144" s="11"/>
+      <c r="Q144" s="11"/>
     </row>
     <row r="145" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K145" s="15"/>
-      <c r="Q145" s="15"/>
+      <c r="K145" s="11"/>
+      <c r="Q145" s="11"/>
     </row>
     <row r="146" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K146" s="15"/>
-      <c r="Q146" s="15"/>
+      <c r="K146" s="11"/>
+      <c r="Q146" s="11"/>
     </row>
     <row r="147" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K147" s="15"/>
-      <c r="Q147" s="15"/>
+      <c r="K147" s="11"/>
+      <c r="Q147" s="11"/>
     </row>
     <row r="148" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K148" s="15"/>
-      <c r="Q148" s="15"/>
+      <c r="K148" s="11"/>
+      <c r="Q148" s="11"/>
     </row>
     <row r="149" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K149" s="15"/>
-      <c r="Q149" s="15"/>
+      <c r="K149" s="11"/>
+      <c r="Q149" s="11"/>
     </row>
     <row r="150" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K150" s="15"/>
-      <c r="Q150" s="15"/>
+      <c r="K150" s="11"/>
+      <c r="Q150" s="11"/>
     </row>
     <row r="151" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K151" s="15"/>
-      <c r="Q151" s="15"/>
+      <c r="K151" s="11"/>
+      <c r="Q151" s="11"/>
     </row>
     <row r="152" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K152" s="15"/>
-      <c r="Q152" s="15"/>
+      <c r="K152" s="11"/>
+      <c r="Q152" s="11"/>
     </row>
     <row r="153" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K153" s="15"/>
-      <c r="Q153" s="15"/>
+      <c r="K153" s="11"/>
+      <c r="Q153" s="11"/>
     </row>
     <row r="154" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K154" s="15"/>
-      <c r="Q154" s="15"/>
+      <c r="K154" s="11"/>
+      <c r="Q154" s="11"/>
     </row>
     <row r="155" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K155" s="15"/>
-      <c r="Q155" s="15"/>
+      <c r="K155" s="11"/>
+      <c r="Q155" s="11"/>
     </row>
     <row r="156" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K156" s="15"/>
-      <c r="Q156" s="15"/>
+      <c r="K156" s="11"/>
+      <c r="Q156" s="11"/>
     </row>
     <row r="157" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K157" s="15"/>
-      <c r="Q157" s="15"/>
+      <c r="K157" s="11"/>
+      <c r="Q157" s="11"/>
     </row>
     <row r="158" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K158" s="15"/>
-      <c r="Q158" s="15"/>
+      <c r="K158" s="11"/>
+      <c r="Q158" s="11"/>
     </row>
     <row r="159" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K159" s="15"/>
-      <c r="Q159" s="15"/>
+      <c r="K159" s="11"/>
+      <c r="Q159" s="11"/>
     </row>
     <row r="160" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K160" s="15"/>
-      <c r="Q160" s="15"/>
+      <c r="K160" s="11"/>
+      <c r="Q160" s="11"/>
     </row>
     <row r="161" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K161" s="15"/>
-      <c r="Q161" s="15"/>
+      <c r="K161" s="11"/>
+      <c r="Q161" s="11"/>
     </row>
     <row r="162" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K162" s="15"/>
-      <c r="Q162" s="15"/>
+      <c r="K162" s="11"/>
+      <c r="Q162" s="11"/>
     </row>
     <row r="163" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K163" s="15"/>
-      <c r="Q163" s="15"/>
+      <c r="K163" s="11"/>
+      <c r="Q163" s="11"/>
     </row>
     <row r="164" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K164" s="15"/>
-      <c r="Q164" s="15"/>
+      <c r="K164" s="11"/>
+      <c r="Q164" s="11"/>
     </row>
     <row r="165" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K165" s="15"/>
-      <c r="Q165" s="15"/>
+      <c r="K165" s="11"/>
+      <c r="Q165" s="11"/>
     </row>
     <row r="166" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K166" s="15"/>
-      <c r="Q166" s="15"/>
+      <c r="K166" s="11"/>
+      <c r="Q166" s="11"/>
     </row>
     <row r="167" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K167" s="15"/>
-      <c r="Q167" s="15"/>
+      <c r="K167" s="11"/>
+      <c r="Q167" s="11"/>
     </row>
     <row r="168" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K168" s="15"/>
-      <c r="Q168" s="15"/>
+      <c r="K168" s="11"/>
+      <c r="Q168" s="11"/>
     </row>
     <row r="169" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K169" s="15"/>
-      <c r="Q169" s="15"/>
+      <c r="K169" s="11"/>
+      <c r="Q169" s="11"/>
     </row>
     <row r="170" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K170" s="15"/>
-      <c r="Q170" s="15"/>
+      <c r="K170" s="11"/>
+      <c r="Q170" s="11"/>
     </row>
     <row r="171" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K171" s="15"/>
-      <c r="Q171" s="15"/>
+      <c r="K171" s="11"/>
+      <c r="Q171" s="11"/>
     </row>
     <row r="172" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K172" s="15"/>
-      <c r="Q172" s="15"/>
+      <c r="K172" s="11"/>
+      <c r="Q172" s="11"/>
     </row>
     <row r="173" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K173" s="15"/>
-      <c r="Q173" s="15"/>
+      <c r="K173" s="11"/>
+      <c r="Q173" s="11"/>
     </row>
     <row r="174" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K174" s="15"/>
-      <c r="Q174" s="15"/>
+      <c r="K174" s="11"/>
+      <c r="Q174" s="11"/>
     </row>
     <row r="175" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K175" s="15"/>
-      <c r="Q175" s="15"/>
+      <c r="K175" s="11"/>
+      <c r="Q175" s="11"/>
     </row>
     <row r="176" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K176" s="15"/>
-      <c r="Q176" s="15"/>
+      <c r="K176" s="11"/>
+      <c r="Q176" s="11"/>
     </row>
     <row r="177" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K177" s="15"/>
-      <c r="Q177" s="15"/>
+      <c r="K177" s="11"/>
+      <c r="Q177" s="11"/>
     </row>
     <row r="178" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K178" s="15"/>
-      <c r="Q178" s="15"/>
+      <c r="K178" s="11"/>
+      <c r="Q178" s="11"/>
     </row>
     <row r="179" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K179" s="15"/>
-      <c r="Q179" s="15"/>
+      <c r="K179" s="11"/>
+      <c r="Q179" s="11"/>
     </row>
     <row r="180" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K180" s="15"/>
-      <c r="Q180" s="15"/>
+      <c r="K180" s="11"/>
+      <c r="Q180" s="11"/>
     </row>
     <row r="181" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K181" s="15"/>
-      <c r="Q181" s="15"/>
+      <c r="K181" s="11"/>
+      <c r="Q181" s="11"/>
     </row>
     <row r="182" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K182" s="15"/>
-      <c r="Q182" s="15"/>
+      <c r="K182" s="11"/>
+      <c r="Q182" s="11"/>
     </row>
     <row r="183" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K183" s="15"/>
-      <c r="Q183" s="15"/>
+      <c r="K183" s="11"/>
+      <c r="Q183" s="11"/>
     </row>
     <row r="184" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K184" s="15"/>
-      <c r="Q184" s="15"/>
+      <c r="K184" s="11"/>
+      <c r="Q184" s="11"/>
     </row>
     <row r="185" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K185" s="15"/>
-      <c r="Q185" s="15"/>
+      <c r="K185" s="11"/>
+      <c r="Q185" s="11"/>
     </row>
     <row r="186" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K186" s="15"/>
-      <c r="Q186" s="15"/>
+      <c r="K186" s="11"/>
+      <c r="Q186" s="11"/>
     </row>
     <row r="187" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K187" s="15"/>
-      <c r="Q187" s="15"/>
+      <c r="K187" s="11"/>
+      <c r="Q187" s="11"/>
     </row>
     <row r="188" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K188" s="15"/>
-      <c r="Q188" s="15"/>
+      <c r="K188" s="11"/>
+      <c r="Q188" s="11"/>
     </row>
     <row r="189" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K189" s="15"/>
-      <c r="Q189" s="15"/>
+      <c r="K189" s="11"/>
+      <c r="Q189" s="11"/>
     </row>
     <row r="190" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K190" s="15"/>
-      <c r="Q190" s="15"/>
+      <c r="K190" s="11"/>
+      <c r="Q190" s="11"/>
     </row>
     <row r="191" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K191" s="15"/>
-      <c r="Q191" s="15"/>
+      <c r="K191" s="11"/>
+      <c r="Q191" s="11"/>
     </row>
     <row r="192" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K192" s="15"/>
-      <c r="Q192" s="15"/>
+      <c r="K192" s="11"/>
+      <c r="Q192" s="11"/>
     </row>
     <row r="193" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K193" s="15"/>
-      <c r="Q193" s="15"/>
+      <c r="K193" s="11"/>
+      <c r="Q193" s="11"/>
     </row>
     <row r="194" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K194" s="15"/>
-      <c r="Q194" s="15"/>
+      <c r="K194" s="11"/>
+      <c r="Q194" s="11"/>
     </row>
     <row r="195" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K195" s="15"/>
-      <c r="Q195" s="15"/>
+      <c r="K195" s="11"/>
+      <c r="Q195" s="11"/>
     </row>
     <row r="196" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K196" s="15"/>
-      <c r="Q196" s="15"/>
+      <c r="K196" s="11"/>
+      <c r="Q196" s="11"/>
     </row>
     <row r="197" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K197" s="15"/>
-      <c r="Q197" s="15"/>
+      <c r="K197" s="11"/>
+      <c r="Q197" s="11"/>
     </row>
     <row r="198" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K198" s="15"/>
-      <c r="Q198" s="15"/>
+      <c r="K198" s="11"/>
+      <c r="Q198" s="11"/>
     </row>
     <row r="199" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K199" s="15"/>
-      <c r="Q199" s="15"/>
+      <c r="K199" s="11"/>
+      <c r="Q199" s="11"/>
     </row>
     <row r="200" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K200" s="15"/>
-      <c r="Q200" s="15"/>
+      <c r="K200" s="11"/>
+      <c r="Q200" s="11"/>
     </row>
     <row r="201" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K201" s="15"/>
-      <c r="Q201" s="15"/>
+      <c r="K201" s="11"/>
+      <c r="Q201" s="11"/>
     </row>
     <row r="202" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K202" s="15"/>
-      <c r="Q202" s="15"/>
+      <c r="K202" s="11"/>
+      <c r="Q202" s="11"/>
     </row>
     <row r="203" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K203" s="15"/>
-      <c r="Q203" s="15"/>
+      <c r="K203" s="11"/>
+      <c r="Q203" s="11"/>
     </row>
     <row r="204" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K204" s="15"/>
-      <c r="Q204" s="15"/>
+      <c r="K204" s="11"/>
+      <c r="Q204" s="11"/>
     </row>
     <row r="205" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K205" s="15"/>
-      <c r="Q205" s="15"/>
+      <c r="K205" s="11"/>
+      <c r="Q205" s="11"/>
     </row>
     <row r="206" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K206" s="15"/>
-      <c r="Q206" s="15"/>
+      <c r="K206" s="11"/>
+      <c r="Q206" s="11"/>
     </row>
     <row r="207" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K207" s="15"/>
-      <c r="Q207" s="15"/>
+      <c r="K207" s="11"/>
+      <c r="Q207" s="11"/>
     </row>
     <row r="208" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K208" s="15"/>
-      <c r="Q208" s="15"/>
+      <c r="K208" s="11"/>
+      <c r="Q208" s="11"/>
     </row>
     <row r="209" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K209" s="15"/>
-      <c r="Q209" s="15"/>
+      <c r="K209" s="11"/>
+      <c r="Q209" s="11"/>
     </row>
     <row r="210" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K210" s="15"/>
-      <c r="Q210" s="15"/>
+      <c r="K210" s="11"/>
+      <c r="Q210" s="11"/>
     </row>
     <row r="211" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K211" s="15"/>
-      <c r="Q211" s="15"/>
+      <c r="K211" s="11"/>
+      <c r="Q211" s="11"/>
     </row>
     <row r="212" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K212" s="15"/>
-      <c r="Q212" s="15"/>
+      <c r="K212" s="11"/>
+      <c r="Q212" s="11"/>
     </row>
     <row r="213" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K213" s="15"/>
-      <c r="Q213" s="15"/>
+      <c r="K213" s="11"/>
+      <c r="Q213" s="11"/>
     </row>
     <row r="214" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K214" s="15"/>
-      <c r="Q214" s="15"/>
+      <c r="K214" s="11"/>
+      <c r="Q214" s="11"/>
     </row>
     <row r="215" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K215" s="15"/>
-      <c r="Q215" s="15"/>
+      <c r="K215" s="11"/>
+      <c r="Q215" s="11"/>
     </row>
     <row r="216" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K216" s="15"/>
-      <c r="Q216" s="15"/>
+      <c r="K216" s="11"/>
+      <c r="Q216" s="11"/>
     </row>
     <row r="217" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K217" s="15"/>
-      <c r="Q217" s="15"/>
+      <c r="K217" s="11"/>
+      <c r="Q217" s="11"/>
     </row>
     <row r="218" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K218" s="15"/>
-      <c r="Q218" s="15"/>
+      <c r="K218" s="11"/>
+      <c r="Q218" s="11"/>
     </row>
     <row r="219" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K219" s="15"/>
-      <c r="Q219" s="15"/>
+      <c r="K219" s="11"/>
+      <c r="Q219" s="11"/>
     </row>
     <row r="220" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K220" s="15"/>
-      <c r="Q220" s="15"/>
+      <c r="K220" s="11"/>
+      <c r="Q220" s="11"/>
     </row>
     <row r="221" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K221" s="15"/>
-      <c r="Q221" s="15"/>
+      <c r="K221" s="11"/>
+      <c r="Q221" s="11"/>
     </row>
     <row r="222" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K222" s="15"/>
-      <c r="Q222" s="15"/>
+      <c r="K222" s="11"/>
+      <c r="Q222" s="11"/>
     </row>
     <row r="223" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K223" s="15"/>
-      <c r="Q223" s="15"/>
+      <c r="K223" s="11"/>
+      <c r="Q223" s="11"/>
     </row>
     <row r="224" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K224" s="15"/>
-      <c r="Q224" s="15"/>
+      <c r="K224" s="11"/>
+      <c r="Q224" s="11"/>
     </row>
     <row r="225" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K225" s="15"/>
-      <c r="Q225" s="15"/>
+      <c r="K225" s="11"/>
+      <c r="Q225" s="11"/>
     </row>
     <row r="226" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K226" s="15"/>
-      <c r="Q226" s="15"/>
+      <c r="K226" s="11"/>
+      <c r="Q226" s="11"/>
     </row>
     <row r="227" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K227" s="15"/>
-      <c r="Q227" s="15"/>
+      <c r="K227" s="11"/>
+      <c r="Q227" s="11"/>
     </row>
     <row r="228" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K228" s="15"/>
-      <c r="Q228" s="15"/>
+      <c r="K228" s="11"/>
+      <c r="Q228" s="11"/>
     </row>
     <row r="229" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K229" s="15"/>
-      <c r="Q229" s="15"/>
+      <c r="K229" s="11"/>
+      <c r="Q229" s="11"/>
     </row>
     <row r="230" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K230" s="15"/>
-      <c r="Q230" s="15"/>
+      <c r="K230" s="11"/>
+      <c r="Q230" s="11"/>
     </row>
     <row r="231" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K231" s="15"/>
-      <c r="Q231" s="15"/>
+      <c r="K231" s="11"/>
+      <c r="Q231" s="11"/>
     </row>
     <row r="232" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K232" s="15"/>
-      <c r="Q232" s="15"/>
+      <c r="K232" s="11"/>
+      <c r="Q232" s="11"/>
     </row>
     <row r="233" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K233" s="15"/>
-      <c r="Q233" s="15"/>
+      <c r="K233" s="11"/>
+      <c r="Q233" s="11"/>
     </row>
     <row r="234" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K234" s="15"/>
-      <c r="Q234" s="15"/>
+      <c r="K234" s="11"/>
+      <c r="Q234" s="11"/>
     </row>
     <row r="235" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K235" s="15"/>
-      <c r="Q235" s="15"/>
+      <c r="K235" s="11"/>
+      <c r="Q235" s="11"/>
     </row>
     <row r="236" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K236" s="15"/>
-      <c r="Q236" s="15"/>
+      <c r="K236" s="11"/>
+      <c r="Q236" s="11"/>
     </row>
     <row r="237" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K237" s="15"/>
-      <c r="Q237" s="15"/>
+      <c r="K237" s="11"/>
+      <c r="Q237" s="11"/>
     </row>
     <row r="238" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K238" s="15"/>
-      <c r="Q238" s="15"/>
+      <c r="K238" s="11"/>
+      <c r="Q238" s="11"/>
     </row>
     <row r="239" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K239" s="15"/>
-      <c r="Q239" s="15"/>
+      <c r="K239" s="11"/>
+      <c r="Q239" s="11"/>
     </row>
     <row r="240" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K240" s="15"/>
-      <c r="Q240" s="15"/>
+      <c r="K240" s="11"/>
+      <c r="Q240" s="11"/>
     </row>
     <row r="241" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K241" s="15"/>
-      <c r="Q241" s="15"/>
+      <c r="K241" s="11"/>
+      <c r="Q241" s="11"/>
     </row>
     <row r="242" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K242" s="15"/>
-      <c r="Q242" s="15"/>
+      <c r="K242" s="11"/>
+      <c r="Q242" s="11"/>
     </row>
     <row r="243" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K243" s="15"/>
-      <c r="Q243" s="15"/>
+      <c r="K243" s="11"/>
+      <c r="Q243" s="11"/>
     </row>
     <row r="244" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K244" s="15"/>
-      <c r="Q244" s="15"/>
+      <c r="K244" s="11"/>
+      <c r="Q244" s="11"/>
     </row>
     <row r="245" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K245" s="15"/>
-      <c r="Q245" s="15"/>
+      <c r="K245" s="11"/>
+      <c r="Q245" s="11"/>
     </row>
     <row r="246" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K246" s="15"/>
-      <c r="Q246" s="15"/>
+      <c r="K246" s="11"/>
+      <c r="Q246" s="11"/>
     </row>
     <row r="247" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K247" s="15"/>
-      <c r="Q247" s="15"/>
+      <c r="K247" s="11"/>
+      <c r="Q247" s="11"/>
     </row>
     <row r="248" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K248" s="15"/>
-      <c r="Q248" s="15"/>
+      <c r="K248" s="11"/>
+      <c r="Q248" s="11"/>
     </row>
     <row r="249" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K249" s="15"/>
-      <c r="Q249" s="15"/>
+      <c r="K249" s="11"/>
+      <c r="Q249" s="11"/>
     </row>
     <row r="250" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K250" s="15"/>
-      <c r="Q250" s="15"/>
+      <c r="K250" s="11"/>
+      <c r="Q250" s="11"/>
     </row>
     <row r="251" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K251" s="15"/>
-      <c r="Q251" s="15"/>
+      <c r="K251" s="11"/>
+      <c r="Q251" s="11"/>
     </row>
     <row r="252" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K252" s="15"/>
-      <c r="Q252" s="15"/>
+      <c r="K252" s="11"/>
+      <c r="Q252" s="11"/>
     </row>
     <row r="253" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K253" s="15"/>
-      <c r="Q253" s="15"/>
+      <c r="K253" s="11"/>
+      <c r="Q253" s="11"/>
     </row>
     <row r="254" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K254" s="15"/>
-      <c r="Q254" s="15"/>
+      <c r="K254" s="11"/>
+      <c r="Q254" s="11"/>
     </row>
     <row r="255" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K255" s="15"/>
-      <c r="Q255" s="15"/>
+      <c r="K255" s="11"/>
+      <c r="Q255" s="11"/>
     </row>
     <row r="256" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K256" s="15"/>
-      <c r="Q256" s="15"/>
+      <c r="K256" s="11"/>
+      <c r="Q256" s="11"/>
     </row>
     <row r="257" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K257" s="15"/>
-      <c r="Q257" s="15"/>
+      <c r="K257" s="11"/>
+      <c r="Q257" s="11"/>
     </row>
     <row r="258" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K258" s="15"/>
-      <c r="Q258" s="15"/>
+      <c r="K258" s="11"/>
+      <c r="Q258" s="11"/>
     </row>
     <row r="259" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K259" s="15"/>
-      <c r="Q259" s="15"/>
+      <c r="K259" s="11"/>
+      <c r="Q259" s="11"/>
     </row>
     <row r="260" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K260" s="15"/>
-      <c r="Q260" s="15"/>
+      <c r="K260" s="11"/>
+      <c r="Q260" s="11"/>
     </row>
     <row r="261" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K261" s="15"/>
-      <c r="Q261" s="15"/>
+      <c r="K261" s="11"/>
+      <c r="Q261" s="11"/>
     </row>
     <row r="262" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K262" s="15"/>
-      <c r="Q262" s="15"/>
+      <c r="K262" s="11"/>
+      <c r="Q262" s="11"/>
     </row>
     <row r="263" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K263" s="15"/>
-      <c r="Q263" s="15"/>
+      <c r="K263" s="11"/>
+      <c r="Q263" s="11"/>
     </row>
     <row r="264" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K264" s="15"/>
-      <c r="Q264" s="15"/>
+      <c r="K264" s="11"/>
+      <c r="Q264" s="11"/>
     </row>
     <row r="265" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K265" s="15"/>
-      <c r="Q265" s="15"/>
+      <c r="K265" s="11"/>
+      <c r="Q265" s="11"/>
     </row>
     <row r="266" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K266" s="15"/>
-      <c r="Q266" s="15"/>
+      <c r="K266" s="11"/>
+      <c r="Q266" s="11"/>
     </row>
     <row r="267" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K267" s="15"/>
-      <c r="Q267" s="15"/>
+      <c r="K267" s="11"/>
+      <c r="Q267" s="11"/>
     </row>
     <row r="268" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K268" s="15"/>
-      <c r="Q268" s="15"/>
+      <c r="K268" s="11"/>
+      <c r="Q268" s="11"/>
     </row>
     <row r="269" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K269" s="15"/>
-      <c r="Q269" s="15"/>
+      <c r="K269" s="11"/>
+      <c r="Q269" s="11"/>
     </row>
     <row r="270" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K270" s="15"/>
-      <c r="Q270" s="15"/>
+      <c r="K270" s="11"/>
+      <c r="Q270" s="11"/>
     </row>
     <row r="271" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K271" s="15"/>
-      <c r="Q271" s="15"/>
+      <c r="K271" s="11"/>
+      <c r="Q271" s="11"/>
     </row>
     <row r="272" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K272" s="15"/>
-      <c r="Q272" s="15"/>
+      <c r="K272" s="11"/>
+      <c r="Q272" s="11"/>
     </row>
     <row r="273" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K273" s="15"/>
-      <c r="Q273" s="15"/>
+      <c r="K273" s="11"/>
+      <c r="Q273" s="11"/>
     </row>
     <row r="274" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K274" s="15"/>
-      <c r="Q274" s="15"/>
+      <c r="K274" s="11"/>
+      <c r="Q274" s="11"/>
     </row>
     <row r="275" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K275" s="15"/>
-      <c r="Q275" s="15"/>
+      <c r="K275" s="11"/>
+      <c r="Q275" s="11"/>
     </row>
     <row r="276" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K276" s="15"/>
-      <c r="Q276" s="15"/>
+      <c r="K276" s="11"/>
+      <c r="Q276" s="11"/>
     </row>
     <row r="277" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K277" s="15"/>
-      <c r="Q277" s="15"/>
+      <c r="K277" s="11"/>
+      <c r="Q277" s="11"/>
     </row>
     <row r="278" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K278" s="15"/>
-      <c r="Q278" s="15"/>
+      <c r="K278" s="11"/>
+      <c r="Q278" s="11"/>
     </row>
     <row r="279" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K279" s="15"/>
-      <c r="Q279" s="15"/>
+      <c r="K279" s="11"/>
+      <c r="Q279" s="11"/>
     </row>
     <row r="280" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K280" s="15"/>
-      <c r="Q280" s="15"/>
+      <c r="K280" s="11"/>
+      <c r="Q280" s="11"/>
     </row>
     <row r="281" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K281" s="15"/>
-      <c r="Q281" s="15"/>
+      <c r="K281" s="11"/>
+      <c r="Q281" s="11"/>
     </row>
     <row r="282" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K282" s="15"/>
-      <c r="Q282" s="15"/>
+      <c r="K282" s="11"/>
+      <c r="Q282" s="11"/>
     </row>
     <row r="283" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K283" s="15"/>
-      <c r="Q283" s="15"/>
+      <c r="K283" s="11"/>
+      <c r="Q283" s="11"/>
     </row>
     <row r="284" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K284" s="15"/>
-      <c r="Q284" s="15"/>
+      <c r="K284" s="11"/>
+      <c r="Q284" s="11"/>
     </row>
     <row r="285" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K285" s="15"/>
-      <c r="Q285" s="15"/>
+      <c r="K285" s="11"/>
+      <c r="Q285" s="11"/>
     </row>
     <row r="286" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K286" s="15"/>
-      <c r="Q286" s="15"/>
+      <c r="K286" s="11"/>
+      <c r="Q286" s="11"/>
     </row>
     <row r="287" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K287" s="15"/>
-      <c r="Q287" s="15"/>
+      <c r="K287" s="11"/>
+      <c r="Q287" s="11"/>
     </row>
     <row r="288" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K288" s="15"/>
-      <c r="Q288" s="15"/>
+      <c r="K288" s="11"/>
+      <c r="Q288" s="11"/>
     </row>
     <row r="289" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K289" s="15"/>
-      <c r="Q289" s="15"/>
+      <c r="K289" s="11"/>
+      <c r="Q289" s="11"/>
     </row>
     <row r="290" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K290" s="15"/>
-      <c r="Q290" s="15"/>
+      <c r="K290" s="11"/>
+      <c r="Q290" s="11"/>
     </row>
     <row r="291" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K291" s="15"/>
-      <c r="Q291" s="15"/>
+      <c r="K291" s="11"/>
+      <c r="Q291" s="11"/>
     </row>
     <row r="292" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K292" s="15"/>
-      <c r="Q292" s="15"/>
+      <c r="K292" s="11"/>
+      <c r="Q292" s="11"/>
     </row>
     <row r="293" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K293" s="15"/>
-      <c r="Q293" s="15"/>
+      <c r="K293" s="11"/>
+      <c r="Q293" s="11"/>
     </row>
     <row r="294" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K294" s="15"/>
-      <c r="Q294" s="15"/>
+      <c r="K294" s="11"/>
+      <c r="Q294" s="11"/>
     </row>
     <row r="295" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K295" s="15"/>
-      <c r="Q295" s="15"/>
+      <c r="K295" s="11"/>
+      <c r="Q295" s="11"/>
     </row>
     <row r="296" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K296" s="15"/>
-      <c r="Q296" s="15"/>
+      <c r="K296" s="11"/>
+      <c r="Q296" s="11"/>
     </row>
     <row r="297" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K297" s="15"/>
-      <c r="Q297" s="15"/>
+      <c r="K297" s="11"/>
+      <c r="Q297" s="11"/>
     </row>
     <row r="298" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K298" s="15"/>
-      <c r="Q298" s="15"/>
+      <c r="K298" s="11"/>
+      <c r="Q298" s="11"/>
     </row>
     <row r="299" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K299" s="15"/>
-      <c r="Q299" s="15"/>
+      <c r="K299" s="11"/>
+      <c r="Q299" s="11"/>
     </row>
     <row r="300" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K300" s="15"/>
-      <c r="Q300" s="15"/>
+      <c r="K300" s="11"/>
+      <c r="Q300" s="11"/>
     </row>
     <row r="301" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K301" s="15"/>
-      <c r="Q301" s="15"/>
+      <c r="K301" s="11"/>
+      <c r="Q301" s="11"/>
     </row>
     <row r="302" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K302" s="15"/>
-      <c r="Q302" s="15"/>
+      <c r="K302" s="11"/>
+      <c r="Q302" s="11"/>
     </row>
     <row r="303" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K303" s="15"/>
-      <c r="Q303" s="15"/>
+      <c r="K303" s="11"/>
+      <c r="Q303" s="11"/>
     </row>
     <row r="304" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K304" s="15"/>
-      <c r="Q304" s="15"/>
+      <c r="K304" s="11"/>
+      <c r="Q304" s="11"/>
     </row>
     <row r="305" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K305" s="15"/>
-      <c r="Q305" s="15"/>
+      <c r="K305" s="11"/>
+      <c r="Q305" s="11"/>
     </row>
     <row r="306" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K306" s="15"/>
-      <c r="Q306" s="15"/>
+      <c r="K306" s="11"/>
+      <c r="Q306" s="11"/>
     </row>
     <row r="307" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K307" s="15"/>
-      <c r="Q307" s="15"/>
+      <c r="K307" s="11"/>
+      <c r="Q307" s="11"/>
     </row>
     <row r="308" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K308" s="15"/>
-      <c r="Q308" s="15"/>
+      <c r="K308" s="11"/>
+      <c r="Q308" s="11"/>
     </row>
     <row r="309" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K309" s="15"/>
-      <c r="Q309" s="15"/>
+      <c r="K309" s="11"/>
+      <c r="Q309" s="11"/>
     </row>
     <row r="310" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K310" s="15"/>
-      <c r="Q310" s="15"/>
+      <c r="K310" s="11"/>
+      <c r="Q310" s="11"/>
     </row>
     <row r="311" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K311" s="15"/>
-      <c r="Q311" s="15"/>
+      <c r="K311" s="11"/>
+      <c r="Q311" s="11"/>
     </row>
     <row r="312" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K312" s="15"/>
-      <c r="Q312" s="15"/>
+      <c r="K312" s="11"/>
+      <c r="Q312" s="11"/>
     </row>
     <row r="313" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K313" s="15"/>
-      <c r="Q313" s="15"/>
+      <c r="K313" s="11"/>
+      <c r="Q313" s="11"/>
     </row>
     <row r="314" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K314" s="15"/>
-      <c r="Q314" s="15"/>
+      <c r="K314" s="11"/>
+      <c r="Q314" s="11"/>
     </row>
     <row r="315" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K315" s="15"/>
-      <c r="Q315" s="15"/>
+      <c r="K315" s="11"/>
+      <c r="Q315" s="11"/>
     </row>
     <row r="316" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K316" s="15"/>
-      <c r="Q316" s="15"/>
+      <c r="K316" s="11"/>
+      <c r="Q316" s="11"/>
     </row>
     <row r="317" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K317" s="15"/>
-      <c r="Q317" s="15"/>
+      <c r="K317" s="11"/>
+      <c r="Q317" s="11"/>
     </row>
     <row r="318" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K318" s="15"/>
-      <c r="Q318" s="15"/>
+      <c r="K318" s="11"/>
+      <c r="Q318" s="11"/>
     </row>
     <row r="319" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K319" s="15"/>
-      <c r="Q319" s="15"/>
+      <c r="K319" s="11"/>
+      <c r="Q319" s="11"/>
     </row>
     <row r="320" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K320" s="15"/>
-      <c r="Q320" s="15"/>
+      <c r="K320" s="11"/>
+      <c r="Q320" s="11"/>
     </row>
     <row r="321" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K321" s="15"/>
-      <c r="Q321" s="15"/>
+      <c r="K321" s="11"/>
+      <c r="Q321" s="11"/>
     </row>
     <row r="322" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K322" s="15"/>
-      <c r="Q322" s="15"/>
+      <c r="K322" s="11"/>
+      <c r="Q322" s="11"/>
     </row>
     <row r="323" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K323" s="15"/>
-      <c r="Q323" s="15"/>
+      <c r="K323" s="11"/>
+      <c r="Q323" s="11"/>
     </row>
     <row r="324" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K324" s="15"/>
-      <c r="Q324" s="15"/>
+      <c r="K324" s="11"/>
+      <c r="Q324" s="11"/>
     </row>
     <row r="325" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K325" s="15"/>
-      <c r="Q325" s="15"/>
+      <c r="K325" s="11"/>
+      <c r="Q325" s="11"/>
     </row>
     <row r="326" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K326" s="15"/>
-      <c r="Q326" s="15"/>
+      <c r="K326" s="11"/>
+      <c r="Q326" s="11"/>
     </row>
     <row r="327" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K327" s="15"/>
-      <c r="Q327" s="15"/>
+      <c r="K327" s="11"/>
+      <c r="Q327" s="11"/>
     </row>
     <row r="328" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K328" s="15"/>
-      <c r="Q328" s="15"/>
+      <c r="K328" s="11"/>
+      <c r="Q328" s="11"/>
     </row>
     <row r="329" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K329" s="15"/>
-      <c r="Q329" s="15"/>
+      <c r="K329" s="11"/>
+      <c r="Q329" s="11"/>
     </row>
     <row r="330" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K330" s="15"/>
-      <c r="Q330" s="15"/>
+      <c r="K330" s="11"/>
+      <c r="Q330" s="11"/>
     </row>
     <row r="331" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K331" s="15"/>
-      <c r="Q331" s="15"/>
+      <c r="K331" s="11"/>
+      <c r="Q331" s="11"/>
     </row>
     <row r="332" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K332" s="15"/>
-      <c r="Q332" s="15"/>
+      <c r="K332" s="11"/>
+      <c r="Q332" s="11"/>
     </row>
     <row r="333" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K333" s="15"/>
-      <c r="Q333" s="15"/>
+      <c r="K333" s="11"/>
+      <c r="Q333" s="11"/>
     </row>
     <row r="334" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K334" s="15"/>
-      <c r="Q334" s="15"/>
+      <c r="K334" s="11"/>
+      <c r="Q334" s="11"/>
     </row>
     <row r="335" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K335" s="15"/>
-      <c r="Q335" s="15"/>
+      <c r="K335" s="11"/>
+      <c r="Q335" s="11"/>
     </row>
     <row r="336" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K336" s="15"/>
-      <c r="Q336" s="15"/>
+      <c r="K336" s="11"/>
+      <c r="Q336" s="11"/>
     </row>
     <row r="337" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K337" s="15"/>
-      <c r="Q337" s="15"/>
+      <c r="K337" s="11"/>
+      <c r="Q337" s="11"/>
     </row>
     <row r="338" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K338" s="15"/>
-      <c r="Q338" s="15"/>
+      <c r="K338" s="11"/>
+      <c r="Q338" s="11"/>
     </row>
     <row r="339" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K339" s="15"/>
-      <c r="Q339" s="15"/>
+      <c r="K339" s="11"/>
+      <c r="Q339" s="11"/>
     </row>
     <row r="340" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K340" s="15"/>
-      <c r="Q340" s="15"/>
+      <c r="K340" s="11"/>
+      <c r="Q340" s="11"/>
     </row>
     <row r="341" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K341" s="15"/>
-      <c r="Q341" s="15"/>
+      <c r="K341" s="11"/>
+      <c r="Q341" s="11"/>
     </row>
     <row r="342" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K342" s="15"/>
-      <c r="Q342" s="15"/>
+      <c r="K342" s="11"/>
+      <c r="Q342" s="11"/>
     </row>
     <row r="343" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K343" s="15"/>
-      <c r="Q343" s="15"/>
+      <c r="K343" s="11"/>
+      <c r="Q343" s="11"/>
     </row>
     <row r="344" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K344" s="15"/>
-      <c r="Q344" s="15"/>
+      <c r="K344" s="11"/>
+      <c r="Q344" s="11"/>
     </row>
     <row r="345" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K345" s="15"/>
-      <c r="Q345" s="15"/>
+      <c r="K345" s="11"/>
+      <c r="Q345" s="11"/>
     </row>
     <row r="346" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K346" s="15"/>
-      <c r="Q346" s="15"/>
+      <c r="K346" s="11"/>
+      <c r="Q346" s="11"/>
     </row>
     <row r="347" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K347" s="15"/>
-      <c r="Q347" s="15"/>
+      <c r="K347" s="11"/>
+      <c r="Q347" s="11"/>
     </row>
     <row r="348" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K348" s="15"/>
-      <c r="Q348" s="15"/>
+      <c r="K348" s="11"/>
+      <c r="Q348" s="11"/>
     </row>
     <row r="349" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K349" s="15"/>
-      <c r="Q349" s="15"/>
+      <c r="K349" s="11"/>
+      <c r="Q349" s="11"/>
     </row>
     <row r="350" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K350" s="15"/>
-      <c r="Q350" s="15"/>
+      <c r="K350" s="11"/>
+      <c r="Q350" s="11"/>
     </row>
     <row r="351" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K351" s="15"/>
-      <c r="Q351" s="15"/>
+      <c r="K351" s="11"/>
+      <c r="Q351" s="11"/>
     </row>
     <row r="352" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K352" s="15"/>
-      <c r="Q352" s="15"/>
+      <c r="K352" s="11"/>
+      <c r="Q352" s="11"/>
     </row>
     <row r="353" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K353" s="15"/>
-      <c r="Q353" s="15"/>
+      <c r="K353" s="11"/>
+      <c r="Q353" s="11"/>
     </row>
     <row r="354" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K354" s="15"/>
-      <c r="Q354" s="15"/>
+      <c r="K354" s="11"/>
+      <c r="Q354" s="11"/>
     </row>
     <row r="355" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K355" s="15"/>
-      <c r="Q355" s="15"/>
+      <c r="K355" s="11"/>
+      <c r="Q355" s="11"/>
     </row>
     <row r="356" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K356" s="15"/>
-      <c r="Q356" s="15"/>
+      <c r="K356" s="11"/>
+      <c r="Q356" s="11"/>
     </row>
     <row r="357" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K357" s="15"/>
-      <c r="Q357" s="15"/>
+      <c r="K357" s="11"/>
+      <c r="Q357" s="11"/>
     </row>
     <row r="358" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K358" s="15"/>
-      <c r="Q358" s="15"/>
+      <c r="K358" s="11"/>
+      <c r="Q358" s="11"/>
     </row>
     <row r="359" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K359" s="15"/>
-      <c r="Q359" s="15"/>
+      <c r="K359" s="11"/>
+      <c r="Q359" s="11"/>
     </row>
     <row r="360" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K360" s="15"/>
-      <c r="Q360" s="15"/>
+      <c r="K360" s="11"/>
+      <c r="Q360" s="11"/>
     </row>
     <row r="361" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K361" s="15"/>
-      <c r="Q361" s="15"/>
+      <c r="K361" s="11"/>
+      <c r="Q361" s="11"/>
     </row>
     <row r="362" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K362" s="15"/>
-      <c r="Q362" s="15"/>
+      <c r="K362" s="11"/>
+      <c r="Q362" s="11"/>
     </row>
     <row r="363" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K363" s="15"/>
-      <c r="Q363" s="15"/>
+      <c r="K363" s="11"/>
+      <c r="Q363" s="11"/>
     </row>
     <row r="364" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K364" s="15"/>
-      <c r="Q364" s="15"/>
+      <c r="K364" s="11"/>
+      <c r="Q364" s="11"/>
     </row>
     <row r="365" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K365" s="15"/>
-      <c r="Q365" s="15"/>
+      <c r="K365" s="11"/>
+      <c r="Q365" s="11"/>
     </row>
     <row r="366" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K366" s="15"/>
-      <c r="Q366" s="15"/>
+      <c r="K366" s="11"/>
+      <c r="Q366" s="11"/>
     </row>
     <row r="367" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K367" s="15"/>
-      <c r="Q367" s="15"/>
+      <c r="K367" s="11"/>
+      <c r="Q367" s="11"/>
     </row>
     <row r="368" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K368" s="15"/>
-      <c r="Q368" s="15"/>
+      <c r="K368" s="11"/>
+      <c r="Q368" s="11"/>
     </row>
     <row r="369" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K369" s="15"/>
-      <c r="Q369" s="15"/>
+      <c r="K369" s="11"/>
+      <c r="Q369" s="11"/>
     </row>
     <row r="370" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K370" s="15"/>
-      <c r="Q370" s="15"/>
+      <c r="K370" s="11"/>
+      <c r="Q370" s="11"/>
     </row>
     <row r="371" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K371" s="15"/>
-      <c r="Q371" s="15"/>
+      <c r="K371" s="11"/>
+      <c r="Q371" s="11"/>
     </row>
     <row r="372" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K372" s="15"/>
-      <c r="Q372" s="15"/>
+      <c r="K372" s="11"/>
+      <c r="Q372" s="11"/>
     </row>
     <row r="373" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K373" s="15"/>
-      <c r="Q373" s="15"/>
+      <c r="K373" s="11"/>
+      <c r="Q373" s="11"/>
     </row>
     <row r="374" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K374" s="15"/>
-      <c r="Q374" s="15"/>
+      <c r="K374" s="11"/>
+      <c r="Q374" s="11"/>
     </row>
     <row r="375" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K375" s="15"/>
-      <c r="Q375" s="15"/>
+      <c r="K375" s="11"/>
+      <c r="Q375" s="11"/>
     </row>
     <row r="376" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K376" s="15"/>
-      <c r="Q376" s="15"/>
+      <c r="K376" s="11"/>
+      <c r="Q376" s="11"/>
     </row>
     <row r="377" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K377" s="15"/>
-      <c r="Q377" s="15"/>
+      <c r="K377" s="11"/>
+      <c r="Q377" s="11"/>
     </row>
     <row r="378" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K378" s="15"/>
-      <c r="Q378" s="15"/>
+      <c r="K378" s="11"/>
+      <c r="Q378" s="11"/>
     </row>
     <row r="379" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K379" s="15"/>
-      <c r="Q379" s="15"/>
+      <c r="K379" s="11"/>
+      <c r="Q379" s="11"/>
     </row>
     <row r="380" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K380" s="15"/>
-      <c r="Q380" s="15"/>
+      <c r="K380" s="11"/>
+      <c r="Q380" s="11"/>
     </row>
     <row r="381" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K381" s="15"/>
-      <c r="Q381" s="15"/>
+      <c r="K381" s="11"/>
+      <c r="Q381" s="11"/>
     </row>
     <row r="382" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K382" s="15"/>
-      <c r="Q382" s="15"/>
+      <c r="K382" s="11"/>
+      <c r="Q382" s="11"/>
     </row>
     <row r="383" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K383" s="15"/>
-      <c r="Q383" s="15"/>
+      <c r="K383" s="11"/>
+      <c r="Q383" s="11"/>
     </row>
     <row r="384" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K384" s="15"/>
-      <c r="Q384" s="15"/>
+      <c r="K384" s="11"/>
+      <c r="Q384" s="11"/>
     </row>
     <row r="385" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K385" s="15"/>
-      <c r="Q385" s="15"/>
+      <c r="K385" s="11"/>
+      <c r="Q385" s="11"/>
     </row>
     <row r="386" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K386" s="15"/>
-      <c r="Q386" s="15"/>
+      <c r="K386" s="11"/>
+      <c r="Q386" s="11"/>
     </row>
     <row r="387" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K387" s="15"/>
-      <c r="Q387" s="15"/>
+      <c r="K387" s="11"/>
+      <c r="Q387" s="11"/>
     </row>
     <row r="388" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K388" s="15"/>
-      <c r="Q388" s="15"/>
+      <c r="K388" s="11"/>
+      <c r="Q388" s="11"/>
     </row>
     <row r="389" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K389" s="15"/>
-      <c r="Q389" s="15"/>
+      <c r="K389" s="11"/>
+      <c r="Q389" s="11"/>
     </row>
     <row r="390" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K390" s="15"/>
-      <c r="Q390" s="15"/>
+      <c r="K390" s="11"/>
+      <c r="Q390" s="11"/>
     </row>
     <row r="391" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K391" s="15"/>
-      <c r="Q391" s="15"/>
+      <c r="K391" s="11"/>
+      <c r="Q391" s="11"/>
     </row>
     <row r="392" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K392" s="15"/>
-      <c r="Q392" s="15"/>
+      <c r="K392" s="11"/>
+      <c r="Q392" s="11"/>
     </row>
     <row r="393" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K393" s="15"/>
-      <c r="Q393" s="15"/>
+      <c r="K393" s="11"/>
+      <c r="Q393" s="11"/>
     </row>
     <row r="394" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K394" s="15"/>
-      <c r="Q394" s="15"/>
+      <c r="K394" s="11"/>
+      <c r="Q394" s="11"/>
     </row>
     <row r="395" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K395" s="15"/>
-      <c r="Q395" s="15"/>
+      <c r="K395" s="11"/>
+      <c r="Q395" s="11"/>
     </row>
     <row r="396" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K396" s="15"/>
-      <c r="Q396" s="15"/>
+      <c r="K396" s="11"/>
+      <c r="Q396" s="11"/>
     </row>
     <row r="397" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K397" s="15"/>
-      <c r="Q397" s="15"/>
+      <c r="K397" s="11"/>
+      <c r="Q397" s="11"/>
     </row>
     <row r="398" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K398" s="15"/>
-      <c r="Q398" s="15"/>
+      <c r="K398" s="11"/>
+      <c r="Q398" s="11"/>
     </row>
     <row r="399" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K399" s="15"/>
-      <c r="Q399" s="15"/>
+      <c r="K399" s="11"/>
+      <c r="Q399" s="11"/>
     </row>
     <row r="400" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K400" s="15"/>
-      <c r="Q400" s="15"/>
+      <c r="K400" s="11"/>
+      <c r="Q400" s="11"/>
     </row>
     <row r="401" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K401" s="15"/>
-      <c r="Q401" s="15"/>
+      <c r="K401" s="11"/>
+      <c r="Q401" s="11"/>
     </row>
     <row r="402" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K402" s="15"/>
-      <c r="Q402" s="15"/>
+      <c r="K402" s="11"/>
+      <c r="Q402" s="11"/>
     </row>
     <row r="403" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K403" s="15"/>
-      <c r="Q403" s="15"/>
+      <c r="K403" s="11"/>
+      <c r="Q403" s="11"/>
     </row>
     <row r="404" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K404" s="15"/>
-      <c r="Q404" s="15"/>
+      <c r="K404" s="11"/>
+      <c r="Q404" s="11"/>
     </row>
     <row r="405" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K405" s="15"/>
-      <c r="Q405" s="15"/>
+      <c r="K405" s="11"/>
+      <c r="Q405" s="11"/>
     </row>
     <row r="406" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K406" s="15"/>
-      <c r="Q406" s="15"/>
+      <c r="K406" s="11"/>
+      <c r="Q406" s="11"/>
     </row>
     <row r="407" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K407" s="15"/>
-      <c r="Q407" s="15"/>
+      <c r="K407" s="11"/>
+      <c r="Q407" s="11"/>
     </row>
     <row r="408" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K408" s="15"/>
-      <c r="Q408" s="15"/>
+      <c r="K408" s="11"/>
+      <c r="Q408" s="11"/>
     </row>
     <row r="409" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K409" s="15"/>
-      <c r="Q409" s="15"/>
+      <c r="K409" s="11"/>
+      <c r="Q409" s="11"/>
     </row>
     <row r="410" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K410" s="15"/>
-      <c r="Q410" s="15"/>
+      <c r="K410" s="11"/>
+      <c r="Q410" s="11"/>
     </row>
     <row r="411" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K411" s="15"/>
-      <c r="Q411" s="15"/>
+      <c r="K411" s="11"/>
+      <c r="Q411" s="11"/>
     </row>
     <row r="412" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K412" s="15"/>
-      <c r="Q412" s="15"/>
+      <c r="K412" s="11"/>
+      <c r="Q412" s="11"/>
     </row>
     <row r="413" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K413" s="15"/>
-      <c r="Q413" s="15"/>
+      <c r="K413" s="11"/>
+      <c r="Q413" s="11"/>
     </row>
     <row r="414" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K414" s="15"/>
-      <c r="Q414" s="15"/>
+      <c r="K414" s="11"/>
+      <c r="Q414" s="11"/>
     </row>
     <row r="415" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K415" s="15"/>
-      <c r="Q415" s="15"/>
+      <c r="K415" s="11"/>
+      <c r="Q415" s="11"/>
     </row>
     <row r="416" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K416" s="15"/>
-      <c r="Q416" s="15"/>
+      <c r="K416" s="11"/>
+      <c r="Q416" s="11"/>
     </row>
     <row r="417" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K417" s="15"/>
-      <c r="Q417" s="15"/>
+      <c r="K417" s="11"/>
+      <c r="Q417" s="11"/>
     </row>
     <row r="418" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K418" s="15"/>
-      <c r="Q418" s="15"/>
+      <c r="K418" s="11"/>
+      <c r="Q418" s="11"/>
     </row>
     <row r="419" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K419" s="15"/>
-      <c r="Q419" s="15"/>
+      <c r="K419" s="11"/>
+      <c r="Q419" s="11"/>
     </row>
     <row r="420" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K420" s="15"/>
-      <c r="Q420" s="15"/>
+      <c r="K420" s="11"/>
+      <c r="Q420" s="11"/>
     </row>
     <row r="421" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K421" s="15"/>
-      <c r="Q421" s="15"/>
+      <c r="K421" s="11"/>
+      <c r="Q421" s="11"/>
     </row>
     <row r="422" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K422" s="15"/>
-      <c r="Q422" s="15"/>
+      <c r="K422" s="11"/>
+      <c r="Q422" s="11"/>
     </row>
     <row r="423" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K423" s="15"/>
-      <c r="Q423" s="15"/>
+      <c r="K423" s="11"/>
+      <c r="Q423" s="11"/>
     </row>
     <row r="424" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K424" s="15"/>
-      <c r="Q424" s="15"/>
+      <c r="K424" s="11"/>
+      <c r="Q424" s="11"/>
     </row>
     <row r="425" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K425" s="15"/>
-      <c r="Q425" s="15"/>
+      <c r="K425" s="11"/>
+      <c r="Q425" s="11"/>
     </row>
     <row r="426" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K426" s="15"/>
-      <c r="Q426" s="15"/>
+      <c r="K426" s="11"/>
+      <c r="Q426" s="11"/>
     </row>
     <row r="427" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K427" s="15"/>
-      <c r="Q427" s="15"/>
+      <c r="K427" s="11"/>
+      <c r="Q427" s="11"/>
     </row>
     <row r="428" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K428" s="15"/>
-      <c r="Q428" s="15"/>
+      <c r="K428" s="11"/>
+      <c r="Q428" s="11"/>
     </row>
     <row r="429" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K429" s="15"/>
-      <c r="Q429" s="15"/>
+      <c r="K429" s="11"/>
+      <c r="Q429" s="11"/>
     </row>
     <row r="430" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K430" s="15"/>
-      <c r="Q430" s="15"/>
+      <c r="K430" s="11"/>
+      <c r="Q430" s="11"/>
     </row>
     <row r="431" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K431" s="15"/>
-      <c r="Q431" s="15"/>
+      <c r="K431" s="11"/>
+      <c r="Q431" s="11"/>
     </row>
     <row r="432" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K432" s="15"/>
-      <c r="Q432" s="15"/>
+      <c r="K432" s="11"/>
+      <c r="Q432" s="11"/>
     </row>
     <row r="433" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K433" s="15"/>
-      <c r="Q433" s="15"/>
+      <c r="K433" s="11"/>
+      <c r="Q433" s="11"/>
     </row>
     <row r="434" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K434" s="15"/>
-      <c r="Q434" s="15"/>
+      <c r="K434" s="11"/>
+      <c r="Q434" s="11"/>
     </row>
     <row r="435" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K435" s="15"/>
-      <c r="Q435" s="15"/>
+      <c r="K435" s="11"/>
+      <c r="Q435" s="11"/>
     </row>
     <row r="436" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K436" s="15"/>
-      <c r="Q436" s="15"/>
+      <c r="K436" s="11"/>
+      <c r="Q436" s="11"/>
     </row>
     <row r="437" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K437" s="15"/>
-      <c r="Q437" s="15"/>
+      <c r="K437" s="11"/>
+      <c r="Q437" s="11"/>
     </row>
     <row r="438" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K438" s="15"/>
-      <c r="Q438" s="15"/>
+      <c r="K438" s="11"/>
+      <c r="Q438" s="11"/>
     </row>
     <row r="439" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K439" s="15"/>
-      <c r="Q439" s="15"/>
+      <c r="K439" s="11"/>
+      <c r="Q439" s="11"/>
     </row>
     <row r="440" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K440" s="15"/>
-      <c r="Q440" s="15"/>
+      <c r="K440" s="11"/>
+      <c r="Q440" s="11"/>
     </row>
     <row r="441" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K441" s="15"/>
-      <c r="Q441" s="15"/>
+      <c r="K441" s="11"/>
+      <c r="Q441" s="11"/>
     </row>
     <row r="442" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K442" s="15"/>
-      <c r="Q442" s="15"/>
+      <c r="K442" s="11"/>
+      <c r="Q442" s="11"/>
     </row>
     <row r="443" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K443" s="15"/>
-      <c r="Q443" s="15"/>
+      <c r="K443" s="11"/>
+      <c r="Q443" s="11"/>
     </row>
     <row r="444" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K444" s="15"/>
-      <c r="Q444" s="15"/>
+      <c r="K444" s="11"/>
+      <c r="Q444" s="11"/>
     </row>
     <row r="445" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K445" s="15"/>
-      <c r="Q445" s="15"/>
+      <c r="K445" s="11"/>
+      <c r="Q445" s="11"/>
     </row>
     <row r="446" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K446" s="15"/>
-      <c r="Q446" s="15"/>
+      <c r="K446" s="11"/>
+      <c r="Q446" s="11"/>
     </row>
     <row r="447" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K447" s="15"/>
-      <c r="Q447" s="15"/>
+      <c r="K447" s="11"/>
+      <c r="Q447" s="11"/>
     </row>
     <row r="448" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K448" s="15"/>
-      <c r="Q448" s="15"/>
+      <c r="K448" s="11"/>
+      <c r="Q448" s="11"/>
     </row>
     <row r="449" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K449" s="15"/>
-      <c r="Q449" s="15"/>
+      <c r="K449" s="11"/>
+      <c r="Q449" s="11"/>
     </row>
     <row r="450" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K450" s="15"/>
-      <c r="Q450" s="15"/>
+      <c r="K450" s="11"/>
+      <c r="Q450" s="11"/>
     </row>
     <row r="451" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K451" s="15"/>
-      <c r="Q451" s="15"/>
+      <c r="K451" s="11"/>
+      <c r="Q451" s="11"/>
     </row>
     <row r="452" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K452" s="15"/>
-      <c r="Q452" s="15"/>
+      <c r="K452" s="11"/>
+      <c r="Q452" s="11"/>
     </row>
     <row r="453" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K453" s="15"/>
-      <c r="Q453" s="15"/>
+      <c r="K453" s="11"/>
+      <c r="Q453" s="11"/>
     </row>
     <row r="454" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K454" s="15"/>
-      <c r="Q454" s="15"/>
+      <c r="K454" s="11"/>
+      <c r="Q454" s="11"/>
     </row>
     <row r="455" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K455" s="15"/>
-      <c r="Q455" s="15"/>
+      <c r="K455" s="11"/>
+      <c r="Q455" s="11"/>
     </row>
     <row r="456" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K456" s="15"/>
-      <c r="Q456" s="15"/>
+      <c r="K456" s="11"/>
+      <c r="Q456" s="11"/>
     </row>
     <row r="457" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K457" s="15"/>
-      <c r="Q457" s="15"/>
+      <c r="K457" s="11"/>
+      <c r="Q457" s="11"/>
     </row>
     <row r="458" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K458" s="15"/>
-      <c r="Q458" s="15"/>
+      <c r="K458" s="11"/>
+      <c r="Q458" s="11"/>
     </row>
     <row r="459" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K459" s="15"/>
-      <c r="Q459" s="15"/>
+      <c r="K459" s="11"/>
+      <c r="Q459" s="11"/>
     </row>
     <row r="460" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K460" s="15"/>
-      <c r="Q460" s="15"/>
+      <c r="K460" s="11"/>
+      <c r="Q460" s="11"/>
     </row>
     <row r="461" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K461" s="15"/>
-      <c r="Q461" s="15"/>
+      <c r="K461" s="11"/>
+      <c r="Q461" s="11"/>
     </row>
     <row r="462" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K462" s="15"/>
-      <c r="Q462" s="15"/>
+      <c r="K462" s="11"/>
+      <c r="Q462" s="11"/>
     </row>
     <row r="463" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K463" s="15"/>
-      <c r="Q463" s="15"/>
+      <c r="K463" s="11"/>
+      <c r="Q463" s="11"/>
     </row>
     <row r="464" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K464" s="15"/>
-      <c r="Q464" s="15"/>
+      <c r="K464" s="11"/>
+      <c r="Q464" s="11"/>
     </row>
     <row r="465" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K465" s="15"/>
-      <c r="Q465" s="15"/>
+      <c r="K465" s="11"/>
+      <c r="Q465" s="11"/>
     </row>
     <row r="466" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K466" s="15"/>
-      <c r="Q466" s="15"/>
+      <c r="K466" s="11"/>
+      <c r="Q466" s="11"/>
     </row>
     <row r="467" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K467" s="15"/>
-      <c r="Q467" s="15"/>
+      <c r="K467" s="11"/>
+      <c r="Q467" s="11"/>
     </row>
     <row r="468" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K468" s="15"/>
-      <c r="Q468" s="15"/>
+      <c r="K468" s="11"/>
+      <c r="Q468" s="11"/>
     </row>
     <row r="469" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K469" s="15"/>
-      <c r="Q469" s="15"/>
+      <c r="K469" s="11"/>
+      <c r="Q469" s="11"/>
     </row>
     <row r="470" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K470" s="15"/>
-      <c r="Q470" s="15"/>
+      <c r="K470" s="11"/>
+      <c r="Q470" s="11"/>
     </row>
     <row r="471" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K471" s="15"/>
-      <c r="Q471" s="15"/>
+      <c r="K471" s="11"/>
+      <c r="Q471" s="11"/>
     </row>
     <row r="472" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K472" s="15"/>
-      <c r="Q472" s="15"/>
+      <c r="K472" s="11"/>
+      <c r="Q472" s="11"/>
     </row>
     <row r="473" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K473" s="15"/>
-      <c r="Q473" s="15"/>
+      <c r="K473" s="11"/>
+      <c r="Q473" s="11"/>
     </row>
     <row r="474" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K474" s="15"/>
-      <c r="Q474" s="15"/>
+      <c r="K474" s="11"/>
+      <c r="Q474" s="11"/>
     </row>
     <row r="475" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K475" s="15"/>
-      <c r="Q475" s="15"/>
+      <c r="K475" s="11"/>
+      <c r="Q475" s="11"/>
     </row>
     <row r="476" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K476" s="15"/>
-      <c r="Q476" s="15"/>
+      <c r="K476" s="11"/>
+      <c r="Q476" s="11"/>
     </row>
     <row r="477" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K477" s="15"/>
-      <c r="Q477" s="15"/>
+      <c r="K477" s="11"/>
+      <c r="Q477" s="11"/>
     </row>
     <row r="478" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K478" s="15"/>
-      <c r="Q478" s="15"/>
+      <c r="K478" s="11"/>
+      <c r="Q478" s="11"/>
     </row>
     <row r="479" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K479" s="15"/>
-      <c r="Q479" s="15"/>
+      <c r="K479" s="11"/>
+      <c r="Q479" s="11"/>
     </row>
     <row r="480" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K480" s="15"/>
-      <c r="Q480" s="15"/>
+      <c r="K480" s="11"/>
+      <c r="Q480" s="11"/>
     </row>
     <row r="481" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K481" s="15"/>
-      <c r="Q481" s="15"/>
+      <c r="K481" s="11"/>
+      <c r="Q481" s="11"/>
     </row>
     <row r="482" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K482" s="15"/>
-      <c r="Q482" s="15"/>
+      <c r="K482" s="11"/>
+      <c r="Q482" s="11"/>
     </row>
     <row r="483" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K483" s="15"/>
-      <c r="Q483" s="15"/>
+      <c r="K483" s="11"/>
+      <c r="Q483" s="11"/>
     </row>
     <row r="484" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K484" s="15"/>
-      <c r="Q484" s="15"/>
+      <c r="K484" s="11"/>
+      <c r="Q484" s="11"/>
     </row>
     <row r="485" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K485" s="15"/>
-      <c r="Q485" s="15"/>
+      <c r="K485" s="11"/>
+      <c r="Q485" s="11"/>
     </row>
     <row r="486" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K486" s="15"/>
-      <c r="Q486" s="15"/>
+      <c r="K486" s="11"/>
+      <c r="Q486" s="11"/>
     </row>
     <row r="487" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K487" s="15"/>
-      <c r="Q487" s="15"/>
+      <c r="K487" s="11"/>
+      <c r="Q487" s="11"/>
     </row>
     <row r="488" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K488" s="15"/>
-      <c r="Q488" s="15"/>
+      <c r="K488" s="11"/>
+      <c r="Q488" s="11"/>
     </row>
     <row r="489" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K489" s="15"/>
-      <c r="Q489" s="15"/>
+      <c r="K489" s="11"/>
+      <c r="Q489" s="11"/>
     </row>
     <row r="490" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K490" s="15"/>
-      <c r="Q490" s="15"/>
+      <c r="K490" s="11"/>
+      <c r="Q490" s="11"/>
     </row>
     <row r="491" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K491" s="15"/>
-      <c r="Q491" s="15"/>
+      <c r="K491" s="11"/>
+      <c r="Q491" s="11"/>
     </row>
     <row r="492" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K492" s="15"/>
-      <c r="Q492" s="15"/>
+      <c r="K492" s="11"/>
+      <c r="Q492" s="11"/>
     </row>
     <row r="493" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K493" s="15"/>
-      <c r="Q493" s="15"/>
+      <c r="K493" s="11"/>
+      <c r="Q493" s="11"/>
     </row>
     <row r="494" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K494" s="15"/>
-      <c r="Q494" s="15"/>
+      <c r="K494" s="11"/>
+      <c r="Q494" s="11"/>
     </row>
     <row r="495" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K495" s="15"/>
-      <c r="Q495" s="15"/>
+      <c r="K495" s="11"/>
+      <c r="Q495" s="11"/>
     </row>
     <row r="496" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K496" s="15"/>
-      <c r="Q496" s="15"/>
+      <c r="K496" s="11"/>
+      <c r="Q496" s="11"/>
     </row>
     <row r="497" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K497" s="15"/>
-      <c r="Q497" s="15"/>
+      <c r="K497" s="11"/>
+      <c r="Q497" s="11"/>
     </row>
     <row r="498" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K498" s="15"/>
-      <c r="Q498" s="15"/>
+      <c r="K498" s="11"/>
+      <c r="Q498" s="11"/>
     </row>
     <row r="499" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K499" s="15"/>
-      <c r="Q499" s="15"/>
+      <c r="K499" s="11"/>
+      <c r="Q499" s="11"/>
     </row>
     <row r="500" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K500" s="15"/>
-      <c r="Q500" s="15"/>
+      <c r="K500" s="11"/>
+      <c r="Q500" s="11"/>
     </row>
     <row r="501" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K501" s="15"/>
-      <c r="Q501" s="15"/>
+      <c r="K501" s="11"/>
+      <c r="Q501" s="11"/>
     </row>
     <row r="502" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K502" s="15"/>
-      <c r="Q502" s="15"/>
+      <c r="K502" s="11"/>
+      <c r="Q502" s="11"/>
     </row>
     <row r="503" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K503" s="15"/>
-      <c r="Q503" s="15"/>
+      <c r="K503" s="11"/>
+      <c r="Q503" s="11"/>
     </row>
     <row r="504" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K504" s="15"/>
-      <c r="Q504" s="15"/>
+      <c r="K504" s="11"/>
+      <c r="Q504" s="11"/>
     </row>
     <row r="505" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K505" s="15"/>
-      <c r="Q505" s="15"/>
+      <c r="K505" s="11"/>
+      <c r="Q505" s="11"/>
     </row>
     <row r="506" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K506" s="15"/>
-      <c r="Q506" s="15"/>
+      <c r="K506" s="11"/>
+      <c r="Q506" s="11"/>
     </row>
     <row r="507" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K507" s="15"/>
-      <c r="Q507" s="15"/>
+      <c r="K507" s="11"/>
+      <c r="Q507" s="11"/>
     </row>
     <row r="508" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K508" s="15"/>
-      <c r="Q508" s="15"/>
+      <c r="K508" s="11"/>
+      <c r="Q508" s="11"/>
     </row>
     <row r="509" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K509" s="15"/>
-      <c r="Q509" s="15"/>
+      <c r="K509" s="11"/>
+      <c r="Q509" s="11"/>
     </row>
     <row r="510" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K510" s="15"/>
-      <c r="Q510" s="15"/>
+      <c r="K510" s="11"/>
+      <c r="Q510" s="11"/>
     </row>
     <row r="511" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K511" s="15"/>
-      <c r="Q511" s="15"/>
+      <c r="K511" s="11"/>
+      <c r="Q511" s="11"/>
     </row>
     <row r="512" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K512" s="15"/>
-      <c r="Q512" s="15"/>
+      <c r="K512" s="11"/>
+      <c r="Q512" s="11"/>
     </row>
     <row r="513" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K513" s="15"/>
-      <c r="Q513" s="15"/>
+      <c r="K513" s="11"/>
+      <c r="Q513" s="11"/>
     </row>
     <row r="514" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K514" s="15"/>
-      <c r="Q514" s="15"/>
+      <c r="K514" s="11"/>
+      <c r="Q514" s="11"/>
     </row>
     <row r="515" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K515" s="15"/>
-      <c r="Q515" s="15"/>
+      <c r="K515" s="11"/>
+      <c r="Q515" s="11"/>
     </row>
     <row r="516" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K516" s="15"/>
-      <c r="Q516" s="15"/>
+      <c r="K516" s="11"/>
+      <c r="Q516" s="11"/>
     </row>
     <row r="517" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K517" s="15"/>
-      <c r="Q517" s="15"/>
+      <c r="K517" s="11"/>
+      <c r="Q517" s="11"/>
     </row>
     <row r="518" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K518" s="15"/>
-      <c r="Q518" s="15"/>
+      <c r="K518" s="11"/>
+      <c r="Q518" s="11"/>
     </row>
     <row r="519" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K519" s="15"/>
-      <c r="Q519" s="15"/>
+      <c r="K519" s="11"/>
+      <c r="Q519" s="11"/>
     </row>
     <row r="520" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K520" s="15"/>
-      <c r="Q520" s="15"/>
+      <c r="K520" s="11"/>
+      <c r="Q520" s="11"/>
     </row>
     <row r="521" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K521" s="15"/>
-      <c r="Q521" s="15"/>
+      <c r="K521" s="11"/>
+      <c r="Q521" s="11"/>
     </row>
     <row r="522" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K522" s="15"/>
-      <c r="Q522" s="15"/>
+      <c r="K522" s="11"/>
+      <c r="Q522" s="11"/>
     </row>
     <row r="523" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K523" s="15"/>
-      <c r="Q523" s="15"/>
+      <c r="K523" s="11"/>
+      <c r="Q523" s="11"/>
     </row>
     <row r="524" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K524" s="15"/>
-      <c r="Q524" s="15"/>
+      <c r="K524" s="11"/>
+      <c r="Q524" s="11"/>
     </row>
     <row r="525" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K525" s="15"/>
-      <c r="Q525" s="15"/>
+      <c r="K525" s="11"/>
+      <c r="Q525" s="11"/>
     </row>
     <row r="526" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K526" s="15"/>
-      <c r="Q526" s="15"/>
+      <c r="K526" s="11"/>
+      <c r="Q526" s="11"/>
     </row>
     <row r="527" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K527" s="15"/>
-      <c r="Q527" s="15"/>
+      <c r="K527" s="11"/>
+      <c r="Q527" s="11"/>
     </row>
     <row r="528" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K528" s="15"/>
-      <c r="Q528" s="15"/>
+      <c r="K528" s="11"/>
+      <c r="Q528" s="11"/>
     </row>
     <row r="529" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K529" s="15"/>
-      <c r="Q529" s="15"/>
+      <c r="K529" s="11"/>
+      <c r="Q529" s="11"/>
     </row>
     <row r="530" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K530" s="15"/>
-      <c r="Q530" s="15"/>
+      <c r="K530" s="11"/>
+      <c r="Q530" s="11"/>
     </row>
     <row r="531" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K531" s="15"/>
-      <c r="Q531" s="15"/>
+      <c r="K531" s="11"/>
+      <c r="Q531" s="11"/>
     </row>
     <row r="532" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K532" s="15"/>
-      <c r="Q532" s="15"/>
+      <c r="K532" s="11"/>
+      <c r="Q532" s="11"/>
     </row>
     <row r="533" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K533" s="15"/>
-      <c r="Q533" s="15"/>
+      <c r="K533" s="11"/>
+      <c r="Q533" s="11"/>
     </row>
     <row r="534" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K534" s="15"/>
-      <c r="Q534" s="15"/>
+      <c r="K534" s="11"/>
+      <c r="Q534" s="11"/>
     </row>
     <row r="535" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K535" s="15"/>
-      <c r="Q535" s="15"/>
+      <c r="K535" s="11"/>
+      <c r="Q535" s="11"/>
     </row>
     <row r="536" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K536" s="15"/>
-      <c r="Q536" s="15"/>
+      <c r="K536" s="11"/>
+      <c r="Q536" s="11"/>
     </row>
     <row r="537" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K537" s="15"/>
-      <c r="Q537" s="15"/>
+      <c r="K537" s="11"/>
+      <c r="Q537" s="11"/>
     </row>
     <row r="538" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K538" s="15"/>
-      <c r="Q538" s="15"/>
+      <c r="K538" s="11"/>
+      <c r="Q538" s="11"/>
     </row>
     <row r="539" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K539" s="15"/>
-      <c r="Q539" s="15"/>
+      <c r="K539" s="11"/>
+      <c r="Q539" s="11"/>
     </row>
     <row r="540" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K540" s="15"/>
-      <c r="Q540" s="15"/>
+      <c r="K540" s="11"/>
+      <c r="Q540" s="11"/>
     </row>
     <row r="541" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K541" s="15"/>
-      <c r="Q541" s="15"/>
+      <c r="K541" s="11"/>
+      <c r="Q541" s="11"/>
     </row>
     <row r="542" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K542" s="15"/>
-      <c r="Q542" s="15"/>
+      <c r="K542" s="11"/>
+      <c r="Q542" s="11"/>
     </row>
     <row r="543" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K543" s="15"/>
-      <c r="Q543" s="15"/>
+      <c r="K543" s="11"/>
+      <c r="Q543" s="11"/>
     </row>
     <row r="544" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K544" s="15"/>
-      <c r="Q544" s="15"/>
+      <c r="K544" s="11"/>
+      <c r="Q544" s="11"/>
     </row>
     <row r="545" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K545" s="15"/>
-      <c r="Q545" s="15"/>
+      <c r="K545" s="11"/>
+      <c r="Q545" s="11"/>
     </row>
     <row r="546" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K546" s="15"/>
-      <c r="Q546" s="15"/>
+      <c r="K546" s="11"/>
+      <c r="Q546" s="11"/>
     </row>
     <row r="547" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K547" s="15"/>
-      <c r="Q547" s="15"/>
+      <c r="K547" s="11"/>
+      <c r="Q547" s="11"/>
     </row>
     <row r="548" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K548" s="15"/>
-      <c r="Q548" s="15"/>
+      <c r="K548" s="11"/>
+      <c r="Q548" s="11"/>
     </row>
     <row r="549" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K549" s="15"/>
-      <c r="Q549" s="15"/>
+      <c r="K549" s="11"/>
+      <c r="Q549" s="11"/>
     </row>
     <row r="550" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K550" s="15"/>
-      <c r="Q550" s="15"/>
+      <c r="K550" s="11"/>
+      <c r="Q550" s="11"/>
     </row>
     <row r="551" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K551" s="15"/>
-      <c r="Q551" s="15"/>
+      <c r="K551" s="11"/>
+      <c r="Q551" s="11"/>
     </row>
     <row r="552" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K552" s="15"/>
-      <c r="Q552" s="15"/>
+      <c r="K552" s="11"/>
+      <c r="Q552" s="11"/>
     </row>
     <row r="553" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K553" s="15"/>
-      <c r="Q553" s="15"/>
+      <c r="K553" s="11"/>
+      <c r="Q553" s="11"/>
     </row>
     <row r="554" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K554" s="15"/>
-      <c r="Q554" s="15"/>
+      <c r="K554" s="11"/>
+      <c r="Q554" s="11"/>
     </row>
     <row r="555" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K555" s="15"/>
-      <c r="Q555" s="15"/>
+      <c r="K555" s="11"/>
+      <c r="Q555" s="11"/>
     </row>
     <row r="556" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K556" s="15"/>
-      <c r="Q556" s="15"/>
+      <c r="K556" s="11"/>
+      <c r="Q556" s="11"/>
     </row>
     <row r="557" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K557" s="15"/>
-      <c r="Q557" s="15"/>
+      <c r="K557" s="11"/>
+      <c r="Q557" s="11"/>
     </row>
     <row r="558" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K558" s="15"/>
-      <c r="Q558" s="15"/>
+      <c r="K558" s="11"/>
+      <c r="Q558" s="11"/>
     </row>
     <row r="559" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K559" s="15"/>
-      <c r="Q559" s="15"/>
+      <c r="K559" s="11"/>
+      <c r="Q559" s="11"/>
     </row>
     <row r="560" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K560" s="15"/>
-      <c r="Q560" s="15"/>
+      <c r="K560" s="11"/>
+      <c r="Q560" s="11"/>
     </row>
     <row r="561" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K561" s="15"/>
-      <c r="Q561" s="15"/>
+      <c r="K561" s="11"/>
+      <c r="Q561" s="11"/>
     </row>
     <row r="562" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K562" s="15"/>
-      <c r="Q562" s="15"/>
+      <c r="K562" s="11"/>
+      <c r="Q562" s="11"/>
     </row>
     <row r="563" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K563" s="15"/>
-      <c r="Q563" s="15"/>
+      <c r="K563" s="11"/>
+      <c r="Q563" s="11"/>
     </row>
     <row r="564" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K564" s="15"/>
-      <c r="Q564" s="15"/>
+      <c r="K564" s="11"/>
+      <c r="Q564" s="11"/>
     </row>
     <row r="565" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K565" s="15"/>
-      <c r="Q565" s="15"/>
+      <c r="K565" s="11"/>
+      <c r="Q565" s="11"/>
     </row>
     <row r="566" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K566" s="15"/>
-      <c r="Q566" s="15"/>
+      <c r="K566" s="11"/>
+      <c r="Q566" s="11"/>
     </row>
     <row r="567" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K567" s="15"/>
-      <c r="Q567" s="15"/>
+      <c r="K567" s="11"/>
+      <c r="Q567" s="11"/>
     </row>
     <row r="568" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K568" s="15"/>
-      <c r="Q568" s="15"/>
+      <c r="K568" s="11"/>
+      <c r="Q568" s="11"/>
     </row>
     <row r="569" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K569" s="15"/>
-      <c r="Q569" s="15"/>
+      <c r="K569" s="11"/>
+      <c r="Q569" s="11"/>
     </row>
     <row r="570" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K570" s="15"/>
-      <c r="Q570" s="15"/>
+      <c r="K570" s="11"/>
+      <c r="Q570" s="11"/>
     </row>
     <row r="571" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K571" s="15"/>
-      <c r="Q571" s="15"/>
+      <c r="K571" s="11"/>
+      <c r="Q571" s="11"/>
     </row>
     <row r="572" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K572" s="15"/>
-      <c r="Q572" s="15"/>
+      <c r="K572" s="11"/>
+      <c r="Q572" s="11"/>
     </row>
     <row r="573" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K573" s="15"/>
-      <c r="Q573" s="15"/>
+      <c r="K573" s="11"/>
+      <c r="Q573" s="11"/>
     </row>
     <row r="574" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K574" s="15"/>
-      <c r="Q574" s="15"/>
+      <c r="K574" s="11"/>
+      <c r="Q574" s="11"/>
     </row>
     <row r="575" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K575" s="15"/>
-      <c r="Q575" s="15"/>
+      <c r="K575" s="11"/>
+      <c r="Q575" s="11"/>
     </row>
     <row r="576" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K576" s="15"/>
-      <c r="Q576" s="15"/>
+      <c r="K576" s="11"/>
+      <c r="Q576" s="11"/>
     </row>
     <row r="577" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K577" s="15"/>
-      <c r="Q577" s="15"/>
+      <c r="K577" s="11"/>
+      <c r="Q577" s="11"/>
     </row>
     <row r="578" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K578" s="15"/>
-      <c r="Q578" s="15"/>
+      <c r="K578" s="11"/>
+      <c r="Q578" s="11"/>
     </row>
     <row r="579" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K579" s="15"/>
-      <c r="Q579" s="15"/>
+      <c r="K579" s="11"/>
+      <c r="Q579" s="11"/>
     </row>
     <row r="580" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K580" s="15"/>
-      <c r="Q580" s="15"/>
+      <c r="K580" s="11"/>
+      <c r="Q580" s="11"/>
     </row>
     <row r="581" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K581" s="15"/>
-      <c r="Q581" s="15"/>
+      <c r="K581" s="11"/>
+      <c r="Q581" s="11"/>
     </row>
     <row r="582" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K582" s="15"/>
-      <c r="Q582" s="15"/>
+      <c r="K582" s="11"/>
+      <c r="Q582" s="11"/>
     </row>
     <row r="583" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K583" s="15"/>
-      <c r="Q583" s="15"/>
+      <c r="K583" s="11"/>
+      <c r="Q583" s="11"/>
     </row>
     <row r="584" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K584" s="15"/>
-      <c r="Q584" s="15"/>
+      <c r="K584" s="11"/>
+      <c r="Q584" s="11"/>
     </row>
     <row r="585" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K585" s="15"/>
-      <c r="Q585" s="15"/>
+      <c r="K585" s="11"/>
+      <c r="Q585" s="11"/>
     </row>
     <row r="586" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K586" s="15"/>
-      <c r="Q586" s="15"/>
+      <c r="K586" s="11"/>
+      <c r="Q586" s="11"/>
     </row>
     <row r="587" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K587" s="15"/>
-      <c r="Q587" s="15"/>
+      <c r="K587" s="11"/>
+      <c r="Q587" s="11"/>
     </row>
     <row r="588" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K588" s="15"/>
-      <c r="Q588" s="15"/>
+      <c r="K588" s="11"/>
+      <c r="Q588" s="11"/>
     </row>
     <row r="589" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K589" s="15"/>
-      <c r="Q589" s="15"/>
+      <c r="K589" s="11"/>
+      <c r="Q589" s="11"/>
     </row>
     <row r="590" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K590" s="15"/>
-      <c r="Q590" s="15"/>
+      <c r="K590" s="11"/>
+      <c r="Q590" s="11"/>
     </row>
     <row r="591" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K591" s="15"/>
-      <c r="Q591" s="15"/>
+      <c r="K591" s="11"/>
+      <c r="Q591" s="11"/>
     </row>
     <row r="592" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K592" s="15"/>
-      <c r="Q592" s="15"/>
+      <c r="K592" s="11"/>
+      <c r="Q592" s="11"/>
     </row>
     <row r="593" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K593" s="15"/>
-      <c r="Q593" s="15"/>
+      <c r="K593" s="11"/>
+      <c r="Q593" s="11"/>
     </row>
     <row r="594" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K594" s="15"/>
-      <c r="Q594" s="15"/>
+      <c r="K594" s="11"/>
+      <c r="Q594" s="11"/>
     </row>
     <row r="595" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K595" s="15"/>
-      <c r="Q595" s="15"/>
+      <c r="K595" s="11"/>
+      <c r="Q595" s="11"/>
     </row>
     <row r="596" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K596" s="15"/>
-      <c r="Q596" s="15"/>
+      <c r="K596" s="11"/>
+      <c r="Q596" s="11"/>
     </row>
     <row r="597" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K597" s="15"/>
-      <c r="Q597" s="15"/>
+      <c r="K597" s="11"/>
+      <c r="Q597" s="11"/>
     </row>
     <row r="598" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K598" s="15"/>
-      <c r="Q598" s="15"/>
+      <c r="K598" s="11"/>
+      <c r="Q598" s="11"/>
     </row>
     <row r="599" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K599" s="15"/>
-      <c r="Q599" s="15"/>
+      <c r="K599" s="11"/>
+      <c r="Q599" s="11"/>
     </row>
     <row r="600" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K600" s="15"/>
-      <c r="Q600" s="15"/>
+      <c r="K600" s="11"/>
+      <c r="Q600" s="11"/>
     </row>
     <row r="601" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K601" s="15"/>
-      <c r="Q601" s="15"/>
+      <c r="K601" s="11"/>
+      <c r="Q601" s="11"/>
     </row>
     <row r="602" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K602" s="15"/>
-      <c r="Q602" s="15"/>
+      <c r="K602" s="11"/>
+      <c r="Q602" s="11"/>
     </row>
     <row r="603" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K603" s="15"/>
-      <c r="Q603" s="15"/>
+      <c r="K603" s="11"/>
+      <c r="Q603" s="11"/>
     </row>
     <row r="604" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K604" s="15"/>
-      <c r="Q604" s="15"/>
+      <c r="K604" s="11"/>
+      <c r="Q604" s="11"/>
     </row>
     <row r="605" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K605" s="15"/>
-      <c r="Q605" s="15"/>
+      <c r="K605" s="11"/>
+      <c r="Q605" s="11"/>
     </row>
     <row r="606" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K606" s="15"/>
-      <c r="Q606" s="15"/>
+      <c r="K606" s="11"/>
+      <c r="Q606" s="11"/>
     </row>
     <row r="607" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K607" s="15"/>
-      <c r="Q607" s="15"/>
+      <c r="K607" s="11"/>
+      <c r="Q607" s="11"/>
     </row>
     <row r="608" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K608" s="15"/>
-      <c r="Q608" s="15"/>
+      <c r="K608" s="11"/>
+      <c r="Q608" s="11"/>
     </row>
     <row r="609" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K609" s="15"/>
-      <c r="Q609" s="15"/>
+      <c r="K609" s="11"/>
+      <c r="Q609" s="11"/>
     </row>
     <row r="610" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K610" s="15"/>
-      <c r="Q610" s="15"/>
+      <c r="K610" s="11"/>
+      <c r="Q610" s="11"/>
     </row>
     <row r="611" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K611" s="15"/>
-      <c r="Q611" s="15"/>
+      <c r="K611" s="11"/>
+      <c r="Q611" s="11"/>
     </row>
     <row r="612" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K612" s="15"/>
-      <c r="Q612" s="15"/>
+      <c r="K612" s="11"/>
+      <c r="Q612" s="11"/>
     </row>
     <row r="613" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K613" s="15"/>
-      <c r="Q613" s="15"/>
+      <c r="K613" s="11"/>
+      <c r="Q613" s="11"/>
     </row>
     <row r="614" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K614" s="15"/>
-      <c r="Q614" s="15"/>
+      <c r="K614" s="11"/>
+      <c r="Q614" s="11"/>
     </row>
     <row r="615" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K615" s="15"/>
-      <c r="Q615" s="15"/>
+      <c r="K615" s="11"/>
+      <c r="Q615" s="11"/>
     </row>
     <row r="616" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K616" s="15"/>
-      <c r="Q616" s="15"/>
+      <c r="K616" s="11"/>
+      <c r="Q616" s="11"/>
     </row>
     <row r="617" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K617" s="15"/>
-      <c r="Q617" s="15"/>
+      <c r="K617" s="11"/>
+      <c r="Q617" s="11"/>
     </row>
     <row r="618" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K618" s="15"/>
-      <c r="Q618" s="15"/>
+      <c r="K618" s="11"/>
+      <c r="Q618" s="11"/>
     </row>
     <row r="619" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K619" s="15"/>
-      <c r="Q619" s="15"/>
+      <c r="K619" s="11"/>
+      <c r="Q619" s="11"/>
     </row>
     <row r="620" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K620" s="15"/>
-      <c r="Q620" s="15"/>
+      <c r="K620" s="11"/>
+      <c r="Q620" s="11"/>
     </row>
     <row r="621" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K621" s="15"/>
-      <c r="Q621" s="15"/>
+      <c r="K621" s="11"/>
+      <c r="Q621" s="11"/>
     </row>
     <row r="622" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K622" s="15"/>
-      <c r="Q622" s="15"/>
+      <c r="K622" s="11"/>
+      <c r="Q622" s="11"/>
     </row>
     <row r="623" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K623" s="15"/>
-      <c r="Q623" s="15"/>
+      <c r="K623" s="11"/>
+      <c r="Q623" s="11"/>
     </row>
     <row r="624" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K624" s="15"/>
-      <c r="Q624" s="15"/>
+      <c r="K624" s="11"/>
+      <c r="Q624" s="11"/>
     </row>
     <row r="625" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K625" s="15"/>
-      <c r="Q625" s="15"/>
+      <c r="K625" s="11"/>
+      <c r="Q625" s="11"/>
     </row>
     <row r="626" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K626" s="15"/>
-      <c r="Q626" s="15"/>
+      <c r="K626" s="11"/>
+      <c r="Q626" s="11"/>
     </row>
     <row r="627" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K627" s="15"/>
-      <c r="Q627" s="15"/>
+      <c r="K627" s="11"/>
+      <c r="Q627" s="11"/>
     </row>
     <row r="628" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K628" s="15"/>
-      <c r="Q628" s="15"/>
+      <c r="K628" s="11"/>
+      <c r="Q628" s="11"/>
     </row>
     <row r="629" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K629" s="15"/>
-      <c r="Q629" s="15"/>
+      <c r="K629" s="11"/>
+      <c r="Q629" s="11"/>
     </row>
     <row r="630" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K630" s="15"/>
-      <c r="Q630" s="15"/>
+      <c r="K630" s="11"/>
+      <c r="Q630" s="11"/>
     </row>
     <row r="631" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K631" s="15"/>
-      <c r="Q631" s="15"/>
+      <c r="K631" s="11"/>
+      <c r="Q631" s="11"/>
     </row>
     <row r="632" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K632" s="15"/>
-      <c r="Q632" s="15"/>
+      <c r="K632" s="11"/>
+      <c r="Q632" s="11"/>
     </row>
     <row r="633" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K633" s="15"/>
-      <c r="Q633" s="15"/>
+      <c r="K633" s="11"/>
+      <c r="Q633" s="11"/>
     </row>
     <row r="634" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K634" s="15"/>
-      <c r="Q634" s="15"/>
+      <c r="K634" s="11"/>
+      <c r="Q634" s="11"/>
     </row>
     <row r="635" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K635" s="15"/>
-      <c r="Q635" s="15"/>
+      <c r="K635" s="11"/>
+      <c r="Q635" s="11"/>
     </row>
     <row r="636" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K636" s="15"/>
-      <c r="Q636" s="15"/>
+      <c r="K636" s="11"/>
+      <c r="Q636" s="11"/>
     </row>
     <row r="637" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K637" s="15"/>
-      <c r="Q637" s="15"/>
+      <c r="K637" s="11"/>
+      <c r="Q637" s="11"/>
     </row>
     <row r="638" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K638" s="15"/>
-      <c r="Q638" s="15"/>
+      <c r="K638" s="11"/>
+      <c r="Q638" s="11"/>
     </row>
     <row r="639" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K639" s="15"/>
-      <c r="Q639" s="15"/>
+      <c r="K639" s="11"/>
+      <c r="Q639" s="11"/>
     </row>
     <row r="640" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K640" s="15"/>
-      <c r="Q640" s="15"/>
+      <c r="K640" s="11"/>
+      <c r="Q640" s="11"/>
     </row>
     <row r="641" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K641" s="15"/>
-      <c r="Q641" s="15"/>
+      <c r="K641" s="11"/>
+      <c r="Q641" s="11"/>
     </row>
     <row r="642" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K642" s="15"/>
-      <c r="Q642" s="15"/>
+      <c r="K642" s="11"/>
+      <c r="Q642" s="11"/>
     </row>
     <row r="643" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K643" s="15"/>
-      <c r="Q643" s="15"/>
+      <c r="K643" s="11"/>
+      <c r="Q643" s="11"/>
     </row>
     <row r="644" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K644" s="15"/>
-      <c r="Q644" s="15"/>
+      <c r="K644" s="11"/>
+      <c r="Q644" s="11"/>
     </row>
     <row r="645" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K645" s="15"/>
-      <c r="Q645" s="15"/>
+      <c r="K645" s="11"/>
+      <c r="Q645" s="11"/>
     </row>
     <row r="646" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K646" s="15"/>
-      <c r="Q646" s="15"/>
+      <c r="K646" s="11"/>
+      <c r="Q646" s="11"/>
     </row>
     <row r="647" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K647" s="15"/>
-      <c r="Q647" s="15"/>
+      <c r="K647" s="11"/>
+      <c r="Q647" s="11"/>
     </row>
     <row r="648" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K648" s="15"/>
-      <c r="Q648" s="15"/>
+      <c r="K648" s="11"/>
+      <c r="Q648" s="11"/>
     </row>
     <row r="649" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K649" s="15"/>
-      <c r="Q649" s="15"/>
+      <c r="K649" s="11"/>
+      <c r="Q649" s="11"/>
     </row>
     <row r="650" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K650" s="15"/>
-      <c r="Q650" s="15"/>
+      <c r="K650" s="11"/>
+      <c r="Q650" s="11"/>
     </row>
     <row r="651" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K651" s="15"/>
-      <c r="Q651" s="15"/>
+      <c r="K651" s="11"/>
+      <c r="Q651" s="11"/>
     </row>
     <row r="652" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K652" s="15"/>
-      <c r="Q652" s="15"/>
+      <c r="K652" s="11"/>
+      <c r="Q652" s="11"/>
     </row>
     <row r="653" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K653" s="15"/>
-      <c r="Q653" s="15"/>
+      <c r="K653" s="11"/>
+      <c r="Q653" s="11"/>
     </row>
     <row r="654" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K654" s="15"/>
-      <c r="Q654" s="15"/>
+      <c r="K654" s="11"/>
+      <c r="Q654" s="11"/>
     </row>
     <row r="655" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K655" s="15"/>
-      <c r="Q655" s="15"/>
+      <c r="K655" s="11"/>
+      <c r="Q655" s="11"/>
     </row>
     <row r="656" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K656" s="15"/>
-      <c r="Q656" s="15"/>
+      <c r="K656" s="11"/>
+      <c r="Q656" s="11"/>
     </row>
     <row r="657" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K657" s="15"/>
-      <c r="Q657" s="15"/>
+      <c r="K657" s="11"/>
+      <c r="Q657" s="11"/>
     </row>
     <row r="658" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K658" s="15"/>
-      <c r="Q658" s="15"/>
+      <c r="K658" s="11"/>
+      <c r="Q658" s="11"/>
     </row>
     <row r="659" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K659" s="15"/>
-      <c r="Q659" s="15"/>
+      <c r="K659" s="11"/>
+      <c r="Q659" s="11"/>
     </row>
     <row r="660" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K660" s="15"/>
-      <c r="Q660" s="15"/>
+      <c r="K660" s="11"/>
+      <c r="Q660" s="11"/>
     </row>
     <row r="661" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K661" s="15"/>
-      <c r="Q661" s="15"/>
+      <c r="K661" s="11"/>
+      <c r="Q661" s="11"/>
     </row>
     <row r="662" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K662" s="15"/>
-      <c r="Q662" s="15"/>
+      <c r="K662" s="11"/>
+      <c r="Q662" s="11"/>
     </row>
     <row r="663" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K663" s="15"/>
-      <c r="Q663" s="15"/>
+      <c r="K663" s="11"/>
+      <c r="Q663" s="11"/>
     </row>
     <row r="664" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K664" s="15"/>
-      <c r="Q664" s="15"/>
+      <c r="K664" s="11"/>
+      <c r="Q664" s="11"/>
     </row>
     <row r="665" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K665" s="15"/>
-      <c r="Q665" s="15"/>
+      <c r="K665" s="11"/>
+      <c r="Q665" s="11"/>
     </row>
     <row r="666" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K666" s="15"/>
-      <c r="Q666" s="15"/>
+      <c r="K666" s="11"/>
+      <c r="Q666" s="11"/>
     </row>
     <row r="667" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K667" s="15"/>
-      <c r="Q667" s="15"/>
+      <c r="K667" s="11"/>
+      <c r="Q667" s="11"/>
     </row>
     <row r="668" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K668" s="15"/>
-      <c r="Q668" s="15"/>
+      <c r="K668" s="11"/>
+      <c r="Q668" s="11"/>
     </row>
     <row r="669" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K669" s="15"/>
-      <c r="Q669" s="15"/>
+      <c r="K669" s="11"/>
+      <c r="Q669" s="11"/>
     </row>
     <row r="670" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K670" s="15"/>
-      <c r="Q670" s="15"/>
+      <c r="K670" s="11"/>
+      <c r="Q670" s="11"/>
     </row>
     <row r="671" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K671" s="15"/>
-      <c r="Q671" s="15"/>
+      <c r="K671" s="11"/>
+      <c r="Q671" s="11"/>
     </row>
     <row r="672" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K672" s="15"/>
-      <c r="Q672" s="15"/>
+      <c r="K672" s="11"/>
+      <c r="Q672" s="11"/>
     </row>
     <row r="673" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K673" s="15"/>
-      <c r="Q673" s="15"/>
+      <c r="K673" s="11"/>
+      <c r="Q673" s="11"/>
     </row>
     <row r="674" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K674" s="15"/>
-      <c r="Q674" s="15"/>
+      <c r="K674" s="11"/>
+      <c r="Q674" s="11"/>
     </row>
     <row r="675" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K675" s="15"/>
-      <c r="Q675" s="15"/>
+      <c r="K675" s="11"/>
+      <c r="Q675" s="11"/>
     </row>
     <row r="676" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K676" s="15"/>
-      <c r="Q676" s="15"/>
+      <c r="K676" s="11"/>
+      <c r="Q676" s="11"/>
     </row>
     <row r="677" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K677" s="15"/>
-      <c r="Q677" s="15"/>
+      <c r="K677" s="11"/>
+      <c r="Q677" s="11"/>
     </row>
     <row r="678" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K678" s="15"/>
-      <c r="Q678" s="15"/>
+      <c r="K678" s="11"/>
+      <c r="Q678" s="11"/>
     </row>
     <row r="679" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K679" s="15"/>
-      <c r="Q679" s="15"/>
+      <c r="K679" s="11"/>
+      <c r="Q679" s="11"/>
     </row>
     <row r="680" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K680" s="15"/>
-      <c r="Q680" s="15"/>
+      <c r="K680" s="11"/>
+      <c r="Q680" s="11"/>
     </row>
     <row r="681" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K681" s="15"/>
-      <c r="Q681" s="15"/>
+      <c r="K681" s="11"/>
+      <c r="Q681" s="11"/>
     </row>
     <row r="682" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K682" s="15"/>
-      <c r="Q682" s="15"/>
+      <c r="K682" s="11"/>
+      <c r="Q682" s="11"/>
     </row>
     <row r="683" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K683" s="15"/>
-      <c r="Q683" s="15"/>
+      <c r="K683" s="11"/>
+      <c r="Q683" s="11"/>
     </row>
     <row r="684" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K684" s="15"/>
-      <c r="Q684" s="15"/>
+      <c r="K684" s="11"/>
+      <c r="Q684" s="11"/>
     </row>
     <row r="685" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K685" s="15"/>
-      <c r="Q685" s="15"/>
+      <c r="K685" s="11"/>
+      <c r="Q685" s="11"/>
     </row>
     <row r="686" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K686" s="15"/>
-      <c r="Q686" s="15"/>
+      <c r="K686" s="11"/>
+      <c r="Q686" s="11"/>
     </row>
     <row r="687" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K687" s="15"/>
-      <c r="Q687" s="15"/>
+      <c r="K687" s="11"/>
+      <c r="Q687" s="11"/>
     </row>
     <row r="688" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K688" s="15"/>
-      <c r="Q688" s="15"/>
+      <c r="K688" s="11"/>
+      <c r="Q688" s="11"/>
     </row>
     <row r="689" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K689" s="15"/>
-      <c r="Q689" s="15"/>
+      <c r="K689" s="11"/>
+      <c r="Q689" s="11"/>
     </row>
     <row r="690" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K690" s="15"/>
-      <c r="Q690" s="15"/>
+      <c r="K690" s="11"/>
+      <c r="Q690" s="11"/>
     </row>
     <row r="691" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K691" s="15"/>
-      <c r="Q691" s="15"/>
+      <c r="K691" s="11"/>
+      <c r="Q691" s="11"/>
     </row>
     <row r="692" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K692" s="15"/>
-      <c r="Q692" s="15"/>
+      <c r="K692" s="11"/>
+      <c r="Q692" s="11"/>
     </row>
     <row r="693" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K693" s="15"/>
-      <c r="Q693" s="15"/>
+      <c r="K693" s="11"/>
+      <c r="Q693" s="11"/>
     </row>
     <row r="694" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K694" s="15"/>
-      <c r="Q694" s="15"/>
+      <c r="K694" s="11"/>
+      <c r="Q694" s="11"/>
     </row>
     <row r="695" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K695" s="15"/>
-      <c r="Q695" s="15"/>
+      <c r="K695" s="11"/>
+      <c r="Q695" s="11"/>
     </row>
     <row r="696" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K696" s="15"/>
-      <c r="Q696" s="15"/>
+      <c r="K696" s="11"/>
+      <c r="Q696" s="11"/>
     </row>
     <row r="697" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K697" s="15"/>
-      <c r="Q697" s="15"/>
+      <c r="K697" s="11"/>
+      <c r="Q697" s="11"/>
     </row>
     <row r="698" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K698" s="15"/>
-      <c r="Q698" s="15"/>
+      <c r="K698" s="11"/>
+      <c r="Q698" s="11"/>
     </row>
     <row r="699" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K699" s="15"/>
-      <c r="Q699" s="15"/>
+      <c r="K699" s="11"/>
+      <c r="Q699" s="11"/>
     </row>
     <row r="700" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K700" s="15"/>
-      <c r="Q700" s="15"/>
+      <c r="K700" s="11"/>
+      <c r="Q700" s="11"/>
     </row>
     <row r="701" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K701" s="15"/>
-      <c r="Q701" s="15"/>
+      <c r="K701" s="11"/>
+      <c r="Q701" s="11"/>
     </row>
     <row r="702" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K702" s="15"/>
-      <c r="Q702" s="15"/>
+      <c r="K702" s="11"/>
+      <c r="Q702" s="11"/>
     </row>
     <row r="703" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K703" s="15"/>
-      <c r="Q703" s="15"/>
+      <c r="K703" s="11"/>
+      <c r="Q703" s="11"/>
     </row>
     <row r="704" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K704" s="15"/>
-      <c r="Q704" s="15"/>
+      <c r="K704" s="11"/>
+      <c r="Q704" s="11"/>
     </row>
     <row r="705" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K705" s="15"/>
-      <c r="Q705" s="15"/>
+      <c r="K705" s="11"/>
+      <c r="Q705" s="11"/>
     </row>
     <row r="706" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K706" s="15"/>
-      <c r="Q706" s="15"/>
+      <c r="K706" s="11"/>
+      <c r="Q706" s="11"/>
     </row>
     <row r="707" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K707" s="15"/>
-      <c r="Q707" s="15"/>
+      <c r="K707" s="11"/>
+      <c r="Q707" s="11"/>
     </row>
     <row r="708" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K708" s="15"/>
-      <c r="Q708" s="15"/>
+      <c r="K708" s="11"/>
+      <c r="Q708" s="11"/>
     </row>
     <row r="709" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K709" s="15"/>
-      <c r="Q709" s="15"/>
+      <c r="K709" s="11"/>
+      <c r="Q709" s="11"/>
     </row>
     <row r="710" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K710" s="15"/>
-      <c r="Q710" s="15"/>
+      <c r="K710" s="11"/>
+      <c r="Q710" s="11"/>
     </row>
     <row r="711" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K711" s="15"/>
-      <c r="Q711" s="15"/>
+      <c r="K711" s="11"/>
+      <c r="Q711" s="11"/>
     </row>
     <row r="712" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K712" s="15"/>
-      <c r="Q712" s="15"/>
+      <c r="K712" s="11"/>
+      <c r="Q712" s="11"/>
     </row>
     <row r="713" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K713" s="15"/>
-      <c r="Q713" s="15"/>
+      <c r="K713" s="11"/>
+      <c r="Q713" s="11"/>
     </row>
     <row r="714" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K714" s="15"/>
-      <c r="Q714" s="15"/>
+      <c r="K714" s="11"/>
+      <c r="Q714" s="11"/>
     </row>
     <row r="715" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K715" s="15"/>
-      <c r="Q715" s="15"/>
+      <c r="K715" s="11"/>
+      <c r="Q715" s="11"/>
     </row>
     <row r="716" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K716" s="15"/>
-      <c r="Q716" s="15"/>
+      <c r="K716" s="11"/>
+      <c r="Q716" s="11"/>
     </row>
     <row r="717" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K717" s="15"/>
-      <c r="Q717" s="15"/>
+      <c r="K717" s="11"/>
+      <c r="Q717" s="11"/>
     </row>
     <row r="718" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K718" s="15"/>
-      <c r="Q718" s="15"/>
+      <c r="K718" s="11"/>
+      <c r="Q718" s="11"/>
     </row>
     <row r="719" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K719" s="15"/>
-      <c r="Q719" s="15"/>
+      <c r="K719" s="11"/>
+      <c r="Q719" s="11"/>
     </row>
     <row r="720" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K720" s="15"/>
-      <c r="Q720" s="15"/>
+      <c r="K720" s="11"/>
+      <c r="Q720" s="11"/>
     </row>
     <row r="721" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K721" s="15"/>
-      <c r="Q721" s="15"/>
+      <c r="K721" s="11"/>
+      <c r="Q721" s="11"/>
     </row>
     <row r="722" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K722" s="15"/>
-      <c r="Q722" s="15"/>
+      <c r="K722" s="11"/>
+      <c r="Q722" s="11"/>
     </row>
     <row r="723" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K723" s="15"/>
-      <c r="Q723" s="15"/>
+      <c r="K723" s="11"/>
+      <c r="Q723" s="11"/>
     </row>
     <row r="724" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K724" s="15"/>
-      <c r="Q724" s="15"/>
+      <c r="K724" s="11"/>
+      <c r="Q724" s="11"/>
     </row>
     <row r="725" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K725" s="15"/>
-      <c r="Q725" s="15"/>
+      <c r="K725" s="11"/>
+      <c r="Q725" s="11"/>
     </row>
     <row r="726" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K726" s="15"/>
-      <c r="Q726" s="15"/>
+      <c r="K726" s="11"/>
+      <c r="Q726" s="11"/>
     </row>
     <row r="727" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K727" s="15"/>
-      <c r="Q727" s="15"/>
+      <c r="K727" s="11"/>
+      <c r="Q727" s="11"/>
     </row>
     <row r="728" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K728" s="15"/>
-      <c r="Q728" s="15"/>
+      <c r="K728" s="11"/>
+      <c r="Q728" s="11"/>
     </row>
     <row r="729" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K729" s="15"/>
-      <c r="Q729" s="15"/>
+      <c r="K729" s="11"/>
+      <c r="Q729" s="11"/>
     </row>
     <row r="730" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K730" s="15"/>
-      <c r="Q730" s="15"/>
+      <c r="K730" s="11"/>
+      <c r="Q730" s="11"/>
     </row>
     <row r="731" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K731" s="15"/>
-      <c r="Q731" s="15"/>
+      <c r="K731" s="11"/>
+      <c r="Q731" s="11"/>
     </row>
     <row r="732" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K732" s="15"/>
-      <c r="Q732" s="15"/>
+      <c r="K732" s="11"/>
+      <c r="Q732" s="11"/>
     </row>
     <row r="733" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K733" s="15"/>
-      <c r="Q733" s="15"/>
+      <c r="K733" s="11"/>
+      <c r="Q733" s="11"/>
     </row>
     <row r="734" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K734" s="15"/>
-      <c r="Q734" s="15"/>
+      <c r="K734" s="11"/>
+      <c r="Q734" s="11"/>
     </row>
     <row r="735" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K735" s="15"/>
-      <c r="Q735" s="15"/>
+      <c r="K735" s="11"/>
+      <c r="Q735" s="11"/>
     </row>
     <row r="736" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K736" s="15"/>
-      <c r="Q736" s="15"/>
+      <c r="K736" s="11"/>
+      <c r="Q736" s="11"/>
     </row>
     <row r="737" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K737" s="15"/>
-      <c r="Q737" s="15"/>
+      <c r="K737" s="11"/>
+      <c r="Q737" s="11"/>
     </row>
     <row r="738" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K738" s="15"/>
-      <c r="Q738" s="15"/>
+      <c r="K738" s="11"/>
+      <c r="Q738" s="11"/>
     </row>
     <row r="739" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K739" s="15"/>
-      <c r="Q739" s="15"/>
+      <c r="K739" s="11"/>
+      <c r="Q739" s="11"/>
     </row>
     <row r="740" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K740" s="15"/>
-      <c r="Q740" s="15"/>
+      <c r="K740" s="11"/>
+      <c r="Q740" s="11"/>
     </row>
     <row r="741" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K741" s="15"/>
-      <c r="Q741" s="15"/>
+      <c r="K741" s="11"/>
+      <c r="Q741" s="11"/>
     </row>
     <row r="742" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K742" s="15"/>
-      <c r="Q742" s="15"/>
+      <c r="K742" s="11"/>
+      <c r="Q742" s="11"/>
     </row>
     <row r="743" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K743" s="15"/>
-      <c r="Q743" s="15"/>
+      <c r="K743" s="11"/>
+      <c r="Q743" s="11"/>
     </row>
     <row r="744" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K744" s="15"/>
-      <c r="Q744" s="15"/>
+      <c r="K744" s="11"/>
+      <c r="Q744" s="11"/>
     </row>
     <row r="745" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K745" s="15"/>
-      <c r="Q745" s="15"/>
+      <c r="K745" s="11"/>
+      <c r="Q745" s="11"/>
     </row>
     <row r="746" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K746" s="15"/>
-      <c r="Q746" s="15"/>
+      <c r="K746" s="11"/>
+      <c r="Q746" s="11"/>
     </row>
     <row r="747" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K747" s="15"/>
-      <c r="Q747" s="15"/>
+      <c r="K747" s="11"/>
+      <c r="Q747" s="11"/>
     </row>
     <row r="748" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K748" s="15"/>
-      <c r="Q748" s="15"/>
+      <c r="K748" s="11"/>
+      <c r="Q748" s="11"/>
     </row>
     <row r="749" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K749" s="15"/>
-      <c r="Q749" s="15"/>
+      <c r="K749" s="11"/>
+      <c r="Q749" s="11"/>
     </row>
     <row r="750" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K750" s="15"/>
-      <c r="Q750" s="15"/>
+      <c r="K750" s="11"/>
+      <c r="Q750" s="11"/>
     </row>
     <row r="751" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K751" s="15"/>
-      <c r="Q751" s="15"/>
+      <c r="K751" s="11"/>
+      <c r="Q751" s="11"/>
     </row>
     <row r="752" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K752" s="15"/>
-      <c r="Q752" s="15"/>
+      <c r="K752" s="11"/>
+      <c r="Q752" s="11"/>
     </row>
     <row r="753" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K753" s="15"/>
-      <c r="Q753" s="15"/>
+      <c r="K753" s="11"/>
+      <c r="Q753" s="11"/>
     </row>
     <row r="754" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K754" s="15"/>
-      <c r="Q754" s="15"/>
+      <c r="K754" s="11"/>
+      <c r="Q754" s="11"/>
     </row>
     <row r="755" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K755" s="15"/>
-      <c r="Q755" s="15"/>
+      <c r="K755" s="11"/>
+      <c r="Q755" s="11"/>
     </row>
     <row r="756" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K756" s="15"/>
-      <c r="Q756" s="15"/>
+      <c r="K756" s="11"/>
+      <c r="Q756" s="11"/>
     </row>
     <row r="757" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K757" s="15"/>
-      <c r="Q757" s="15"/>
+      <c r="K757" s="11"/>
+      <c r="Q757" s="11"/>
     </row>
     <row r="758" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K758" s="15"/>
-      <c r="Q758" s="15"/>
+      <c r="K758" s="11"/>
+      <c r="Q758" s="11"/>
     </row>
     <row r="759" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K759" s="15"/>
-      <c r="Q759" s="15"/>
+      <c r="K759" s="11"/>
+      <c r="Q759" s="11"/>
     </row>
     <row r="760" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K760" s="15"/>
-      <c r="Q760" s="15"/>
+      <c r="K760" s="11"/>
+      <c r="Q760" s="11"/>
     </row>
     <row r="761" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K761" s="15"/>
-      <c r="Q761" s="15"/>
+      <c r="K761" s="11"/>
+      <c r="Q761" s="11"/>
     </row>
     <row r="762" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K762" s="15"/>
-      <c r="Q762" s="15"/>
+      <c r="K762" s="11"/>
+      <c r="Q762" s="11"/>
     </row>
     <row r="763" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K763" s="15"/>
-      <c r="Q763" s="15"/>
+      <c r="K763" s="11"/>
+      <c r="Q763" s="11"/>
     </row>
     <row r="764" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K764" s="15"/>
-      <c r="Q764" s="15"/>
+      <c r="K764" s="11"/>
+      <c r="Q764" s="11"/>
     </row>
     <row r="765" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K765" s="15"/>
-      <c r="Q765" s="15"/>
+      <c r="K765" s="11"/>
+      <c r="Q765" s="11"/>
     </row>
     <row r="766" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K766" s="15"/>
-      <c r="Q766" s="15"/>
+      <c r="K766" s="11"/>
+      <c r="Q766" s="11"/>
     </row>
     <row r="767" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K767" s="15"/>
-      <c r="Q767" s="15"/>
+      <c r="K767" s="11"/>
+      <c r="Q767" s="11"/>
     </row>
     <row r="768" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K768" s="15"/>
-      <c r="Q768" s="15"/>
+      <c r="K768" s="11"/>
+      <c r="Q768" s="11"/>
     </row>
     <row r="769" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K769" s="15"/>
-      <c r="Q769" s="15"/>
+      <c r="K769" s="11"/>
+      <c r="Q769" s="11"/>
     </row>
     <row r="770" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K770" s="15"/>
-      <c r="Q770" s="15"/>
+      <c r="K770" s="11"/>
+      <c r="Q770" s="11"/>
     </row>
     <row r="771" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K771" s="15"/>
-      <c r="Q771" s="15"/>
+      <c r="K771" s="11"/>
+      <c r="Q771" s="11"/>
     </row>
     <row r="772" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K772" s="15"/>
-      <c r="Q772" s="15"/>
+      <c r="K772" s="11"/>
+      <c r="Q772" s="11"/>
     </row>
     <row r="773" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K773" s="15"/>
-      <c r="Q773" s="15"/>
+      <c r="K773" s="11"/>
+      <c r="Q773" s="11"/>
     </row>
     <row r="774" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K774" s="15"/>
-      <c r="Q774" s="15"/>
+      <c r="K774" s="11"/>
+      <c r="Q774" s="11"/>
     </row>
     <row r="775" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K775" s="15"/>
-      <c r="Q775" s="15"/>
+      <c r="K775" s="11"/>
+      <c r="Q775" s="11"/>
     </row>
     <row r="776" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K776" s="15"/>
-      <c r="Q776" s="15"/>
+      <c r="K776" s="11"/>
+      <c r="Q776" s="11"/>
     </row>
     <row r="777" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K777" s="15"/>
-      <c r="Q777" s="15"/>
+      <c r="K777" s="11"/>
+      <c r="Q777" s="11"/>
     </row>
     <row r="778" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K778" s="15"/>
-      <c r="Q778" s="15"/>
+      <c r="K778" s="11"/>
+      <c r="Q778" s="11"/>
     </row>
     <row r="779" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K779" s="15"/>
-      <c r="Q779" s="15"/>
+      <c r="K779" s="11"/>
+      <c r="Q779" s="11"/>
     </row>
     <row r="780" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K780" s="15"/>
-      <c r="Q780" s="15"/>
+      <c r="K780" s="11"/>
+      <c r="Q780" s="11"/>
     </row>
     <row r="781" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K781" s="15"/>
-      <c r="Q781" s="15"/>
+      <c r="K781" s="11"/>
+      <c r="Q781" s="11"/>
     </row>
     <row r="782" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K782" s="15"/>
-      <c r="Q782" s="15"/>
+      <c r="K782" s="11"/>
+      <c r="Q782" s="11"/>
     </row>
     <row r="783" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K783" s="15"/>
-      <c r="Q783" s="15"/>
+      <c r="K783" s="11"/>
+      <c r="Q783" s="11"/>
     </row>
     <row r="784" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K784" s="15"/>
-      <c r="Q784" s="15"/>
+      <c r="K784" s="11"/>
+      <c r="Q784" s="11"/>
     </row>
     <row r="785" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K785" s="15"/>
-      <c r="Q785" s="15"/>
+      <c r="K785" s="11"/>
+      <c r="Q785" s="11"/>
     </row>
     <row r="786" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K786" s="15"/>
-      <c r="Q786" s="15"/>
+      <c r="K786" s="11"/>
+      <c r="Q786" s="11"/>
     </row>
     <row r="787" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K787" s="15"/>
-      <c r="Q787" s="15"/>
+      <c r="K787" s="11"/>
+      <c r="Q787" s="11"/>
     </row>
     <row r="788" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K788" s="15"/>
-      <c r="Q788" s="15"/>
+      <c r="K788" s="11"/>
+      <c r="Q788" s="11"/>
     </row>
     <row r="789" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K789" s="15"/>
-      <c r="Q789" s="15"/>
+      <c r="K789" s="11"/>
+      <c r="Q789" s="11"/>
     </row>
     <row r="790" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K790" s="15"/>
-      <c r="Q790" s="15"/>
+      <c r="K790" s="11"/>
+      <c r="Q790" s="11"/>
     </row>
     <row r="791" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K791" s="15"/>
-      <c r="Q791" s="15"/>
+      <c r="K791" s="11"/>
+      <c r="Q791" s="11"/>
     </row>
     <row r="792" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K792" s="15"/>
-      <c r="Q792" s="15"/>
+      <c r="K792" s="11"/>
+      <c r="Q792" s="11"/>
     </row>
     <row r="793" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K793" s="15"/>
-      <c r="Q793" s="15"/>
+      <c r="K793" s="11"/>
+      <c r="Q793" s="11"/>
     </row>
     <row r="794" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K794" s="15"/>
-      <c r="Q794" s="15"/>
+      <c r="K794" s="11"/>
+      <c r="Q794" s="11"/>
     </row>
     <row r="795" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K795" s="15"/>
-      <c r="Q795" s="15"/>
+      <c r="K795" s="11"/>
+      <c r="Q795" s="11"/>
     </row>
     <row r="796" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K796" s="15"/>
-      <c r="Q796" s="15"/>
+      <c r="K796" s="11"/>
+      <c r="Q796" s="11"/>
     </row>
     <row r="797" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K797" s="15"/>
-      <c r="Q797" s="15"/>
+      <c r="K797" s="11"/>
+      <c r="Q797" s="11"/>
     </row>
     <row r="798" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K798" s="15"/>
-      <c r="Q798" s="15"/>
+      <c r="K798" s="11"/>
+      <c r="Q798" s="11"/>
     </row>
     <row r="799" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K799" s="15"/>
-      <c r="Q799" s="15"/>
+      <c r="K799" s="11"/>
+      <c r="Q799" s="11"/>
     </row>
     <row r="800" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K800" s="15"/>
-      <c r="Q800" s="15"/>
+      <c r="K800" s="11"/>
+      <c r="Q800" s="11"/>
     </row>
     <row r="801" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K801" s="15"/>
-      <c r="Q801" s="15"/>
+      <c r="K801" s="11"/>
+      <c r="Q801" s="11"/>
     </row>
     <row r="802" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K802" s="15"/>
-      <c r="Q802" s="15"/>
+      <c r="K802" s="11"/>
+      <c r="Q802" s="11"/>
     </row>
     <row r="803" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K803" s="15"/>
-      <c r="Q803" s="15"/>
+      <c r="K803" s="11"/>
+      <c r="Q803" s="11"/>
     </row>
     <row r="804" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K804" s="15"/>
-      <c r="Q804" s="15"/>
+      <c r="K804" s="11"/>
+      <c r="Q804" s="11"/>
     </row>
     <row r="805" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K805" s="15"/>
-      <c r="Q805" s="15"/>
+      <c r="K805" s="11"/>
+      <c r="Q805" s="11"/>
     </row>
     <row r="806" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K806" s="15"/>
-      <c r="Q806" s="15"/>
+      <c r="K806" s="11"/>
+      <c r="Q806" s="11"/>
     </row>
     <row r="807" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K807" s="15"/>
-      <c r="Q807" s="15"/>
+      <c r="K807" s="11"/>
+      <c r="Q807" s="11"/>
     </row>
     <row r="808" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K808" s="15"/>
-      <c r="Q808" s="15"/>
+      <c r="K808" s="11"/>
+      <c r="Q808" s="11"/>
     </row>
     <row r="809" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K809" s="15"/>
-      <c r="Q809" s="15"/>
+      <c r="K809" s="11"/>
+      <c r="Q809" s="11"/>
     </row>
     <row r="810" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K810" s="15"/>
-      <c r="Q810" s="15"/>
+      <c r="K810" s="11"/>
+      <c r="Q810" s="11"/>
     </row>
     <row r="811" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K811" s="15"/>
-      <c r="Q811" s="15"/>
+      <c r="K811" s="11"/>
+      <c r="Q811" s="11"/>
     </row>
     <row r="812" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K812" s="15"/>
-      <c r="Q812" s="15"/>
+      <c r="K812" s="11"/>
+      <c r="Q812" s="11"/>
     </row>
     <row r="813" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K813" s="15"/>
-      <c r="Q813" s="15"/>
+      <c r="K813" s="11"/>
+      <c r="Q813" s="11"/>
     </row>
     <row r="814" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K814" s="15"/>
-      <c r="Q814" s="15"/>
+      <c r="K814" s="11"/>
+      <c r="Q814" s="11"/>
     </row>
     <row r="815" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K815" s="15"/>
-      <c r="Q815" s="15"/>
+      <c r="K815" s="11"/>
+      <c r="Q815" s="11"/>
     </row>
     <row r="816" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K816" s="15"/>
-      <c r="Q816" s="15"/>
+      <c r="K816" s="11"/>
+      <c r="Q816" s="11"/>
     </row>
     <row r="817" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K817" s="15"/>
-      <c r="Q817" s="15"/>
+      <c r="K817" s="11"/>
+      <c r="Q817" s="11"/>
     </row>
     <row r="818" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K818" s="15"/>
-      <c r="Q818" s="15"/>
+      <c r="K818" s="11"/>
+      <c r="Q818" s="11"/>
     </row>
     <row r="819" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K819" s="15"/>
-      <c r="Q819" s="15"/>
+      <c r="K819" s="11"/>
+      <c r="Q819" s="11"/>
     </row>
     <row r="820" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K820" s="15"/>
-      <c r="Q820" s="15"/>
+      <c r="K820" s="11"/>
+      <c r="Q820" s="11"/>
     </row>
     <row r="821" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K821" s="15"/>
-      <c r="Q821" s="15"/>
+      <c r="K821" s="11"/>
+      <c r="Q821" s="11"/>
     </row>
     <row r="822" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K822" s="15"/>
-      <c r="Q822" s="15"/>
+      <c r="K822" s="11"/>
+      <c r="Q822" s="11"/>
     </row>
     <row r="823" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K823" s="15"/>
-      <c r="Q823" s="15"/>
+      <c r="K823" s="11"/>
+      <c r="Q823" s="11"/>
     </row>
     <row r="824" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K824" s="15"/>
-      <c r="Q824" s="15"/>
+      <c r="K824" s="11"/>
+      <c r="Q824" s="11"/>
     </row>
     <row r="825" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K825" s="15"/>
-      <c r="Q825" s="15"/>
+      <c r="K825" s="11"/>
+      <c r="Q825" s="11"/>
     </row>
     <row r="826" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K826" s="15"/>
-      <c r="Q826" s="15"/>
+      <c r="K826" s="11"/>
+      <c r="Q826" s="11"/>
     </row>
     <row r="827" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K827" s="15"/>
-      <c r="Q827" s="15"/>
+      <c r="K827" s="11"/>
+      <c r="Q827" s="11"/>
     </row>
     <row r="828" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K828" s="15"/>
-      <c r="Q828" s="15"/>
+      <c r="K828" s="11"/>
+      <c r="Q828" s="11"/>
     </row>
     <row r="829" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K829" s="15"/>
-      <c r="Q829" s="15"/>
+      <c r="K829" s="11"/>
+      <c r="Q829" s="11"/>
     </row>
     <row r="830" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K830" s="15"/>
-      <c r="Q830" s="15"/>
+      <c r="K830" s="11"/>
+      <c r="Q830" s="11"/>
     </row>
     <row r="831" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K831" s="15"/>
-      <c r="Q831" s="15"/>
+      <c r="K831" s="11"/>
+      <c r="Q831" s="11"/>
     </row>
     <row r="832" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K832" s="15"/>
-      <c r="Q832" s="15"/>
+      <c r="K832" s="11"/>
+      <c r="Q832" s="11"/>
     </row>
     <row r="833" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K833" s="15"/>
-      <c r="Q833" s="15"/>
+      <c r="K833" s="11"/>
+      <c r="Q833" s="11"/>
     </row>
     <row r="834" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K834" s="15"/>
-      <c r="Q834" s="15"/>
+      <c r="K834" s="11"/>
+      <c r="Q834" s="11"/>
     </row>
     <row r="835" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K835" s="15"/>
-      <c r="Q835" s="15"/>
+      <c r="K835" s="11"/>
+      <c r="Q835" s="11"/>
     </row>
     <row r="836" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K836" s="15"/>
-      <c r="Q836" s="15"/>
+      <c r="K836" s="11"/>
+      <c r="Q836" s="11"/>
     </row>
     <row r="837" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K837" s="15"/>
-      <c r="Q837" s="15"/>
+      <c r="K837" s="11"/>
+      <c r="Q837" s="11"/>
     </row>
     <row r="838" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K838" s="15"/>
-      <c r="Q838" s="15"/>
+      <c r="K838" s="11"/>
+      <c r="Q838" s="11"/>
     </row>
     <row r="839" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K839" s="15"/>
-      <c r="Q839" s="15"/>
+      <c r="K839" s="11"/>
+      <c r="Q839" s="11"/>
     </row>
     <row r="840" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K840" s="15"/>
-      <c r="Q840" s="15"/>
+      <c r="K840" s="11"/>
+      <c r="Q840" s="11"/>
     </row>
     <row r="841" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K841" s="15"/>
-      <c r="Q841" s="15"/>
+      <c r="K841" s="11"/>
+      <c r="Q841" s="11"/>
     </row>
     <row r="842" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K842" s="15"/>
-      <c r="Q842" s="15"/>
+      <c r="K842" s="11"/>
+      <c r="Q842" s="11"/>
     </row>
     <row r="843" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K843" s="15"/>
-      <c r="Q843" s="15"/>
+      <c r="K843" s="11"/>
+      <c r="Q843" s="11"/>
     </row>
     <row r="844" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K844" s="15"/>
-      <c r="Q844" s="15"/>
+      <c r="K844" s="11"/>
+      <c r="Q844" s="11"/>
     </row>
     <row r="845" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K845" s="15"/>
-      <c r="Q845" s="15"/>
+      <c r="K845" s="11"/>
+      <c r="Q845" s="11"/>
     </row>
     <row r="846" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K846" s="15"/>
-      <c r="Q846" s="15"/>
+      <c r="K846" s="11"/>
+      <c r="Q846" s="11"/>
     </row>
     <row r="847" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K847" s="15"/>
-      <c r="Q847" s="15"/>
+      <c r="K847" s="11"/>
+      <c r="Q847" s="11"/>
     </row>
     <row r="848" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K848" s="15"/>
-      <c r="Q848" s="15"/>
+      <c r="K848" s="11"/>
+      <c r="Q848" s="11"/>
     </row>
     <row r="849" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K849" s="15"/>
-      <c r="Q849" s="15"/>
+      <c r="K849" s="11"/>
+      <c r="Q849" s="11"/>
     </row>
     <row r="850" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K850" s="15"/>
-      <c r="Q850" s="15"/>
+      <c r="K850" s="11"/>
+      <c r="Q850" s="11"/>
     </row>
     <row r="851" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K851" s="15"/>
-      <c r="Q851" s="15"/>
+      <c r="K851" s="11"/>
+      <c r="Q851" s="11"/>
     </row>
     <row r="852" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K852" s="15"/>
-      <c r="Q852" s="15"/>
+      <c r="K852" s="11"/>
+      <c r="Q852" s="11"/>
     </row>
     <row r="853" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K853" s="15"/>
-      <c r="Q853" s="15"/>
+      <c r="K853" s="11"/>
+      <c r="Q853" s="11"/>
     </row>
     <row r="854" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K854" s="15"/>
-      <c r="Q854" s="15"/>
+      <c r="K854" s="11"/>
+      <c r="Q854" s="11"/>
     </row>
     <row r="855" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K855" s="15"/>
-      <c r="Q855" s="15"/>
+      <c r="K855" s="11"/>
+      <c r="Q855" s="11"/>
     </row>
     <row r="856" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K856" s="15"/>
-      <c r="Q856" s="15"/>
+      <c r="K856" s="11"/>
+      <c r="Q856" s="11"/>
     </row>
     <row r="857" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K857" s="15"/>
-      <c r="Q857" s="15"/>
+      <c r="K857" s="11"/>
+      <c r="Q857" s="11"/>
     </row>
     <row r="858" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K858" s="15"/>
-      <c r="Q858" s="15"/>
+      <c r="K858" s="11"/>
+      <c r="Q858" s="11"/>
     </row>
     <row r="859" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K859" s="15"/>
-      <c r="Q859" s="15"/>
+      <c r="K859" s="11"/>
+      <c r="Q859" s="11"/>
     </row>
     <row r="860" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K860" s="15"/>
-      <c r="Q860" s="15"/>
+      <c r="K860" s="11"/>
+      <c r="Q860" s="11"/>
     </row>
     <row r="861" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K861" s="15"/>
-      <c r="Q861" s="15"/>
+      <c r="K861" s="11"/>
+      <c r="Q861" s="11"/>
     </row>
     <row r="862" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K862" s="15"/>
-      <c r="Q862" s="15"/>
+      <c r="K862" s="11"/>
+      <c r="Q862" s="11"/>
     </row>
     <row r="863" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K863" s="15"/>
-      <c r="Q863" s="15"/>
+      <c r="K863" s="11"/>
+      <c r="Q863" s="11"/>
     </row>
     <row r="864" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K864" s="15"/>
-      <c r="Q864" s="15"/>
+      <c r="K864" s="11"/>
+      <c r="Q864" s="11"/>
     </row>
     <row r="865" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K865" s="15"/>
-      <c r="Q865" s="15"/>
+      <c r="K865" s="11"/>
+      <c r="Q865" s="11"/>
     </row>
     <row r="866" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K866" s="15"/>
-      <c r="Q866" s="15"/>
+      <c r="K866" s="11"/>
+      <c r="Q866" s="11"/>
     </row>
     <row r="867" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K867" s="15"/>
-      <c r="Q867" s="15"/>
+      <c r="K867" s="11"/>
+      <c r="Q867" s="11"/>
     </row>
     <row r="868" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K868" s="15"/>
-      <c r="Q868" s="15"/>
+      <c r="K868" s="11"/>
+      <c r="Q868" s="11"/>
     </row>
     <row r="869" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K869" s="15"/>
-      <c r="Q869" s="15"/>
+      <c r="K869" s="11"/>
+      <c r="Q869" s="11"/>
     </row>
     <row r="870" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K870" s="15"/>
-      <c r="Q870" s="15"/>
+      <c r="K870" s="11"/>
+      <c r="Q870" s="11"/>
     </row>
     <row r="871" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K871" s="15"/>
-      <c r="Q871" s="15"/>
+      <c r="K871" s="11"/>
+      <c r="Q871" s="11"/>
     </row>
     <row r="872" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K872" s="15"/>
-      <c r="Q872" s="15"/>
+      <c r="K872" s="11"/>
+      <c r="Q872" s="11"/>
     </row>
     <row r="873" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K873" s="15"/>
-      <c r="Q873" s="15"/>
+      <c r="K873" s="11"/>
+      <c r="Q873" s="11"/>
     </row>
     <row r="874" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K874" s="15"/>
-      <c r="Q874" s="15"/>
+      <c r="K874" s="11"/>
+      <c r="Q874" s="11"/>
     </row>
     <row r="875" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K875" s="15"/>
-      <c r="Q875" s="15"/>
+      <c r="K875" s="11"/>
+      <c r="Q875" s="11"/>
     </row>
     <row r="876" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K876" s="15"/>
-      <c r="Q876" s="15"/>
+      <c r="K876" s="11"/>
+      <c r="Q876" s="11"/>
     </row>
     <row r="877" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K877" s="15"/>
-      <c r="Q877" s="15"/>
+      <c r="K877" s="11"/>
+      <c r="Q877" s="11"/>
     </row>
     <row r="878" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K878" s="15"/>
-      <c r="Q878" s="15"/>
+      <c r="K878" s="11"/>
+      <c r="Q878" s="11"/>
     </row>
     <row r="879" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K879" s="15"/>
-      <c r="Q879" s="15"/>
+      <c r="K879" s="11"/>
+      <c r="Q879" s="11"/>
     </row>
     <row r="880" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K880" s="15"/>
-      <c r="Q880" s="15"/>
+      <c r="K880" s="11"/>
+      <c r="Q880" s="11"/>
     </row>
     <row r="881" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K881" s="15"/>
-      <c r="Q881" s="15"/>
+      <c r="K881" s="11"/>
+      <c r="Q881" s="11"/>
     </row>
     <row r="882" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K882" s="15"/>
-      <c r="Q882" s="15"/>
+      <c r="K882" s="11"/>
+      <c r="Q882" s="11"/>
     </row>
     <row r="883" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K883" s="15"/>
-      <c r="Q883" s="15"/>
+      <c r="K883" s="11"/>
+      <c r="Q883" s="11"/>
     </row>
     <row r="884" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K884" s="15"/>
-      <c r="Q884" s="15"/>
+      <c r="K884" s="11"/>
+      <c r="Q884" s="11"/>
     </row>
     <row r="885" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K885" s="15"/>
-      <c r="Q885" s="15"/>
+      <c r="K885" s="11"/>
+      <c r="Q885" s="11"/>
     </row>
     <row r="886" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K886" s="15"/>
-      <c r="Q886" s="15"/>
+      <c r="K886" s="11"/>
+      <c r="Q886" s="11"/>
     </row>
     <row r="887" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K887" s="15"/>
-      <c r="Q887" s="15"/>
+      <c r="K887" s="11"/>
+      <c r="Q887" s="11"/>
     </row>
     <row r="888" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K888" s="15"/>
-      <c r="Q888" s="15"/>
+      <c r="K888" s="11"/>
+      <c r="Q888" s="11"/>
     </row>
     <row r="889" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K889" s="15"/>
-      <c r="Q889" s="15"/>
+      <c r="K889" s="11"/>
+      <c r="Q889" s="11"/>
     </row>
     <row r="890" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K890" s="15"/>
-      <c r="Q890" s="15"/>
+      <c r="K890" s="11"/>
+      <c r="Q890" s="11"/>
     </row>
     <row r="891" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K891" s="15"/>
-      <c r="Q891" s="15"/>
+      <c r="K891" s="11"/>
+      <c r="Q891" s="11"/>
     </row>
     <row r="892" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K892" s="15"/>
-      <c r="Q892" s="15"/>
+      <c r="K892" s="11"/>
+      <c r="Q892" s="11"/>
     </row>
     <row r="893" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K893" s="15"/>
-      <c r="Q893" s="15"/>
+      <c r="K893" s="11"/>
+      <c r="Q893" s="11"/>
     </row>
     <row r="894" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K894" s="15"/>
-      <c r="Q894" s="15"/>
+      <c r="K894" s="11"/>
+      <c r="Q894" s="11"/>
     </row>
     <row r="895" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K895" s="15"/>
-      <c r="Q895" s="15"/>
+      <c r="K895" s="11"/>
+      <c r="Q895" s="11"/>
     </row>
     <row r="896" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K896" s="15"/>
-      <c r="Q896" s="15"/>
+      <c r="K896" s="11"/>
+      <c r="Q896" s="11"/>
     </row>
     <row r="897" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K897" s="15"/>
-      <c r="Q897" s="15"/>
+      <c r="K897" s="11"/>
+      <c r="Q897" s="11"/>
     </row>
     <row r="898" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K898" s="15"/>
-      <c r="Q898" s="15"/>
+      <c r="K898" s="11"/>
+      <c r="Q898" s="11"/>
     </row>
     <row r="899" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K899" s="15"/>
-      <c r="Q899" s="15"/>
+      <c r="K899" s="11"/>
+      <c r="Q899" s="11"/>
     </row>
     <row r="900" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K900" s="15"/>
-      <c r="Q900" s="15"/>
+      <c r="K900" s="11"/>
+      <c r="Q900" s="11"/>
     </row>
     <row r="901" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K901" s="15"/>
-      <c r="Q901" s="15"/>
+      <c r="K901" s="11"/>
+      <c r="Q901" s="11"/>
     </row>
     <row r="902" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K902" s="15"/>
-      <c r="Q902" s="15"/>
+      <c r="K902" s="11"/>
+      <c r="Q902" s="11"/>
     </row>
     <row r="903" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K903" s="15"/>
-      <c r="Q903" s="15"/>
+      <c r="K903" s="11"/>
+      <c r="Q903" s="11"/>
     </row>
     <row r="904" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K904" s="15"/>
-      <c r="Q904" s="15"/>
+      <c r="K904" s="11"/>
+      <c r="Q904" s="11"/>
     </row>
     <row r="905" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K905" s="15"/>
-      <c r="Q905" s="15"/>
+      <c r="K905" s="11"/>
+      <c r="Q905" s="11"/>
     </row>
     <row r="906" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K906" s="15"/>
-      <c r="Q906" s="15"/>
+      <c r="K906" s="11"/>
+      <c r="Q906" s="11"/>
     </row>
     <row r="907" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K907" s="15"/>
-      <c r="Q907" s="15"/>
+      <c r="K907" s="11"/>
+      <c r="Q907" s="11"/>
     </row>
     <row r="908" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K908" s="15"/>
-      <c r="Q908" s="15"/>
+      <c r="K908" s="11"/>
+      <c r="Q908" s="11"/>
     </row>
     <row r="909" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K909" s="15"/>
-      <c r="Q909" s="15"/>
+      <c r="K909" s="11"/>
+      <c r="Q909" s="11"/>
     </row>
     <row r="910" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K910" s="15"/>
-      <c r="Q910" s="15"/>
+      <c r="K910" s="11"/>
+      <c r="Q910" s="11"/>
     </row>
     <row r="911" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K911" s="15"/>
-      <c r="Q911" s="15"/>
+      <c r="K911" s="11"/>
+      <c r="Q911" s="11"/>
     </row>
     <row r="912" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K912" s="15"/>
-      <c r="Q912" s="15"/>
+      <c r="K912" s="11"/>
+      <c r="Q912" s="11"/>
     </row>
     <row r="913" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K913" s="15"/>
-      <c r="Q913" s="15"/>
+      <c r="K913" s="11"/>
+      <c r="Q913" s="11"/>
     </row>
     <row r="914" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K914" s="15"/>
-      <c r="Q914" s="15"/>
+      <c r="K914" s="11"/>
+      <c r="Q914" s="11"/>
     </row>
     <row r="915" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K915" s="15"/>
-      <c r="Q915" s="15"/>
+      <c r="K915" s="11"/>
+      <c r="Q915" s="11"/>
     </row>
     <row r="916" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K916" s="15"/>
-      <c r="Q916" s="15"/>
+      <c r="K916" s="11"/>
+      <c r="Q916" s="11"/>
     </row>
     <row r="917" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K917" s="15"/>
-      <c r="Q917" s="15"/>
+      <c r="K917" s="11"/>
+      <c r="Q917" s="11"/>
     </row>
     <row r="918" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K918" s="15"/>
-      <c r="Q918" s="15"/>
+      <c r="K918" s="11"/>
+      <c r="Q918" s="11"/>
     </row>
     <row r="919" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K919" s="15"/>
-      <c r="Q919" s="15"/>
+      <c r="K919" s="11"/>
+      <c r="Q919" s="11"/>
     </row>
     <row r="920" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K920" s="15"/>
-      <c r="Q920" s="15"/>
+      <c r="K920" s="11"/>
+      <c r="Q920" s="11"/>
     </row>
     <row r="921" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K921" s="15"/>
-      <c r="Q921" s="15"/>
+      <c r="K921" s="11"/>
+      <c r="Q921" s="11"/>
     </row>
     <row r="922" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K922" s="15"/>
-      <c r="Q922" s="15"/>
+      <c r="K922" s="11"/>
+      <c r="Q922" s="11"/>
     </row>
     <row r="923" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K923" s="15"/>
-      <c r="Q923" s="15"/>
+      <c r="K923" s="11"/>
+      <c r="Q923" s="11"/>
     </row>
     <row r="924" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K924" s="15"/>
-      <c r="Q924" s="15"/>
+      <c r="K924" s="11"/>
+      <c r="Q924" s="11"/>
     </row>
     <row r="925" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K925" s="15"/>
-      <c r="Q925" s="15"/>
+      <c r="K925" s="11"/>
+      <c r="Q925" s="11"/>
     </row>
     <row r="926" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K926" s="15"/>
-      <c r="Q926" s="15"/>
+      <c r="K926" s="11"/>
+      <c r="Q926" s="11"/>
     </row>
     <row r="927" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K927" s="15"/>
-      <c r="Q927" s="15"/>
+      <c r="K927" s="11"/>
+      <c r="Q927" s="11"/>
     </row>
     <row r="928" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K928" s="15"/>
-      <c r="Q928" s="15"/>
+      <c r="K928" s="11"/>
+      <c r="Q928" s="11"/>
     </row>
     <row r="929" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K929" s="15"/>
-      <c r="Q929" s="15"/>
+      <c r="K929" s="11"/>
+      <c r="Q929" s="11"/>
     </row>
     <row r="930" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K930" s="15"/>
-      <c r="Q930" s="15"/>
+      <c r="K930" s="11"/>
+      <c r="Q930" s="11"/>
     </row>
     <row r="931" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K931" s="15"/>
-      <c r="Q931" s="15"/>
+      <c r="K931" s="11"/>
+      <c r="Q931" s="11"/>
     </row>
     <row r="932" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K932" s="15"/>
-      <c r="Q932" s="15"/>
+      <c r="K932" s="11"/>
+      <c r="Q932" s="11"/>
     </row>
     <row r="933" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K933" s="15"/>
-      <c r="Q933" s="15"/>
+      <c r="K933" s="11"/>
+      <c r="Q933" s="11"/>
     </row>
     <row r="934" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K934" s="15"/>
-      <c r="Q934" s="15"/>
+      <c r="K934" s="11"/>
+      <c r="Q934" s="11"/>
     </row>
     <row r="935" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K935" s="15"/>
-      <c r="Q935" s="15"/>
+      <c r="K935" s="11"/>
+      <c r="Q935" s="11"/>
     </row>
     <row r="936" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K936" s="15"/>
-      <c r="Q936" s="15"/>
+      <c r="K936" s="11"/>
+      <c r="Q936" s="11"/>
     </row>
     <row r="937" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K937" s="15"/>
-      <c r="Q937" s="15"/>
+      <c r="K937" s="11"/>
+      <c r="Q937" s="11"/>
     </row>
     <row r="938" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K938" s="15"/>
-      <c r="Q938" s="15"/>
+      <c r="K938" s="11"/>
+      <c r="Q938" s="11"/>
     </row>
     <row r="939" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K939" s="15"/>
-      <c r="Q939" s="15"/>
+      <c r="K939" s="11"/>
+      <c r="Q939" s="11"/>
     </row>
     <row r="940" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K940" s="15"/>
-      <c r="Q940" s="15"/>
+      <c r="K940" s="11"/>
+      <c r="Q940" s="11"/>
     </row>
     <row r="941" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K941" s="15"/>
-      <c r="Q941" s="15"/>
+      <c r="K941" s="11"/>
+      <c r="Q941" s="11"/>
     </row>
     <row r="942" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K942" s="15"/>
-      <c r="Q942" s="15"/>
+      <c r="K942" s="11"/>
+      <c r="Q942" s="11"/>
     </row>
     <row r="943" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K943" s="15"/>
-      <c r="Q943" s="15"/>
+      <c r="K943" s="11"/>
+      <c r="Q943" s="11"/>
     </row>
     <row r="944" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K944" s="15"/>
-      <c r="Q944" s="15"/>
+      <c r="K944" s="11"/>
+      <c r="Q944" s="11"/>
     </row>
     <row r="945" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K945" s="15"/>
-      <c r="Q945" s="15"/>
+      <c r="K945" s="11"/>
+      <c r="Q945" s="11"/>
     </row>
     <row r="946" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K946" s="15"/>
-      <c r="Q946" s="15"/>
+      <c r="K946" s="11"/>
+      <c r="Q946" s="11"/>
     </row>
     <row r="947" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K947" s="15"/>
-      <c r="Q947" s="15"/>
+      <c r="K947" s="11"/>
+      <c r="Q947" s="11"/>
     </row>
     <row r="948" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K948" s="15"/>
-      <c r="Q948" s="15"/>
+      <c r="K948" s="11"/>
+      <c r="Q948" s="11"/>
     </row>
     <row r="949" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K949" s="15"/>
-      <c r="Q949" s="15"/>
+      <c r="K949" s="11"/>
+      <c r="Q949" s="11"/>
     </row>
     <row r="950" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K950" s="15"/>
-      <c r="Q950" s="15"/>
+      <c r="K950" s="11"/>
+      <c r="Q950" s="11"/>
     </row>
     <row r="951" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K951" s="15"/>
-      <c r="Q951" s="15"/>
+      <c r="K951" s="11"/>
+      <c r="Q951" s="11"/>
     </row>
     <row r="952" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K952" s="15"/>
-      <c r="Q952" s="15"/>
+      <c r="K952" s="11"/>
+      <c r="Q952" s="11"/>
     </row>
     <row r="953" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K953" s="15"/>
-      <c r="Q953" s="15"/>
+      <c r="K953" s="11"/>
+      <c r="Q953" s="11"/>
     </row>
     <row r="954" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K954" s="15"/>
-      <c r="Q954" s="15"/>
+      <c r="K954" s="11"/>
+      <c r="Q954" s="11"/>
     </row>
     <row r="955" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K955" s="15"/>
-      <c r="Q955" s="15"/>
+      <c r="K955" s="11"/>
+      <c r="Q955" s="11"/>
     </row>
     <row r="956" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K956" s="15"/>
-      <c r="Q956" s="15"/>
+      <c r="K956" s="11"/>
+      <c r="Q956" s="11"/>
     </row>
     <row r="957" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K957" s="15"/>
-      <c r="Q957" s="15"/>
+      <c r="K957" s="11"/>
+      <c r="Q957" s="11"/>
     </row>
     <row r="958" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K958" s="15"/>
-      <c r="Q958" s="15"/>
+      <c r="K958" s="11"/>
+      <c r="Q958" s="11"/>
     </row>
     <row r="959" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K959" s="15"/>
-      <c r="Q959" s="15"/>
+      <c r="K959" s="11"/>
+      <c r="Q959" s="11"/>
     </row>
     <row r="960" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K960" s="15"/>
-      <c r="Q960" s="15"/>
+      <c r="K960" s="11"/>
+      <c r="Q960" s="11"/>
     </row>
     <row r="961" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K961" s="15"/>
-      <c r="Q961" s="15"/>
+      <c r="K961" s="11"/>
+      <c r="Q961" s="11"/>
     </row>
     <row r="962" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K962" s="15"/>
-      <c r="Q962" s="15"/>
+      <c r="K962" s="11"/>
+      <c r="Q962" s="11"/>
     </row>
     <row r="963" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K963" s="15"/>
-      <c r="Q963" s="15"/>
+      <c r="K963" s="11"/>
+      <c r="Q963" s="11"/>
     </row>
     <row r="964" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K964" s="15"/>
-      <c r="Q964" s="15"/>
+      <c r="K964" s="11"/>
+      <c r="Q964" s="11"/>
     </row>
     <row r="965" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K965" s="15"/>
-      <c r="Q965" s="15"/>
+      <c r="K965" s="11"/>
+      <c r="Q965" s="11"/>
     </row>
     <row r="966" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K966" s="15"/>
-      <c r="Q966" s="15"/>
+      <c r="K966" s="11"/>
+      <c r="Q966" s="11"/>
     </row>
     <row r="967" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K967" s="15"/>
-      <c r="Q967" s="15"/>
+      <c r="K967" s="11"/>
+      <c r="Q967" s="11"/>
     </row>
     <row r="968" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K968" s="15"/>
-      <c r="Q968" s="15"/>
+      <c r="K968" s="11"/>
+      <c r="Q968" s="11"/>
     </row>
     <row r="969" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K969" s="15"/>
-      <c r="Q969" s="15"/>
+      <c r="K969" s="11"/>
+      <c r="Q969" s="11"/>
     </row>
     <row r="970" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K970" s="15"/>
-      <c r="Q970" s="15"/>
+      <c r="K970" s="11"/>
+      <c r="Q970" s="11"/>
     </row>
     <row r="971" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K971" s="15"/>
-      <c r="Q971" s="15"/>
+      <c r="K971" s="11"/>
+      <c r="Q971" s="11"/>
     </row>
     <row r="972" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K972" s="15"/>
-      <c r="Q972" s="15"/>
+      <c r="K972" s="11"/>
+      <c r="Q972" s="11"/>
     </row>
     <row r="973" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K973" s="15"/>
-      <c r="Q973" s="15"/>
+      <c r="K973" s="11"/>
+      <c r="Q973" s="11"/>
     </row>
     <row r="974" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K974" s="15"/>
-      <c r="Q974" s="15"/>
+      <c r="K974" s="11"/>
+      <c r="Q974" s="11"/>
     </row>
     <row r="975" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K975" s="15"/>
-      <c r="Q975" s="15"/>
+      <c r="K975" s="11"/>
+      <c r="Q975" s="11"/>
     </row>
     <row r="976" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K976" s="15"/>
-      <c r="Q976" s="15"/>
+      <c r="K976" s="11"/>
+      <c r="Q976" s="11"/>
     </row>
     <row r="977" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K977" s="15"/>
-      <c r="Q977" s="15"/>
+      <c r="K977" s="11"/>
+      <c r="Q977" s="11"/>
     </row>
     <row r="978" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K978" s="15"/>
-      <c r="Q978" s="15"/>
+      <c r="K978" s="11"/>
+      <c r="Q978" s="11"/>
     </row>
     <row r="979" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K979" s="15"/>
-      <c r="Q979" s="15"/>
+      <c r="K979" s="11"/>
+      <c r="Q979" s="11"/>
     </row>
     <row r="980" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K980" s="15"/>
-      <c r="Q980" s="15"/>
+      <c r="K980" s="11"/>
+      <c r="Q980" s="11"/>
     </row>
     <row r="981" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K981" s="15"/>
-      <c r="Q981" s="15"/>
+      <c r="K981" s="11"/>
+      <c r="Q981" s="11"/>
     </row>
     <row r="982" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K982" s="15"/>
-      <c r="Q982" s="15"/>
+      <c r="K982" s="11"/>
+      <c r="Q982" s="11"/>
     </row>
     <row r="983" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K983" s="15"/>
-      <c r="Q983" s="15"/>
+      <c r="K983" s="11"/>
+      <c r="Q983" s="11"/>
     </row>
     <row r="984" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K984" s="15"/>
-      <c r="Q984" s="15"/>
+      <c r="K984" s="11"/>
+      <c r="Q984" s="11"/>
     </row>
     <row r="985" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K985" s="15"/>
-      <c r="Q985" s="15"/>
+      <c r="K985" s="11"/>
+      <c r="Q985" s="11"/>
     </row>
     <row r="986" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K986" s="15"/>
-      <c r="Q986" s="15"/>
+      <c r="K986" s="11"/>
+      <c r="Q986" s="11"/>
     </row>
     <row r="987" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K987" s="15"/>
-      <c r="Q987" s="15"/>
+      <c r="K987" s="11"/>
+      <c r="Q987" s="11"/>
     </row>
     <row r="988" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K988" s="15"/>
-      <c r="Q988" s="15"/>
+      <c r="K988" s="11"/>
+      <c r="Q988" s="11"/>
     </row>
     <row r="989" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K989" s="15"/>
-      <c r="Q989" s="15"/>
+      <c r="K989" s="11"/>
+      <c r="Q989" s="11"/>
     </row>
     <row r="990" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K990" s="15"/>
-      <c r="Q990" s="15"/>
+      <c r="K990" s="11"/>
+      <c r="Q990" s="11"/>
     </row>
     <row r="991" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K991" s="15"/>
-      <c r="Q991" s="15"/>
+      <c r="K991" s="11"/>
+      <c r="Q991" s="11"/>
     </row>
     <row r="992" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K992" s="15"/>
-      <c r="Q992" s="15"/>
+      <c r="K992" s="11"/>
+      <c r="Q992" s="11"/>
     </row>
     <row r="993" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K993" s="15"/>
-      <c r="Q993" s="15"/>
+      <c r="K993" s="11"/>
+      <c r="Q993" s="11"/>
     </row>
     <row r="994" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K994" s="15"/>
-      <c r="Q994" s="15"/>
+      <c r="K994" s="11"/>
+      <c r="Q994" s="11"/>
     </row>
     <row r="995" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K995" s="15"/>
-      <c r="Q995" s="15"/>
+      <c r="K995" s="11"/>
+      <c r="Q995" s="11"/>
     </row>
     <row r="996" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K996" s="15"/>
-      <c r="Q996" s="15"/>
+      <c r="K996" s="11"/>
+      <c r="Q996" s="11"/>
     </row>
     <row r="997" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K997" s="15"/>
-      <c r="Q997" s="15"/>
+      <c r="K997" s="11"/>
+      <c r="Q997" s="11"/>
     </row>
     <row r="998" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K998" s="15"/>
-      <c r="Q998" s="15"/>
+      <c r="K998" s="11"/>
+      <c r="Q998" s="11"/>
     </row>
     <row r="999" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K999" s="15"/>
-      <c r="Q999" s="15"/>
+      <c r="K999" s="11"/>
+      <c r="Q999" s="11"/>
     </row>
     <row r="1000" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K1000" s="15"/>
-      <c r="Q1000" s="15"/>
+      <c r="K1000" s="11"/>
+      <c r="Q1000" s="11"/>
     </row>
     <row r="1001" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K1001" s="15"/>
-      <c r="Q1001" s="15"/>
+      <c r="K1001" s="11"/>
+      <c r="Q1001" s="11"/>
     </row>
     <row r="1002" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K1002" s="15"/>
-      <c r="Q1002" s="15"/>
+      <c r="K1002" s="11"/>
+      <c r="Q1002" s="11"/>
     </row>
     <row r="1003" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K1003" s="15"/>
-      <c r="Q1003" s="15"/>
+      <c r="K1003" s="11"/>
+      <c r="Q1003" s="11"/>
     </row>
     <row r="1004" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K1004" s="15"/>
-      <c r="Q1004" s="15"/>
+      <c r="K1004" s="11"/>
+      <c r="Q1004" s="11"/>
     </row>
     <row r="1005" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K1005" s="15"/>
-      <c r="Q1005" s="15"/>
+      <c r="K1005" s="11"/>
+      <c r="Q1005" s="11"/>
     </row>
     <row r="1006" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K1006" s="15"/>
-      <c r="Q1006" s="15"/>
+      <c r="K1006" s="11"/>
+      <c r="Q1006" s="11"/>
     </row>
     <row r="1007" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K1007" s="15"/>
-      <c r="Q1007" s="15"/>
+      <c r="K1007" s="11"/>
+      <c r="Q1007" s="11"/>
     </row>
     <row r="1008" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K1008" s="15"/>
-      <c r="Q1008" s="15"/>
+      <c r="K1008" s="11"/>
+      <c r="Q1008" s="11"/>
     </row>
     <row r="1009" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K1009" s="15"/>
-      <c r="Q1009" s="15"/>
+      <c r="K1009" s="11"/>
+      <c r="Q1009" s="11"/>
     </row>
     <row r="1010" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K1010" s="15"/>
-      <c r="Q1010" s="15"/>
+      <c r="K1010" s="11"/>
+      <c r="Q1010" s="11"/>
+    </row>
+    <row r="1011" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="K1011" s="11"/>
+      <c r="Q1011" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A19:W19"/>
+    <mergeCell ref="A20:W20"/>
     <mergeCell ref="A3:W3"/>
     <mergeCell ref="A10:W10"/>
     <mergeCell ref="B1:B2"/>

--- a/UBCBench Results.xlsx
+++ b/UBCBench Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eDocs\MASc\ISSTA\UBCBench\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eDocs\MASc\ISSTA\UBCBenchNew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8226B066-ACE3-4ED9-97DC-B66C65A199EA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A249D5B5-C931-4ED6-9BE8-9EB97107B88B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6225" yWindow="17250" windowWidth="24375" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>UBCBench</t>
   </si>
@@ -147,9 +147,6 @@
     <t>ViewCasting</t>
   </si>
   <si>
-    <t>ConservativeModel</t>
-  </si>
-  <si>
     <t>GetClass</t>
   </si>
   <si>
@@ -159,7 +156,31 @@
     <t>SendTextMessage</t>
   </si>
   <si>
-    <t>CastingForward</t>
+    <t>ConservativeModel1</t>
+  </si>
+  <si>
+    <t>ConservativeModel2</t>
+  </si>
+  <si>
+    <t>ConservativeModel3</t>
+  </si>
+  <si>
+    <t>SetContentView</t>
+  </si>
+  <si>
+    <t>CallbacksInFragment</t>
+  </si>
+  <si>
+    <t>GetConstructor</t>
+  </si>
+  <si>
+    <t>ContextSensitivityDepth</t>
+  </si>
+  <si>
+    <t>DuplicatedFlows</t>
+  </si>
+  <si>
+    <t>DroidSafe is flow insensitive, leading to two FPs</t>
   </si>
 </sst>
 </file>
@@ -175,18 +196,15 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -589,11 +607,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:W1011"/>
+  <dimension ref="A1:W1017"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U24" sqref="U24"/>
+      <pane xSplit="5" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -873,7 +891,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -1066,7 +1084,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -1126,513 +1144,519 @@
       </c>
       <c r="W9" s="8"/>
     </row>
-    <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
+    <row r="10" spans="1:23" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>7</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
+        <v>1</v>
+      </c>
+      <c r="J10" s="8">
+        <v>0</v>
+      </c>
+      <c r="K10" s="8"/>
+      <c r="L10" s="6">
+        <v>1</v>
+      </c>
+      <c r="M10" s="6">
+        <v>1</v>
+      </c>
+      <c r="N10" s="6">
+        <v>1</v>
+      </c>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+      <c r="P10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="6">
+        <v>1</v>
+      </c>
+      <c r="S10" s="6">
+        <v>1</v>
+      </c>
+      <c r="T10" s="6">
+        <v>1</v>
+      </c>
+      <c r="U10" s="6">
+        <v>0</v>
+      </c>
+      <c r="V10" s="6">
+        <v>0</v>
+      </c>
+      <c r="W10" s="8"/>
     </row>
     <row r="11" spans="1:23" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
-        <v>1</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5">
-        <v>1</v>
-      </c>
-      <c r="F11" s="5">
-        <v>1</v>
-      </c>
-      <c r="G11" s="5">
-        <v>1</v>
-      </c>
-      <c r="H11" s="5">
-        <v>1</v>
-      </c>
-      <c r="I11" s="5">
-        <v>0</v>
-      </c>
-      <c r="J11" s="5">
-        <v>0</v>
-      </c>
-      <c r="K11" s="11"/>
-      <c r="L11" s="5">
-        <v>1</v>
-      </c>
-      <c r="M11" s="5">
-        <v>1</v>
-      </c>
-      <c r="N11" s="5">
-        <v>1</v>
-      </c>
-      <c r="O11" s="5">
-        <v>0</v>
-      </c>
-      <c r="P11" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="5">
-        <v>1</v>
-      </c>
-      <c r="S11" s="5">
-        <v>1</v>
-      </c>
-      <c r="T11" s="5">
-        <v>1</v>
-      </c>
-      <c r="U11" s="5">
-        <v>0</v>
-      </c>
-      <c r="V11" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+        <v>8</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6">
+        <v>1</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="8">
+        <v>1</v>
+      </c>
+      <c r="K11" s="8"/>
+      <c r="L11" s="6">
+        <v>1</v>
+      </c>
+      <c r="M11" s="6">
+        <v>1</v>
+      </c>
+      <c r="N11" s="6">
+        <v>0</v>
+      </c>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+      <c r="P11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="6">
+        <v>1</v>
+      </c>
+      <c r="S11" s="6">
+        <v>1</v>
+      </c>
+      <c r="T11" s="6">
+        <v>0</v>
+      </c>
+      <c r="U11" s="6">
+        <v>0</v>
+      </c>
+      <c r="V11" s="6">
+        <v>0</v>
+      </c>
+      <c r="W11" s="8"/>
+    </row>
+    <row r="12" spans="1:23" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>9</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <v>1</v>
+      </c>
+      <c r="J12" s="8">
+        <v>0</v>
+      </c>
+      <c r="K12" s="8"/>
+      <c r="L12" s="6">
+        <v>0</v>
+      </c>
+      <c r="M12" s="6">
+        <v>0</v>
+      </c>
+      <c r="N12" s="6">
+        <v>0</v>
+      </c>
+      <c r="O12" s="6">
+        <v>1</v>
+      </c>
+      <c r="P12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="6">
+        <v>0</v>
+      </c>
+      <c r="S12" s="6">
+        <v>0</v>
+      </c>
+      <c r="T12" s="6">
+        <v>0</v>
+      </c>
+      <c r="U12" s="6">
+        <v>1</v>
+      </c>
+      <c r="V12" s="6">
+        <v>0</v>
+      </c>
+      <c r="W12" s="8"/>
+    </row>
+    <row r="13" spans="1:23" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>10</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="6">
         <v>2</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="D13" s="6">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6">
+        <v>2</v>
+      </c>
+      <c r="H13" s="6">
+        <v>1</v>
+      </c>
+      <c r="I13" s="6">
+        <v>1</v>
+      </c>
+      <c r="J13" s="8">
+        <v>0</v>
+      </c>
+      <c r="K13" s="8"/>
+      <c r="L13" s="6">
+        <v>1</v>
+      </c>
+      <c r="M13" s="6">
+        <v>2</v>
+      </c>
+      <c r="N13" s="6">
+        <v>1</v>
+      </c>
+      <c r="O13" s="6">
+        <v>1</v>
+      </c>
+      <c r="P13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="6">
+        <v>2</v>
+      </c>
+      <c r="S13" s="6">
+        <v>2</v>
+      </c>
+      <c r="T13" s="6">
+        <v>4</v>
+      </c>
+      <c r="U13" s="6">
+        <v>0</v>
+      </c>
+      <c r="V13" s="6">
+        <v>2</v>
+      </c>
+      <c r="W13" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>11</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6">
+        <v>1</v>
+      </c>
+      <c r="J14" s="8">
+        <v>0</v>
+      </c>
+      <c r="K14" s="8"/>
+      <c r="L14" s="6">
+        <v>0</v>
+      </c>
+      <c r="M14" s="6">
+        <v>0</v>
+      </c>
+      <c r="N14" s="6">
+        <v>0</v>
+      </c>
+      <c r="O14" s="6">
+        <v>1</v>
+      </c>
+      <c r="P14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="6">
+        <v>0</v>
+      </c>
+      <c r="S14" s="6">
+        <v>0</v>
+      </c>
+      <c r="T14" s="6">
+        <v>0</v>
+      </c>
+      <c r="U14" s="6">
+        <v>1</v>
+      </c>
+      <c r="V14" s="6">
+        <v>0</v>
+      </c>
+      <c r="W14" s="8"/>
+    </row>
+    <row r="15" spans="1:23" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>12</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6">
+        <v>3</v>
+      </c>
+      <c r="H15" s="6">
+        <v>1</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0</v>
+      </c>
+      <c r="J15" s="8">
+        <v>0</v>
+      </c>
+      <c r="K15" s="8"/>
+      <c r="L15" s="6">
+        <v>1</v>
+      </c>
+      <c r="M15" s="6">
+        <v>3</v>
+      </c>
+      <c r="N15" s="6">
+        <v>2</v>
+      </c>
+      <c r="O15" s="6">
+        <v>0</v>
+      </c>
+      <c r="P15" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="6">
+        <v>1</v>
+      </c>
+      <c r="S15" s="6">
+        <v>3</v>
+      </c>
+      <c r="T15" s="6">
+        <v>3</v>
+      </c>
+      <c r="U15" s="6">
+        <v>0</v>
+      </c>
+      <c r="V15" s="6">
+        <v>3</v>
+      </c>
+      <c r="W15" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>13</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6">
+        <v>1</v>
+      </c>
+      <c r="H16" s="6">
+        <v>1</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0</v>
+      </c>
+      <c r="J16" s="8">
+        <v>0</v>
+      </c>
+      <c r="K16" s="8"/>
+      <c r="L16" s="6">
+        <v>1</v>
+      </c>
+      <c r="M16" s="6">
+        <v>1</v>
+      </c>
+      <c r="N16" s="6">
+        <v>2</v>
+      </c>
+      <c r="O16" s="6">
+        <v>0</v>
+      </c>
+      <c r="P16" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="6">
+        <v>1</v>
+      </c>
+      <c r="S16" s="6">
+        <v>1</v>
+      </c>
+      <c r="T16" s="6">
+        <v>1</v>
+      </c>
+      <c r="U16" s="6">
+        <v>0</v>
+      </c>
+      <c r="V16" s="6">
+        <v>0</v>
+      </c>
+      <c r="W16" s="8"/>
+    </row>
+    <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+    </row>
+    <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>1</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
-      <c r="D12" s="5">
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5">
         <v>2</v>
       </c>
-      <c r="E12" s="5">
-        <v>1</v>
-      </c>
-      <c r="F12" s="5">
-        <v>1</v>
-      </c>
-      <c r="G12" s="5">
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5">
         <v>2</v>
       </c>
-      <c r="H12" s="5">
-        <v>1</v>
-      </c>
-      <c r="I12" s="5">
-        <v>0</v>
-      </c>
-      <c r="J12" s="5">
-        <v>0</v>
-      </c>
-      <c r="K12" s="11"/>
-      <c r="L12" s="5">
-        <v>1</v>
-      </c>
-      <c r="M12" s="5">
-        <v>5</v>
-      </c>
-      <c r="N12" s="5">
-        <v>1</v>
-      </c>
-      <c r="O12" s="5">
-        <v>0</v>
-      </c>
-      <c r="P12" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="5">
-        <v>1</v>
-      </c>
-      <c r="S12" s="5">
-        <v>2</v>
-      </c>
-      <c r="T12" s="5">
-        <v>1</v>
-      </c>
-      <c r="U12" s="5">
-        <v>0</v>
-      </c>
-      <c r="V12" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
-        <v>3</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2">
-        <v>1</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="J13" s="8">
-        <v>0</v>
-      </c>
-      <c r="K13" s="10"/>
-      <c r="L13" s="2">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2">
-        <v>1</v>
-      </c>
-      <c r="N13" s="2">
-        <v>0</v>
-      </c>
-      <c r="O13" s="2">
-        <v>1</v>
-      </c>
-      <c r="P13" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="2">
-        <v>1</v>
-      </c>
-      <c r="S13" s="2">
-        <v>1</v>
-      </c>
-      <c r="T13" s="2">
-        <v>1</v>
-      </c>
-      <c r="U13" s="2">
-        <v>0</v>
-      </c>
-      <c r="V13" s="2">
-        <v>0</v>
-      </c>
-      <c r="W13" s="8"/>
-    </row>
-    <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
-        <v>4</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="5">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0</v>
-      </c>
-      <c r="F14" s="5">
-        <v>0</v>
-      </c>
-      <c r="G14" s="5">
-        <v>1</v>
-      </c>
-      <c r="H14" s="5">
-        <v>0</v>
-      </c>
-      <c r="I14" s="5">
-        <v>0</v>
-      </c>
-      <c r="J14" s="5">
-        <v>0</v>
-      </c>
-      <c r="K14" s="11"/>
-      <c r="L14" s="5">
-        <v>1</v>
-      </c>
-      <c r="M14" s="5">
-        <v>2</v>
-      </c>
-      <c r="N14" s="5">
-        <v>1</v>
-      </c>
-      <c r="O14" s="5">
-        <v>0</v>
-      </c>
-      <c r="P14" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="R14" s="5">
-        <v>1</v>
-      </c>
-      <c r="S14" s="5">
-        <v>1</v>
-      </c>
-      <c r="T14" s="5">
-        <v>0</v>
-      </c>
-      <c r="U14" s="5">
-        <v>0</v>
-      </c>
-      <c r="V14" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
-        <v>5</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2">
-        <v>2</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1</v>
-      </c>
-      <c r="G15" s="2">
-        <v>2</v>
-      </c>
-      <c r="H15" s="2">
-        <v>1</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="J15" s="8">
-        <v>0</v>
-      </c>
-      <c r="K15" s="10"/>
-      <c r="L15" s="2">
-        <v>1</v>
-      </c>
-      <c r="M15" s="2">
-        <v>2</v>
-      </c>
-      <c r="N15" s="2">
-        <v>2</v>
-      </c>
-      <c r="O15" s="2">
-        <v>0</v>
-      </c>
-      <c r="P15" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="2">
-        <v>1</v>
-      </c>
-      <c r="S15" s="2">
-        <v>2</v>
-      </c>
-      <c r="T15" s="2">
-        <v>1</v>
-      </c>
-      <c r="U15" s="2">
-        <v>0</v>
-      </c>
-      <c r="V15" s="2">
-        <v>0</v>
-      </c>
-      <c r="W15" s="8"/>
-    </row>
-    <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
-        <v>6</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2">
-        <v>1</v>
-      </c>
-      <c r="G16" s="2">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2">
-        <v>1</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0</v>
-      </c>
-      <c r="J16" s="8">
-        <v>0</v>
-      </c>
-      <c r="K16" s="10"/>
-      <c r="L16" s="2">
-        <v>1</v>
-      </c>
-      <c r="M16" s="2">
-        <v>1</v>
-      </c>
-      <c r="N16" s="2">
-        <v>1</v>
-      </c>
-      <c r="O16" s="2">
-        <v>0</v>
-      </c>
-      <c r="P16" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="2">
-        <v>1</v>
-      </c>
-      <c r="S16" s="2">
-        <v>1</v>
-      </c>
-      <c r="T16" s="2">
-        <v>1</v>
-      </c>
-      <c r="U16" s="2">
-        <v>0</v>
-      </c>
-      <c r="V16" s="2">
-        <v>0</v>
-      </c>
-      <c r="W16" s="8"/>
-    </row>
-    <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
-        <v>7</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="5">
-        <v>1</v>
-      </c>
-      <c r="D17" s="5">
-        <v>1</v>
-      </c>
-      <c r="E17" s="5">
-        <v>1</v>
-      </c>
-      <c r="F17" s="5">
-        <v>1</v>
-      </c>
-      <c r="G17" s="5">
-        <v>1</v>
-      </c>
-      <c r="H17" s="5">
-        <v>0</v>
-      </c>
-      <c r="I17" s="5">
-        <v>1</v>
-      </c>
-      <c r="J17" s="5">
-        <v>0</v>
-      </c>
-      <c r="K17" s="11"/>
-      <c r="L17" s="5">
-        <v>1</v>
-      </c>
-      <c r="M17" s="5">
-        <v>2</v>
-      </c>
-      <c r="N17" s="5">
-        <v>0</v>
-      </c>
-      <c r="O17" s="5">
-        <v>1</v>
-      </c>
-      <c r="P17" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="5">
-        <v>1</v>
-      </c>
-      <c r="S17" s="5">
-        <v>1</v>
-      </c>
-      <c r="T17" s="5">
-        <v>1</v>
-      </c>
-      <c r="U17" s="5">
-        <v>0</v>
-      </c>
-      <c r="V17" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
-        <v>8</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="5">
-        <v>1</v>
-      </c>
-      <c r="D18" s="5">
-        <v>1</v>
-      </c>
-      <c r="E18" s="5">
-        <v>1</v>
-      </c>
-      <c r="F18" s="5">
-        <v>1</v>
-      </c>
-      <c r="G18" s="5">
-        <v>1</v>
-      </c>
       <c r="H18" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" s="5">
         <v>0</v>
@@ -1642,13 +1666,13 @@
         <v>1</v>
       </c>
       <c r="M18" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N18" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" s="5">
         <v>0</v>
@@ -1658,7 +1682,7 @@
         <v>1</v>
       </c>
       <c r="S18" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T18" s="5">
         <v>1</v>
@@ -1671,239 +1695,278 @@
       </c>
     </row>
     <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
-        <v>9</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="5">
-        <v>1</v>
-      </c>
-      <c r="D19" s="5">
-        <v>1</v>
-      </c>
-      <c r="E19" s="5">
-        <v>1</v>
-      </c>
-      <c r="F19" s="5">
-        <v>1</v>
-      </c>
-      <c r="G19" s="5">
-        <v>1</v>
-      </c>
-      <c r="H19" s="5">
-        <v>1</v>
-      </c>
-      <c r="I19" s="5">
-        <v>0</v>
-      </c>
-      <c r="J19" s="5">
-        <v>0</v>
-      </c>
-      <c r="K19" s="11"/>
-      <c r="L19" s="5">
-        <v>1</v>
-      </c>
-      <c r="M19" s="5">
+      <c r="A19" s="2">
         <v>2</v>
       </c>
-      <c r="N19" s="5">
-        <v>1</v>
-      </c>
-      <c r="O19" s="5">
-        <v>0</v>
-      </c>
-      <c r="P19" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="5">
-        <v>1</v>
-      </c>
-      <c r="S19" s="5">
-        <v>1</v>
-      </c>
-      <c r="T19" s="5">
-        <v>1</v>
-      </c>
-      <c r="U19" s="5">
-        <v>0</v>
-      </c>
-      <c r="V19" s="5">
-        <v>0</v>
-      </c>
+      <c r="B19" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="8">
+        <v>0</v>
+      </c>
+      <c r="K19" s="10"/>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2">
+        <v>1</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="2">
+        <v>1</v>
+      </c>
+      <c r="S19" s="2">
+        <v>1</v>
+      </c>
+      <c r="T19" s="2">
+        <v>1</v>
+      </c>
+      <c r="U19" s="2">
+        <v>0</v>
+      </c>
+      <c r="V19" s="2">
+        <v>0</v>
+      </c>
+      <c r="W19" s="8"/>
     </row>
     <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="15"/>
-      <c r="W20" s="15"/>
+      <c r="A20" s="2">
+        <v>3</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
+        <v>1</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0</v>
+      </c>
+      <c r="K20" s="11"/>
+      <c r="L20" s="5">
+        <v>1</v>
+      </c>
+      <c r="M20" s="5">
+        <v>2</v>
+      </c>
+      <c r="N20" s="5">
+        <v>1</v>
+      </c>
+      <c r="O20" s="5">
+        <v>0</v>
+      </c>
+      <c r="P20" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="R20" s="5">
+        <v>1</v>
+      </c>
+      <c r="S20" s="5">
+        <v>1</v>
+      </c>
+      <c r="T20" s="5">
+        <v>0</v>
+      </c>
+      <c r="U20" s="5">
+        <v>0</v>
+      </c>
+      <c r="V20" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
-        <v>1</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="5">
+      <c r="A21" s="2">
+        <v>4</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
         <v>2</v>
       </c>
-      <c r="D21" s="5">
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2">
         <v>2</v>
       </c>
-      <c r="E21" s="5">
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="8">
+        <v>0</v>
+      </c>
+      <c r="K21" s="10"/>
+      <c r="L21" s="2">
+        <v>1</v>
+      </c>
+      <c r="M21" s="2">
         <v>2</v>
       </c>
-      <c r="F21" s="5">
+      <c r="N21" s="2">
         <v>2</v>
       </c>
-      <c r="G21" s="5">
+      <c r="O21" s="2">
+        <v>0</v>
+      </c>
+      <c r="P21" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="2">
+        <v>1</v>
+      </c>
+      <c r="S21" s="2">
         <v>2</v>
       </c>
-      <c r="H21" s="5">
-        <v>2</v>
-      </c>
-      <c r="I21" s="5">
-        <v>0</v>
-      </c>
-      <c r="J21" s="5">
-        <v>0</v>
-      </c>
-      <c r="K21" s="11"/>
-      <c r="L21" s="5">
-        <v>2</v>
-      </c>
-      <c r="M21" s="5">
-        <v>4</v>
-      </c>
-      <c r="N21" s="5">
-        <v>2</v>
-      </c>
-      <c r="O21" s="5">
-        <v>0</v>
-      </c>
-      <c r="P21" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="5">
-        <v>2</v>
-      </c>
-      <c r="S21" s="5">
-        <v>2</v>
-      </c>
-      <c r="T21" s="5">
-        <v>4</v>
-      </c>
-      <c r="U21" s="5">
-        <v>0</v>
-      </c>
-      <c r="V21" s="5">
-        <v>2</v>
-      </c>
-      <c r="W21" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="T21" s="2">
+        <v>1</v>
+      </c>
+      <c r="U21" s="2">
+        <v>0</v>
+      </c>
+      <c r="V21" s="2">
+        <v>0</v>
+      </c>
+      <c r="W21" s="8"/>
     </row>
     <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
-        <v>2</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="5">
-        <v>1</v>
-      </c>
-      <c r="D22" s="5">
-        <v>2</v>
-      </c>
-      <c r="E22" s="5">
-        <v>1</v>
-      </c>
-      <c r="F22" s="5">
-        <v>1</v>
-      </c>
-      <c r="G22" s="5">
-        <v>2</v>
-      </c>
-      <c r="H22" s="5">
-        <v>1</v>
-      </c>
-      <c r="I22" s="5">
-        <v>0</v>
-      </c>
-      <c r="J22" s="5">
-        <v>0</v>
-      </c>
-      <c r="K22" s="11"/>
-      <c r="L22" s="5">
-        <v>1</v>
-      </c>
-      <c r="M22" s="5">
-        <v>4</v>
-      </c>
-      <c r="N22" s="5">
-        <v>1</v>
-      </c>
-      <c r="O22" s="5">
-        <v>0</v>
-      </c>
-      <c r="P22" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="5">
-        <v>1</v>
-      </c>
-      <c r="S22" s="5">
-        <v>2</v>
-      </c>
-      <c r="T22" s="5">
-        <v>1</v>
-      </c>
-      <c r="U22" s="5">
-        <v>0</v>
-      </c>
-      <c r="V22" s="5">
-        <v>0</v>
-      </c>
+      <c r="A22" s="2">
+        <v>5</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="8">
+        <v>0</v>
+      </c>
+      <c r="K22" s="10"/>
+      <c r="L22" s="2">
+        <v>1</v>
+      </c>
+      <c r="M22" s="2">
+        <v>1</v>
+      </c>
+      <c r="N22" s="2">
+        <v>1</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="2">
+        <v>1</v>
+      </c>
+      <c r="S22" s="2">
+        <v>1</v>
+      </c>
+      <c r="T22" s="2">
+        <v>1</v>
+      </c>
+      <c r="U22" s="2">
+        <v>0</v>
+      </c>
+      <c r="V22" s="2">
+        <v>0</v>
+      </c>
+      <c r="W22" s="8"/>
     </row>
     <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
-        <v>3</v>
+      <c r="A23" s="2">
+        <v>6</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C23" s="5">
         <v>1</v>
       </c>
       <c r="D23" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" s="5">
         <v>1</v>
@@ -1912,13 +1975,13 @@
         <v>1</v>
       </c>
       <c r="G23" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="5">
         <v>0</v>
@@ -1928,13 +1991,13 @@
         <v>1</v>
       </c>
       <c r="M23" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N23" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" s="5">
         <v>0</v>
@@ -1944,7 +2007,7 @@
         <v>1</v>
       </c>
       <c r="S23" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T23" s="5">
         <v>1</v>
@@ -1957,17 +2020,17 @@
       </c>
     </row>
     <row r="24" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
-        <v>4</v>
+      <c r="A24" s="2">
+        <v>7</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C24" s="5">
         <v>1</v>
       </c>
       <c r="D24" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" s="5">
         <v>1</v>
@@ -1976,13 +2039,13 @@
         <v>1</v>
       </c>
       <c r="G24" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" s="5">
         <v>0</v>
@@ -1992,13 +2055,13 @@
         <v>1</v>
       </c>
       <c r="M24" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N24" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" s="5">
         <v>0</v>
@@ -2008,7 +2071,7 @@
         <v>1</v>
       </c>
       <c r="S24" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T24" s="5">
         <v>1</v>
@@ -2021,11 +2084,11 @@
       </c>
     </row>
     <row r="25" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
-        <v>5</v>
+      <c r="A25" s="2">
+        <v>8</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C25" s="5">
         <v>1</v>
@@ -2034,7 +2097,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="5">
         <v>1</v>
@@ -2049,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" s="11"/>
       <c r="L25" s="5">
@@ -2065,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="11"/>
       <c r="R25" s="5">
@@ -2081,85 +2144,411 @@
         <v>0</v>
       </c>
       <c r="V25" s="5">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
     </row>
     <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5"/>
+      <c r="A27" s="5">
+        <v>1</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="5">
+        <v>2</v>
+      </c>
+      <c r="D27" s="5">
+        <v>2</v>
+      </c>
+      <c r="E27" s="5">
+        <v>2</v>
+      </c>
+      <c r="F27" s="5">
+        <v>2</v>
+      </c>
+      <c r="G27" s="5">
+        <v>2</v>
+      </c>
+      <c r="H27" s="5">
+        <v>2</v>
+      </c>
+      <c r="I27" s="5">
+        <v>0</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0</v>
+      </c>
+      <c r="K27" s="11"/>
+      <c r="L27" s="5">
+        <v>2</v>
+      </c>
+      <c r="M27" s="5">
+        <v>4</v>
+      </c>
+      <c r="N27" s="5">
+        <v>2</v>
+      </c>
+      <c r="O27" s="5">
+        <v>0</v>
+      </c>
+      <c r="P27" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="5">
+        <v>2</v>
+      </c>
+      <c r="S27" s="5">
+        <v>2</v>
+      </c>
+      <c r="T27" s="5">
+        <v>4</v>
+      </c>
+      <c r="U27" s="5">
+        <v>0</v>
+      </c>
+      <c r="V27" s="5">
+        <v>2</v>
+      </c>
+      <c r="W27" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>2</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5">
+        <v>2</v>
+      </c>
+      <c r="E28" s="5">
+        <v>1</v>
+      </c>
+      <c r="F28" s="5">
+        <v>1</v>
+      </c>
+      <c r="G28" s="5">
+        <v>2</v>
+      </c>
+      <c r="H28" s="5">
+        <v>1</v>
+      </c>
+      <c r="I28" s="5">
+        <v>0</v>
+      </c>
+      <c r="J28" s="5">
+        <v>0</v>
+      </c>
+      <c r="K28" s="11"/>
+      <c r="L28" s="5">
+        <v>1</v>
+      </c>
+      <c r="M28" s="5">
+        <v>4</v>
+      </c>
+      <c r="N28" s="5">
+        <v>1</v>
+      </c>
+      <c r="O28" s="5">
+        <v>0</v>
+      </c>
+      <c r="P28" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="5">
+        <v>1</v>
+      </c>
+      <c r="S28" s="5">
+        <v>2</v>
+      </c>
+      <c r="T28" s="5">
+        <v>1</v>
+      </c>
+      <c r="U28" s="5">
+        <v>0</v>
+      </c>
+      <c r="V28" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
+      <c r="A29" s="5">
+        <v>3</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="5">
+        <v>1</v>
+      </c>
+      <c r="D29" s="5">
+        <v>2</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1</v>
+      </c>
+      <c r="F29" s="5">
+        <v>1</v>
+      </c>
+      <c r="G29" s="5">
+        <v>2</v>
+      </c>
+      <c r="H29" s="5">
+        <v>1</v>
+      </c>
+      <c r="I29" s="5">
+        <v>0</v>
+      </c>
+      <c r="J29" s="5">
+        <v>0</v>
+      </c>
+      <c r="K29" s="11"/>
+      <c r="L29" s="5">
+        <v>1</v>
+      </c>
+      <c r="M29" s="5">
+        <v>4</v>
+      </c>
+      <c r="N29" s="5">
+        <v>1</v>
+      </c>
+      <c r="O29" s="5">
+        <v>0</v>
+      </c>
+      <c r="P29" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="5">
+        <v>1</v>
+      </c>
+      <c r="S29" s="5">
+        <v>2</v>
+      </c>
+      <c r="T29" s="5">
+        <v>1</v>
+      </c>
+      <c r="U29" s="5">
+        <v>0</v>
+      </c>
+      <c r="V29" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="5"/>
+      <c r="A30" s="5">
+        <v>4</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="5">
+        <v>1</v>
+      </c>
+      <c r="D30" s="5">
+        <v>2</v>
+      </c>
+      <c r="E30" s="5">
+        <v>1</v>
+      </c>
+      <c r="F30" s="5">
+        <v>1</v>
+      </c>
+      <c r="G30" s="5">
+        <v>2</v>
+      </c>
+      <c r="H30" s="5">
+        <v>1</v>
+      </c>
+      <c r="I30" s="5">
+        <v>0</v>
+      </c>
+      <c r="J30" s="5">
+        <v>0</v>
+      </c>
+      <c r="K30" s="11"/>
+      <c r="L30" s="5">
+        <v>1</v>
+      </c>
+      <c r="M30" s="5">
+        <v>4</v>
+      </c>
+      <c r="N30" s="5">
+        <v>1</v>
+      </c>
+      <c r="O30" s="5">
+        <v>0</v>
+      </c>
+      <c r="P30" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="5">
+        <v>1</v>
+      </c>
+      <c r="S30" s="5">
+        <v>2</v>
+      </c>
+      <c r="T30" s="5">
+        <v>1</v>
+      </c>
+      <c r="U30" s="5">
+        <v>0</v>
+      </c>
+      <c r="V30" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="5"/>
-    </row>
-    <row r="32" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="5"/>
-    </row>
-    <row r="33" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K33" s="11"/>
-      <c r="Q33" s="11"/>
-    </row>
-    <row r="34" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K34" s="11"/>
-      <c r="Q34" s="11"/>
-    </row>
-    <row r="35" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K35" s="11"/>
-      <c r="Q35" s="11"/>
-    </row>
-    <row r="36" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K36" s="11"/>
-      <c r="Q36" s="11"/>
-    </row>
-    <row r="37" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K37" s="11"/>
-      <c r="Q37" s="11"/>
-    </row>
-    <row r="38" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K38" s="11"/>
-      <c r="Q38" s="11"/>
-    </row>
-    <row r="39" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
+        <v>5</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="5">
+        <v>1</v>
+      </c>
+      <c r="D31" s="5">
+        <v>1</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0</v>
+      </c>
+      <c r="F31" s="5">
+        <v>1</v>
+      </c>
+      <c r="G31" s="5">
+        <v>1</v>
+      </c>
+      <c r="H31" s="5">
+        <v>1</v>
+      </c>
+      <c r="I31" s="5">
+        <v>0</v>
+      </c>
+      <c r="J31" s="5">
+        <v>1</v>
+      </c>
+      <c r="K31" s="11"/>
+      <c r="L31" s="5">
+        <v>1</v>
+      </c>
+      <c r="M31" s="5">
+        <v>2</v>
+      </c>
+      <c r="N31" s="5">
+        <v>1</v>
+      </c>
+      <c r="O31" s="5">
+        <v>0</v>
+      </c>
+      <c r="P31" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="5">
+        <v>1</v>
+      </c>
+      <c r="S31" s="5">
+        <v>1</v>
+      </c>
+      <c r="T31" s="5">
+        <v>1</v>
+      </c>
+      <c r="U31" s="5">
+        <v>0</v>
+      </c>
+      <c r="V31" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5"/>
+    </row>
+    <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5"/>
+    </row>
+    <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5"/>
+    </row>
+    <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="5"/>
+    </row>
+    <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="5"/>
+    </row>
+    <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K39" s="11"/>
       <c r="Q39" s="11"/>
     </row>
-    <row r="40" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K40" s="11"/>
       <c r="Q40" s="11"/>
     </row>
-    <row r="41" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K41" s="11"/>
       <c r="Q41" s="11"/>
     </row>
-    <row r="42" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K42" s="11"/>
       <c r="Q42" s="11"/>
     </row>
-    <row r="43" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K43" s="11"/>
       <c r="Q43" s="11"/>
     </row>
-    <row r="44" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K44" s="11"/>
       <c r="Q44" s="11"/>
     </row>
-    <row r="45" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K45" s="11"/>
       <c r="Q45" s="11"/>
     </row>
-    <row r="46" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K46" s="11"/>
       <c r="Q46" s="11"/>
     </row>
-    <row r="47" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K47" s="11"/>
       <c r="Q47" s="11"/>
     </row>
-    <row r="48" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K48" s="11"/>
       <c r="Q48" s="11"/>
     </row>
@@ -2235,27 +2624,27 @@
       <c r="K66" s="11"/>
       <c r="Q66" s="11"/>
     </row>
-    <row r="67" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K67" s="11"/>
       <c r="Q67" s="11"/>
     </row>
-    <row r="68" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K68" s="11"/>
       <c r="Q68" s="11"/>
     </row>
-    <row r="69" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K69" s="11"/>
       <c r="Q69" s="11"/>
     </row>
-    <row r="70" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K70" s="11"/>
       <c r="Q70" s="11"/>
     </row>
-    <row r="71" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K71" s="11"/>
       <c r="Q71" s="11"/>
     </row>
-    <row r="72" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K72" s="11"/>
       <c r="Q72" s="11"/>
     </row>
@@ -6015,11 +6404,35 @@
       <c r="K1011" s="11"/>
       <c r="Q1011" s="11"/>
     </row>
+    <row r="1012" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="K1012" s="11"/>
+      <c r="Q1012" s="11"/>
+    </row>
+    <row r="1013" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="K1013" s="11"/>
+      <c r="Q1013" s="11"/>
+    </row>
+    <row r="1014" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="K1014" s="11"/>
+      <c r="Q1014" s="11"/>
+    </row>
+    <row r="1015" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="K1015" s="11"/>
+      <c r="Q1015" s="11"/>
+    </row>
+    <row r="1016" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="K1016" s="11"/>
+      <c r="Q1016" s="11"/>
+    </row>
+    <row r="1017" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="K1017" s="11"/>
+      <c r="Q1017" s="11"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A20:W20"/>
+    <mergeCell ref="A26:W26"/>
     <mergeCell ref="A3:W3"/>
-    <mergeCell ref="A10:W10"/>
+    <mergeCell ref="A17:W17"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="F1:K1"/>
     <mergeCell ref="L1:Q1"/>

--- a/UBCBench Results.xlsx
+++ b/UBCBench Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eDocs\MASc\ISSTA\UBCBenchNew\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eDocs\MASc\ISSTA\UBCBench\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A249D5B5-C931-4ED6-9BE8-9EB97107B88B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1B6B85-967E-4C8C-8CE1-305001ABF13A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6225" yWindow="17250" windowWidth="24375" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
   <si>
     <t>UBCBench</t>
   </si>
@@ -174,13 +174,22 @@
     <t>GetConstructor</t>
   </si>
   <si>
-    <t>ContextSensitivityDepth</t>
+    <t>DroidSafe is flow insensitive, leading to two FPs</t>
   </si>
   <si>
-    <t>DuplicatedFlows</t>
+    <t>ReflectionOverloaded</t>
   </si>
   <si>
-    <t>DroidSafe is flow insensitive, leading to two FPs</t>
+    <t>ReflectionRes</t>
+  </si>
+  <si>
+    <t>ReflectionDynamic</t>
+  </si>
+  <si>
+    <t>ReflectionAndroid</t>
+  </si>
+  <si>
+    <t>ReturnConstructor</t>
   </si>
 </sst>
 </file>
@@ -262,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -278,6 +287,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -607,11 +618,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:W1017"/>
+  <dimension ref="A1:W1020"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q16" sqref="Q16"/>
+      <pane xSplit="5" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -627,44 +638,44 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="19" t="s">
+      <c r="C1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="19" t="s">
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="19" t="s">
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="22"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
@@ -730,31 +741,31 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
+      <c r="A3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
     </row>
     <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
@@ -1175,7 +1186,7 @@
       <c r="J10" s="8">
         <v>0</v>
       </c>
-      <c r="K10" s="8"/>
+      <c r="K10" s="10"/>
       <c r="L10" s="6">
         <v>1</v>
       </c>
@@ -1191,7 +1202,7 @@
       <c r="P10" s="6">
         <v>0</v>
       </c>
-      <c r="Q10" s="8"/>
+      <c r="Q10" s="10"/>
       <c r="R10" s="6">
         <v>1</v>
       </c>
@@ -1240,7 +1251,7 @@
       <c r="J11" s="8">
         <v>1</v>
       </c>
-      <c r="K11" s="8"/>
+      <c r="K11" s="10"/>
       <c r="L11" s="6">
         <v>1</v>
       </c>
@@ -1256,7 +1267,7 @@
       <c r="P11" s="6">
         <v>0</v>
       </c>
-      <c r="Q11" s="8"/>
+      <c r="Q11" s="10"/>
       <c r="R11" s="6">
         <v>1</v>
       </c>
@@ -1305,7 +1316,7 @@
       <c r="J12" s="8">
         <v>0</v>
       </c>
-      <c r="K12" s="8"/>
+      <c r="K12" s="10"/>
       <c r="L12" s="6">
         <v>0</v>
       </c>
@@ -1321,7 +1332,7 @@
       <c r="P12" s="6">
         <v>0</v>
       </c>
-      <c r="Q12" s="8"/>
+      <c r="Q12" s="10"/>
       <c r="R12" s="6">
         <v>0</v>
       </c>
@@ -1370,7 +1381,7 @@
       <c r="J13" s="8">
         <v>0</v>
       </c>
-      <c r="K13" s="8"/>
+      <c r="K13" s="10"/>
       <c r="L13" s="6">
         <v>1</v>
       </c>
@@ -1386,7 +1397,7 @@
       <c r="P13" s="6">
         <v>0</v>
       </c>
-      <c r="Q13" s="8"/>
+      <c r="Q13" s="10"/>
       <c r="R13" s="6">
         <v>2</v>
       </c>
@@ -1403,499 +1414,496 @@
         <v>2</v>
       </c>
       <c r="W13" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="15">
+        <v>1</v>
+      </c>
+      <c r="D14" s="15">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="15">
+        <v>1</v>
+      </c>
+      <c r="G14" s="15">
+        <v>2</v>
+      </c>
+      <c r="H14" s="15">
+        <v>1</v>
+      </c>
+      <c r="I14" s="15">
+        <v>0</v>
+      </c>
+      <c r="J14" s="8">
+        <v>0</v>
+      </c>
+      <c r="K14" s="10"/>
+      <c r="L14" s="15">
+        <v>1</v>
+      </c>
+      <c r="M14" s="15">
+        <v>2</v>
+      </c>
+      <c r="N14" s="15">
+        <v>0</v>
+      </c>
+      <c r="O14" s="15">
+        <v>1</v>
+      </c>
+      <c r="P14" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="15">
+        <v>1</v>
+      </c>
+      <c r="S14" s="15">
+        <v>2</v>
+      </c>
+      <c r="T14" s="15">
+        <v>2</v>
+      </c>
+      <c r="U14" s="15">
+        <v>0</v>
+      </c>
+      <c r="V14" s="15">
+        <v>1</v>
+      </c>
+      <c r="W14" s="8"/>
+    </row>
+    <row r="15" spans="1:23" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>12</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="15">
+        <v>1</v>
+      </c>
+      <c r="H15" s="15">
+        <v>1</v>
+      </c>
+      <c r="I15" s="15">
+        <v>0</v>
+      </c>
+      <c r="J15" s="8">
+        <v>0</v>
+      </c>
+      <c r="K15" s="10"/>
+      <c r="L15" s="15">
+        <v>1</v>
+      </c>
+      <c r="M15" s="15">
+        <v>1</v>
+      </c>
+      <c r="N15" s="15">
+        <v>0</v>
+      </c>
+      <c r="O15" s="15">
+        <v>1</v>
+      </c>
+      <c r="P15" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="15">
+        <v>1</v>
+      </c>
+      <c r="S15" s="15">
+        <v>1</v>
+      </c>
+      <c r="T15" s="15">
+        <v>0</v>
+      </c>
+      <c r="U15" s="15">
+        <v>1</v>
+      </c>
+      <c r="V15" s="15">
+        <v>0</v>
+      </c>
+      <c r="W15" s="8"/>
+    </row>
+    <row r="16" spans="1:23" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>13</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="15">
+        <v>1</v>
+      </c>
+      <c r="D16" s="15">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="15">
+        <v>1</v>
+      </c>
+      <c r="G16" s="15">
+        <v>2</v>
+      </c>
+      <c r="H16" s="15">
+        <v>0</v>
+      </c>
+      <c r="I16" s="15">
+        <v>1</v>
+      </c>
+      <c r="J16" s="8">
+        <v>0</v>
+      </c>
+      <c r="K16" s="10"/>
+      <c r="L16" s="15">
+        <v>1</v>
+      </c>
+      <c r="M16" s="15">
+        <v>2</v>
+      </c>
+      <c r="N16" s="15">
+        <v>0</v>
+      </c>
+      <c r="O16" s="15">
+        <v>1</v>
+      </c>
+      <c r="P16" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="15">
+        <v>1</v>
+      </c>
+      <c r="S16" s="15">
+        <v>2</v>
+      </c>
+      <c r="T16" s="15">
+        <v>0</v>
+      </c>
+      <c r="U16" s="15">
+        <v>1</v>
+      </c>
+      <c r="V16" s="15">
+        <v>0</v>
+      </c>
+      <c r="W16" s="8"/>
+    </row>
+    <row r="17" spans="1:23" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>14</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="15">
+        <v>0</v>
+      </c>
+      <c r="D17" s="15">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="15">
+        <v>0</v>
+      </c>
+      <c r="G17" s="15">
+        <v>1</v>
+      </c>
+      <c r="H17" s="15">
+        <v>0</v>
+      </c>
+      <c r="I17" s="15">
+        <v>0</v>
+      </c>
+      <c r="J17" s="8">
+        <v>0</v>
+      </c>
+      <c r="K17" s="10"/>
+      <c r="L17" s="15">
+        <v>0</v>
+      </c>
+      <c r="M17" s="15">
+        <v>1</v>
+      </c>
+      <c r="N17" s="15">
+        <v>0</v>
+      </c>
+      <c r="O17" s="15">
+        <v>0</v>
+      </c>
+      <c r="P17" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="15">
+        <v>0</v>
+      </c>
+      <c r="S17" s="15">
+        <v>1</v>
+      </c>
+      <c r="T17" s="15">
+        <v>0</v>
+      </c>
+      <c r="U17" s="15">
+        <v>0</v>
+      </c>
+      <c r="V17" s="15">
+        <v>0</v>
+      </c>
+      <c r="W17" s="8"/>
+    </row>
+    <row r="18" spans="1:23" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>15</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="6">
-        <v>1</v>
-      </c>
-      <c r="D14" s="6">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="6">
-        <v>0</v>
-      </c>
-      <c r="G14" s="6">
-        <v>0</v>
-      </c>
-      <c r="H14" s="6">
-        <v>0</v>
-      </c>
-      <c r="I14" s="6">
-        <v>1</v>
-      </c>
-      <c r="J14" s="8">
-        <v>0</v>
-      </c>
-      <c r="K14" s="8"/>
-      <c r="L14" s="6">
-        <v>0</v>
-      </c>
-      <c r="M14" s="6">
-        <v>0</v>
-      </c>
-      <c r="N14" s="6">
-        <v>0</v>
-      </c>
-      <c r="O14" s="6">
-        <v>1</v>
-      </c>
-      <c r="P14" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="6">
-        <v>0</v>
-      </c>
-      <c r="S14" s="6">
-        <v>0</v>
-      </c>
-      <c r="T14" s="6">
-        <v>0</v>
-      </c>
-      <c r="U14" s="6">
-        <v>1</v>
-      </c>
-      <c r="V14" s="6">
-        <v>0</v>
-      </c>
-      <c r="W14" s="8"/>
-    </row>
-    <row r="15" spans="1:23" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
-        <v>12</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="6">
-        <v>1</v>
-      </c>
-      <c r="D15" s="6">
-        <v>3</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="6">
-        <v>1</v>
-      </c>
-      <c r="G15" s="6">
-        <v>3</v>
-      </c>
-      <c r="H15" s="6">
-        <v>1</v>
-      </c>
-      <c r="I15" s="6">
-        <v>0</v>
-      </c>
-      <c r="J15" s="8">
-        <v>0</v>
-      </c>
-      <c r="K15" s="8"/>
-      <c r="L15" s="6">
-        <v>1</v>
-      </c>
-      <c r="M15" s="6">
-        <v>3</v>
-      </c>
-      <c r="N15" s="6">
+      <c r="C18" s="6">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0</v>
+      </c>
+      <c r="I18" s="6">
+        <v>1</v>
+      </c>
+      <c r="J18" s="8">
+        <v>0</v>
+      </c>
+      <c r="K18" s="10"/>
+      <c r="L18" s="6">
+        <v>0</v>
+      </c>
+      <c r="M18" s="6">
+        <v>0</v>
+      </c>
+      <c r="N18" s="6">
+        <v>0</v>
+      </c>
+      <c r="O18" s="6">
+        <v>1</v>
+      </c>
+      <c r="P18" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="6">
+        <v>0</v>
+      </c>
+      <c r="S18" s="6">
+        <v>0</v>
+      </c>
+      <c r="T18" s="6">
+        <v>0</v>
+      </c>
+      <c r="U18" s="6">
+        <v>1</v>
+      </c>
+      <c r="V18" s="6">
+        <v>0</v>
+      </c>
+      <c r="W18" s="8"/>
+    </row>
+    <row r="19" spans="1:23" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>16</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="15">
+        <v>1</v>
+      </c>
+      <c r="D19" s="15">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
         <v>2</v>
       </c>
-      <c r="O15" s="6">
-        <v>0</v>
-      </c>
-      <c r="P15" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="6">
-        <v>1</v>
-      </c>
-      <c r="S15" s="6">
-        <v>3</v>
-      </c>
-      <c r="T15" s="6">
-        <v>3</v>
-      </c>
-      <c r="U15" s="6">
-        <v>0</v>
-      </c>
-      <c r="V15" s="6">
-        <v>3</v>
-      </c>
-      <c r="W15" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
-        <v>13</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="6">
-        <v>1</v>
-      </c>
-      <c r="D16" s="6">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="6">
-        <v>1</v>
-      </c>
-      <c r="G16" s="6">
-        <v>1</v>
-      </c>
-      <c r="H16" s="6">
-        <v>1</v>
-      </c>
-      <c r="I16" s="6">
-        <v>0</v>
-      </c>
-      <c r="J16" s="8">
-        <v>0</v>
-      </c>
-      <c r="K16" s="8"/>
-      <c r="L16" s="6">
-        <v>1</v>
-      </c>
-      <c r="M16" s="6">
-        <v>1</v>
-      </c>
-      <c r="N16" s="6">
+      <c r="F19" s="15">
+        <v>1</v>
+      </c>
+      <c r="G19" s="15">
+        <v>1</v>
+      </c>
+      <c r="H19" s="15">
+        <v>0</v>
+      </c>
+      <c r="I19" s="15">
         <v>2</v>
       </c>
-      <c r="O16" s="6">
-        <v>0</v>
-      </c>
-      <c r="P16" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="6">
-        <v>1</v>
-      </c>
-      <c r="S16" s="6">
-        <v>1</v>
-      </c>
-      <c r="T16" s="6">
-        <v>1</v>
-      </c>
-      <c r="U16" s="6">
-        <v>0</v>
-      </c>
-      <c r="V16" s="6">
-        <v>0</v>
-      </c>
-      <c r="W16" s="8"/>
-    </row>
-    <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
+      <c r="J19" s="8">
+        <v>0</v>
+      </c>
+      <c r="K19" s="10"/>
+      <c r="L19" s="15">
+        <v>1</v>
+      </c>
+      <c r="M19" s="15">
+        <v>1</v>
+      </c>
+      <c r="N19" s="15">
+        <v>0</v>
+      </c>
+      <c r="O19" s="15">
+        <v>2</v>
+      </c>
+      <c r="P19" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="15">
+        <v>1</v>
+      </c>
+      <c r="S19" s="15">
+        <v>1</v>
+      </c>
+      <c r="T19" s="15">
+        <v>0</v>
+      </c>
+      <c r="U19" s="15">
+        <v>2</v>
+      </c>
+      <c r="V19" s="15">
+        <v>0</v>
+      </c>
+      <c r="W19" s="8"/>
+    </row>
+    <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-    </row>
-    <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>1</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="5">
-        <v>1</v>
-      </c>
-      <c r="D18" s="5">
-        <v>2</v>
-      </c>
-      <c r="E18" s="5">
-        <v>1</v>
-      </c>
-      <c r="F18" s="5">
-        <v>1</v>
-      </c>
-      <c r="G18" s="5">
-        <v>2</v>
-      </c>
-      <c r="H18" s="5">
-        <v>1</v>
-      </c>
-      <c r="I18" s="5">
-        <v>0</v>
-      </c>
-      <c r="J18" s="5">
-        <v>0</v>
-      </c>
-      <c r="K18" s="11"/>
-      <c r="L18" s="5">
-        <v>1</v>
-      </c>
-      <c r="M18" s="5">
-        <v>5</v>
-      </c>
-      <c r="N18" s="5">
-        <v>1</v>
-      </c>
-      <c r="O18" s="5">
-        <v>0</v>
-      </c>
-      <c r="P18" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="5">
-        <v>1</v>
-      </c>
-      <c r="S18" s="5">
-        <v>2</v>
-      </c>
-      <c r="T18" s="5">
-        <v>1</v>
-      </c>
-      <c r="U18" s="5">
-        <v>0</v>
-      </c>
-      <c r="V18" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>2</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1</v>
-      </c>
-      <c r="G19" s="2">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2">
-        <v>1</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0</v>
-      </c>
-      <c r="J19" s="8">
-        <v>0</v>
-      </c>
-      <c r="K19" s="10"/>
-      <c r="L19" s="2">
-        <v>0</v>
-      </c>
-      <c r="M19" s="2">
-        <v>1</v>
-      </c>
-      <c r="N19" s="2">
-        <v>0</v>
-      </c>
-      <c r="O19" s="2">
-        <v>1</v>
-      </c>
-      <c r="P19" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="2">
-        <v>1</v>
-      </c>
-      <c r="S19" s="2">
-        <v>1</v>
-      </c>
-      <c r="T19" s="2">
-        <v>1</v>
-      </c>
-      <c r="U19" s="2">
-        <v>0</v>
-      </c>
-      <c r="V19" s="2">
-        <v>0</v>
-      </c>
-      <c r="W19" s="8"/>
-    </row>
-    <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>3</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="5">
-        <v>1</v>
-      </c>
-      <c r="D20" s="5">
-        <v>1</v>
-      </c>
-      <c r="E20" s="5">
-        <v>0</v>
-      </c>
-      <c r="F20" s="5">
-        <v>0</v>
-      </c>
-      <c r="G20" s="5">
-        <v>1</v>
-      </c>
-      <c r="H20" s="5">
-        <v>0</v>
-      </c>
-      <c r="I20" s="5">
-        <v>0</v>
-      </c>
-      <c r="J20" s="5">
-        <v>0</v>
-      </c>
-      <c r="K20" s="11"/>
-      <c r="L20" s="5">
-        <v>1</v>
-      </c>
-      <c r="M20" s="5">
-        <v>2</v>
-      </c>
-      <c r="N20" s="5">
-        <v>1</v>
-      </c>
-      <c r="O20" s="5">
-        <v>0</v>
-      </c>
-      <c r="P20" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="R20" s="5">
-        <v>1</v>
-      </c>
-      <c r="S20" s="5">
-        <v>1</v>
-      </c>
-      <c r="T20" s="5">
-        <v>0</v>
-      </c>
-      <c r="U20" s="5">
-        <v>0</v>
-      </c>
-      <c r="V20" s="5">
-        <v>0</v>
-      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18"/>
     </row>
     <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>4</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5">
         <v>2</v>
       </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="F21" s="2">
-        <v>1</v>
-      </c>
-      <c r="G21" s="2">
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1</v>
+      </c>
+      <c r="G21" s="5">
         <v>2</v>
       </c>
-      <c r="H21" s="2">
-        <v>1</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0</v>
-      </c>
-      <c r="J21" s="8">
-        <v>0</v>
-      </c>
-      <c r="K21" s="10"/>
-      <c r="L21" s="2">
-        <v>1</v>
-      </c>
-      <c r="M21" s="2">
+      <c r="H21" s="5">
+        <v>1</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0</v>
+      </c>
+      <c r="K21" s="11"/>
+      <c r="L21" s="5">
+        <v>1</v>
+      </c>
+      <c r="M21" s="5">
+        <v>5</v>
+      </c>
+      <c r="N21" s="5">
+        <v>1</v>
+      </c>
+      <c r="O21" s="5">
+        <v>0</v>
+      </c>
+      <c r="P21" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="5">
+        <v>1</v>
+      </c>
+      <c r="S21" s="5">
         <v>2</v>
       </c>
-      <c r="N21" s="2">
-        <v>2</v>
-      </c>
-      <c r="O21" s="2">
-        <v>0</v>
-      </c>
-      <c r="P21" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="2">
-        <v>1</v>
-      </c>
-      <c r="S21" s="2">
-        <v>2</v>
-      </c>
-      <c r="T21" s="2">
-        <v>1</v>
-      </c>
-      <c r="U21" s="2">
-        <v>0</v>
-      </c>
-      <c r="V21" s="2">
-        <v>0</v>
-      </c>
-      <c r="W21" s="8"/>
+      <c r="T21" s="5">
+        <v>1</v>
+      </c>
+      <c r="U21" s="5">
+        <v>0</v>
+      </c>
+      <c r="V21" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
@@ -1923,16 +1931,16 @@
       </c>
       <c r="K22" s="10"/>
       <c r="L22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" s="2">
         <v>1</v>
       </c>
       <c r="N22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" s="2">
         <v>0</v>
@@ -1957,10 +1965,10 @@
     </row>
     <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C23" s="5">
         <v>1</v>
@@ -1969,10 +1977,10 @@
         <v>1</v>
       </c>
       <c r="E23" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" s="5">
         <v>1</v>
@@ -1981,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" s="5">
         <v>0</v>
@@ -1994,15 +2002,17 @@
         <v>2</v>
       </c>
       <c r="N23" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="Q23" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="R23" s="5">
         <v>1</v>
       </c>
@@ -2010,7 +2020,7 @@
         <v>1</v>
       </c>
       <c r="T23" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U23" s="5">
         <v>0</v>
@@ -2021,238 +2031,274 @@
     </row>
     <row r="24" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>7</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="5">
-        <v>1</v>
-      </c>
-      <c r="D24" s="5">
-        <v>1</v>
-      </c>
-      <c r="E24" s="5">
-        <v>1</v>
-      </c>
-      <c r="F24" s="5">
-        <v>1</v>
-      </c>
-      <c r="G24" s="5">
-        <v>1</v>
-      </c>
-      <c r="H24" s="5">
-        <v>0</v>
-      </c>
-      <c r="I24" s="5">
-        <v>1</v>
-      </c>
-      <c r="J24" s="5">
-        <v>0</v>
-      </c>
-      <c r="K24" s="11"/>
-      <c r="L24" s="5">
-        <v>1</v>
-      </c>
-      <c r="M24" s="5">
+        <v>4</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2">
         <v>2</v>
       </c>
-      <c r="N24" s="5">
-        <v>0</v>
-      </c>
-      <c r="O24" s="5">
-        <v>1</v>
-      </c>
-      <c r="P24" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="5">
-        <v>1</v>
-      </c>
-      <c r="S24" s="5">
-        <v>1</v>
-      </c>
-      <c r="T24" s="5">
-        <v>1</v>
-      </c>
-      <c r="U24" s="5">
-        <v>0</v>
-      </c>
-      <c r="V24" s="5">
-        <v>0</v>
-      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2">
+        <v>2</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="8">
+        <v>0</v>
+      </c>
+      <c r="K24" s="10"/>
+      <c r="L24" s="2">
+        <v>1</v>
+      </c>
+      <c r="M24" s="2">
+        <v>2</v>
+      </c>
+      <c r="N24" s="2">
+        <v>2</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0</v>
+      </c>
+      <c r="P24" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="2">
+        <v>1</v>
+      </c>
+      <c r="S24" s="2">
+        <v>2</v>
+      </c>
+      <c r="T24" s="2">
+        <v>1</v>
+      </c>
+      <c r="U24" s="2">
+        <v>0</v>
+      </c>
+      <c r="V24" s="2">
+        <v>0</v>
+      </c>
+      <c r="W24" s="8"/>
     </row>
     <row r="25" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>8</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="5">
-        <v>1</v>
-      </c>
-      <c r="D25" s="5">
-        <v>1</v>
-      </c>
-      <c r="E25" s="5">
-        <v>1</v>
-      </c>
-      <c r="F25" s="5">
-        <v>1</v>
-      </c>
-      <c r="G25" s="5">
-        <v>1</v>
-      </c>
-      <c r="H25" s="5">
-        <v>1</v>
-      </c>
-      <c r="I25" s="5">
-        <v>0</v>
-      </c>
-      <c r="J25" s="5">
-        <v>0</v>
-      </c>
-      <c r="K25" s="11"/>
-      <c r="L25" s="5">
-        <v>1</v>
-      </c>
-      <c r="M25" s="5">
+        <v>5</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2">
+        <v>1</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="8">
+        <v>0</v>
+      </c>
+      <c r="K25" s="10"/>
+      <c r="L25" s="2">
+        <v>1</v>
+      </c>
+      <c r="M25" s="2">
+        <v>1</v>
+      </c>
+      <c r="N25" s="2">
+        <v>1</v>
+      </c>
+      <c r="O25" s="2">
+        <v>0</v>
+      </c>
+      <c r="P25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="2">
+        <v>1</v>
+      </c>
+      <c r="S25" s="2">
+        <v>1</v>
+      </c>
+      <c r="T25" s="2">
+        <v>1</v>
+      </c>
+      <c r="U25" s="2">
+        <v>0</v>
+      </c>
+      <c r="V25" s="2">
+        <v>0</v>
+      </c>
+      <c r="W25" s="8"/>
+    </row>
+    <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>6</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5">
+        <v>1</v>
+      </c>
+      <c r="E26" s="5">
+        <v>1</v>
+      </c>
+      <c r="F26" s="5">
+        <v>1</v>
+      </c>
+      <c r="G26" s="5">
+        <v>1</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0</v>
+      </c>
+      <c r="I26" s="5">
+        <v>1</v>
+      </c>
+      <c r="J26" s="5">
+        <v>0</v>
+      </c>
+      <c r="K26" s="11"/>
+      <c r="L26" s="5">
+        <v>1</v>
+      </c>
+      <c r="M26" s="5">
         <v>2</v>
       </c>
-      <c r="N25" s="5">
-        <v>1</v>
-      </c>
-      <c r="O25" s="5">
-        <v>0</v>
-      </c>
-      <c r="P25" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="5">
-        <v>1</v>
-      </c>
-      <c r="S25" s="5">
-        <v>1</v>
-      </c>
-      <c r="T25" s="5">
-        <v>1</v>
-      </c>
-      <c r="U25" s="5">
-        <v>0</v>
-      </c>
-      <c r="V25" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="15"/>
-      <c r="T26" s="15"/>
-      <c r="U26" s="15"/>
-      <c r="V26" s="15"/>
-      <c r="W26" s="15"/>
+      <c r="N26" s="5">
+        <v>0</v>
+      </c>
+      <c r="O26" s="5">
+        <v>1</v>
+      </c>
+      <c r="P26" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="5">
+        <v>1</v>
+      </c>
+      <c r="S26" s="5">
+        <v>1</v>
+      </c>
+      <c r="T26" s="5">
+        <v>1</v>
+      </c>
+      <c r="U26" s="5">
+        <v>0</v>
+      </c>
+      <c r="V26" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
-        <v>1</v>
+      <c r="A27" s="2">
+        <v>7</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C27" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H27" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" s="5">
         <v>0</v>
       </c>
       <c r="K27" s="11"/>
       <c r="L27" s="5">
+        <v>1</v>
+      </c>
+      <c r="M27" s="5">
         <v>2</v>
       </c>
-      <c r="M27" s="5">
-        <v>4</v>
-      </c>
       <c r="N27" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O27" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" s="5">
         <v>0</v>
       </c>
       <c r="Q27" s="11"/>
       <c r="R27" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S27" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T27" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U27" s="5">
         <v>0</v>
       </c>
       <c r="V27" s="5">
-        <v>2</v>
-      </c>
-      <c r="W27" s="6" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
-        <v>2</v>
+      <c r="A28" s="2">
+        <v>8</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C28" s="5">
         <v>1</v>
       </c>
       <c r="D28" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28" s="5">
         <v>1</v>
@@ -2261,7 +2307,7 @@
         <v>1</v>
       </c>
       <c r="G28" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28" s="5">
         <v>1</v>
@@ -2277,7 +2323,7 @@
         <v>1</v>
       </c>
       <c r="M28" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N28" s="5">
         <v>1</v>
@@ -2293,7 +2339,7 @@
         <v>1</v>
       </c>
       <c r="S28" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T28" s="5">
         <v>1</v>
@@ -2306,93 +2352,56 @@
       </c>
     </row>
     <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="5">
-        <v>3</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="5">
-        <v>1</v>
-      </c>
-      <c r="D29" s="5">
-        <v>2</v>
-      </c>
-      <c r="E29" s="5">
-        <v>1</v>
-      </c>
-      <c r="F29" s="5">
-        <v>1</v>
-      </c>
-      <c r="G29" s="5">
-        <v>2</v>
-      </c>
-      <c r="H29" s="5">
-        <v>1</v>
-      </c>
-      <c r="I29" s="5">
-        <v>0</v>
-      </c>
-      <c r="J29" s="5">
-        <v>0</v>
-      </c>
-      <c r="K29" s="11"/>
-      <c r="L29" s="5">
-        <v>1</v>
-      </c>
-      <c r="M29" s="5">
-        <v>4</v>
-      </c>
-      <c r="N29" s="5">
-        <v>1</v>
-      </c>
-      <c r="O29" s="5">
-        <v>0</v>
-      </c>
-      <c r="P29" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="5">
-        <v>1</v>
-      </c>
-      <c r="S29" s="5">
-        <v>2</v>
-      </c>
-      <c r="T29" s="5">
-        <v>1</v>
-      </c>
-      <c r="U29" s="5">
-        <v>0</v>
-      </c>
-      <c r="V29" s="5">
-        <v>0</v>
-      </c>
+      <c r="A29" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="17"/>
+      <c r="W29" s="17"/>
     </row>
     <row r="30" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C30" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" s="5">
         <v>2</v>
       </c>
       <c r="E30" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30" s="5">
         <v>2</v>
       </c>
       <c r="H30" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" s="5">
         <v>0</v>
@@ -2402,13 +2411,13 @@
       </c>
       <c r="K30" s="11"/>
       <c r="L30" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M30" s="5">
         <v>4</v>
       </c>
       <c r="N30" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O30" s="5">
         <v>0</v>
@@ -2418,42 +2427,45 @@
       </c>
       <c r="Q30" s="11"/>
       <c r="R30" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S30" s="5">
         <v>2</v>
       </c>
       <c r="T30" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U30" s="5">
         <v>0</v>
       </c>
       <c r="V30" s="5">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="W30" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C31" s="5">
         <v>1</v>
       </c>
       <c r="D31" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="5">
         <v>1</v>
       </c>
       <c r="G31" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31" s="5">
         <v>1</v>
@@ -2462,14 +2474,14 @@
         <v>0</v>
       </c>
       <c r="J31" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="11"/>
       <c r="L31" s="5">
         <v>1</v>
       </c>
       <c r="M31" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N31" s="5">
         <v>1</v>
@@ -2478,14 +2490,14 @@
         <v>0</v>
       </c>
       <c r="P31" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="11"/>
       <c r="R31" s="5">
         <v>1</v>
       </c>
       <c r="S31" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T31" s="5">
         <v>1</v>
@@ -2494,61 +2506,241 @@
         <v>0</v>
       </c>
       <c r="V31" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="5"/>
-    </row>
-    <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="5"/>
-    </row>
-    <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="5">
+        <v>1</v>
+      </c>
+      <c r="D32" s="5">
+        <v>2</v>
+      </c>
+      <c r="E32" s="5">
+        <v>1</v>
+      </c>
+      <c r="F32" s="5">
+        <v>1</v>
+      </c>
+      <c r="G32" s="5">
+        <v>2</v>
+      </c>
+      <c r="H32" s="5">
+        <v>1</v>
+      </c>
+      <c r="I32" s="5">
+        <v>0</v>
+      </c>
+      <c r="J32" s="5">
+        <v>0</v>
+      </c>
+      <c r="K32" s="11"/>
+      <c r="L32" s="5">
+        <v>1</v>
+      </c>
+      <c r="M32" s="5">
+        <v>4</v>
+      </c>
+      <c r="N32" s="5">
+        <v>1</v>
+      </c>
+      <c r="O32" s="5">
+        <v>0</v>
+      </c>
+      <c r="P32" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="5">
+        <v>1</v>
+      </c>
+      <c r="S32" s="5">
+        <v>2</v>
+      </c>
+      <c r="T32" s="5">
+        <v>1</v>
+      </c>
+      <c r="U32" s="5">
+        <v>0</v>
+      </c>
+      <c r="V32" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5">
+        <v>4</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="5">
+        <v>1</v>
+      </c>
+      <c r="D33" s="5">
+        <v>2</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1</v>
+      </c>
+      <c r="F33" s="5">
+        <v>1</v>
+      </c>
+      <c r="G33" s="5">
+        <v>2</v>
+      </c>
+      <c r="H33" s="5">
+        <v>1</v>
+      </c>
+      <c r="I33" s="5">
+        <v>0</v>
+      </c>
+      <c r="J33" s="5">
+        <v>0</v>
+      </c>
+      <c r="K33" s="11"/>
+      <c r="L33" s="5">
+        <v>1</v>
+      </c>
+      <c r="M33" s="5">
+        <v>4</v>
+      </c>
+      <c r="N33" s="5">
+        <v>1</v>
+      </c>
+      <c r="O33" s="5">
+        <v>0</v>
+      </c>
+      <c r="P33" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="5">
+        <v>1</v>
+      </c>
+      <c r="S33" s="5">
+        <v>2</v>
+      </c>
+      <c r="T33" s="5">
+        <v>1</v>
+      </c>
+      <c r="U33" s="5">
+        <v>0</v>
+      </c>
+      <c r="V33" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
+        <v>5</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="5">
+        <v>1</v>
+      </c>
+      <c r="D34" s="5">
+        <v>1</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0</v>
+      </c>
+      <c r="F34" s="5">
+        <v>1</v>
+      </c>
+      <c r="G34" s="5">
+        <v>1</v>
+      </c>
+      <c r="H34" s="5">
+        <v>1</v>
+      </c>
+      <c r="I34" s="5">
+        <v>0</v>
+      </c>
+      <c r="J34" s="5">
+        <v>1</v>
+      </c>
+      <c r="K34" s="11"/>
+      <c r="L34" s="5">
+        <v>1</v>
+      </c>
+      <c r="M34" s="5">
+        <v>2</v>
+      </c>
+      <c r="N34" s="5">
+        <v>1</v>
+      </c>
+      <c r="O34" s="5">
+        <v>0</v>
+      </c>
+      <c r="P34" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="5">
+        <v>1</v>
+      </c>
+      <c r="S34" s="5">
+        <v>1</v>
+      </c>
+      <c r="T34" s="5">
+        <v>1</v>
+      </c>
+      <c r="U34" s="5">
+        <v>0</v>
+      </c>
+      <c r="V34" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
     </row>
-    <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="5"/>
-    </row>
-    <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
     </row>
-    <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K39" s="11"/>
-      <c r="Q39" s="11"/>
-    </row>
-    <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K40" s="11"/>
-      <c r="Q40" s="11"/>
-    </row>
-    <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K41" s="11"/>
-      <c r="Q41" s="11"/>
-    </row>
-    <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="5"/>
+    </row>
+    <row r="40" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="5"/>
+    </row>
+    <row r="41" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="5"/>
+    </row>
+    <row r="42" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K42" s="11"/>
       <c r="Q42" s="11"/>
     </row>
-    <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K43" s="11"/>
       <c r="Q43" s="11"/>
     </row>
-    <row r="44" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K44" s="11"/>
       <c r="Q44" s="11"/>
     </row>
-    <row r="45" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K45" s="11"/>
       <c r="Q45" s="11"/>
     </row>
-    <row r="46" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K46" s="11"/>
       <c r="Q46" s="11"/>
     </row>
-    <row r="47" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K47" s="11"/>
       <c r="Q47" s="11"/>
     </row>
-    <row r="48" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K48" s="11"/>
       <c r="Q48" s="11"/>
     </row>
@@ -2648,15 +2840,15 @@
       <c r="K72" s="11"/>
       <c r="Q72" s="11"/>
     </row>
-    <row r="73" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K73" s="11"/>
       <c r="Q73" s="11"/>
     </row>
-    <row r="74" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K74" s="11"/>
       <c r="Q74" s="11"/>
     </row>
-    <row r="75" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K75" s="11"/>
       <c r="Q75" s="11"/>
     </row>
@@ -6428,11 +6620,23 @@
       <c r="K1017" s="11"/>
       <c r="Q1017" s="11"/>
     </row>
+    <row r="1018" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="K1018" s="11"/>
+      <c r="Q1018" s="11"/>
+    </row>
+    <row r="1019" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="K1019" s="11"/>
+      <c r="Q1019" s="11"/>
+    </row>
+    <row r="1020" spans="11:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="K1020" s="11"/>
+      <c r="Q1020" s="11"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A26:W26"/>
+    <mergeCell ref="A29:W29"/>
     <mergeCell ref="A3:W3"/>
-    <mergeCell ref="A17:W17"/>
+    <mergeCell ref="A20:W20"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="F1:K1"/>
     <mergeCell ref="L1:Q1"/>
@@ -6440,5 +6644,6 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>